--- a/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CECE5A2-AF52-4F6C-AADF-AEF317F80A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C8117-B248-426B-8C1B-87DE54A04478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39405" yWindow="10740" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="39060" yWindow="10395" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$597</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$596</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="656">
   <si>
     <t>ship_site</t>
   </si>
@@ -1518,9 +1518,6 @@
   </si>
   <si>
     <t>SM51445754</t>
-  </si>
-  <si>
-    <t>SM51445756</t>
   </si>
   <si>
     <t>SM51445757</t>
@@ -2109,7 +2106,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="5515998066060" refreshedDate="45874.770827777778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="596" xr:uid="{FBB48B95-F788-4F08-95E5-E74CBAB44080}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L597" sheet="Sheet1"/>
+    <worksheetSource ref="A1:L596" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="NumeroOrdem" numFmtId="0">
@@ -11933,11 +11930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7608DFC0-548D-4A1C-85C0-9BAB3C631902}">
-  <dimension ref="A1:N597"/>
+  <dimension ref="A1:N596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N131" sqref="N131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A604" sqref="A604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11993,7 +11990,7 @@
         <v>131</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -28577,7 +28574,7 @@
         <v>5</v>
       </c>
       <c r="H387" s="1">
-        <f t="shared" ref="H387:H450" ca="1" si="12">TODAY()+M387</f>
+        <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
         <v>45893</v>
       </c>
       <c r="I387">
@@ -28590,7 +28587,7 @@
         <v>6</v>
       </c>
       <c r="L387" s="2">
-        <f t="shared" ref="L387:L450" si="13">J387*I387</f>
+        <f t="shared" ref="L387:L449" si="13">J387*I387</f>
         <v>80</v>
       </c>
       <c r="M387" s="7">
@@ -29462,13 +29459,13 @@
         <v>495</v>
       </c>
       <c r="B408">
-        <v>88986</v>
+        <v>78139</v>
       </c>
       <c r="C408">
         <v>10000</v>
       </c>
       <c r="D408" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E408" t="s">
         <v>8</v>
@@ -29487,14 +29484,14 @@
         <v>2</v>
       </c>
       <c r="J408" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="K408" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L408" s="2">
         <f t="shared" si="13"/>
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="M408" s="7">
         <v>20</v>
@@ -29505,13 +29502,13 @@
         <v>496</v>
       </c>
       <c r="B409">
-        <v>78139</v>
+        <v>851952</v>
       </c>
       <c r="C409">
         <v>10000</v>
       </c>
       <c r="D409" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E409" t="s">
         <v>8</v>
@@ -29527,7 +29524,7 @@
         <v>45894</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J409" s="2">
         <v>13</v>
@@ -29537,7 +29534,7 @@
       </c>
       <c r="L409" s="2">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M409" s="7">
         <v>20</v>
@@ -29554,7 +29551,7 @@
         <v>10000</v>
       </c>
       <c r="D410" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E410" t="s">
         <v>8</v>
@@ -29570,7 +29567,7 @@
         <v>45894</v>
       </c>
       <c r="I410">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J410" s="2">
         <v>13</v>
@@ -29580,7 +29577,7 @@
       </c>
       <c r="L410" s="2">
         <f t="shared" si="13"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M410" s="7">
         <v>20</v>
@@ -29591,13 +29588,13 @@
         <v>498</v>
       </c>
       <c r="B411">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C411">
         <v>10000</v>
       </c>
       <c r="D411" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E411" t="s">
         <v>8</v>
@@ -29613,17 +29610,17 @@
         <v>45894</v>
       </c>
       <c r="I411">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J411" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K411" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L411" s="2">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M411" s="7">
         <v>20</v>
@@ -29634,13 +29631,13 @@
         <v>499</v>
       </c>
       <c r="B412">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C412">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D412" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E412" t="s">
         <v>8</v>
@@ -29659,14 +29656,14 @@
         <v>4</v>
       </c>
       <c r="J412" s="2">
-        <v>5</v>
+        <v>8.75</v>
       </c>
       <c r="K412" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L412" s="2">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M412" s="7">
         <v>20</v>
@@ -29699,17 +29696,17 @@
         <v>45894</v>
       </c>
       <c r="I413">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J413" s="2">
-        <v>8.75</v>
+        <v>35.5</v>
       </c>
       <c r="K413" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L413" s="2">
         <f t="shared" si="13"/>
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="M413" s="7">
         <v>20</v>
@@ -29742,17 +29739,17 @@
         <v>45894</v>
       </c>
       <c r="I414">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J414" s="2">
-        <v>35.5</v>
+        <v>12.75</v>
       </c>
       <c r="K414" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L414" s="2">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M414" s="7">
         <v>20</v>
@@ -29785,7 +29782,7 @@
         <v>45894</v>
       </c>
       <c r="I415">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J415" s="2">
         <v>12.75</v>
@@ -29795,7 +29792,7 @@
       </c>
       <c r="L415" s="2">
         <f t="shared" si="13"/>
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="M415" s="7">
         <v>20</v>
@@ -29803,13 +29800,13 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>503</v>
+        <v>44</v>
       </c>
       <c r="B416">
-        <v>62018</v>
+        <v>88959</v>
       </c>
       <c r="C416">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D416" s="2">
         <v>79</v>
@@ -29831,14 +29828,14 @@
         <v>12</v>
       </c>
       <c r="J416" s="2">
-        <v>12.75</v>
+        <v>8.625</v>
       </c>
       <c r="K416" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L416" s="2">
         <f t="shared" si="13"/>
-        <v>153</v>
+        <v>103.5</v>
       </c>
       <c r="M416" s="7">
         <v>20</v>
@@ -29846,7 +29843,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>44</v>
+        <v>503</v>
       </c>
       <c r="B417">
         <v>88959</v>
@@ -29871,17 +29868,17 @@
         <v>45894</v>
       </c>
       <c r="I417">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J417" s="2">
-        <v>8.625</v>
+        <v>13</v>
       </c>
       <c r="K417" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L417" s="2">
         <f t="shared" si="13"/>
-        <v>103.5</v>
+        <v>52</v>
       </c>
       <c r="M417" s="7">
         <v>20</v>
@@ -29892,7 +29889,7 @@
         <v>504</v>
       </c>
       <c r="B418">
-        <v>88959</v>
+        <v>88020</v>
       </c>
       <c r="C418">
         <v>10000</v>
@@ -29914,17 +29911,17 @@
         <v>45894</v>
       </c>
       <c r="I418">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J418" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L418" s="2">
         <f t="shared" si="13"/>
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="M418" s="7">
         <v>20</v>
@@ -29957,17 +29954,17 @@
         <v>45894</v>
       </c>
       <c r="I419">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J419" s="2">
-        <v>9</v>
+        <v>13.25</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L419" s="2">
         <f t="shared" si="13"/>
-        <v>126</v>
+        <v>26.5</v>
       </c>
       <c r="M419" s="7">
         <v>20</v>
@@ -30000,17 +29997,17 @@
         <v>45894</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J420" s="2">
-        <v>13.25</v>
+        <v>6</v>
       </c>
       <c r="K420" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L420" s="2">
         <f t="shared" si="13"/>
-        <v>26.5</v>
+        <v>60</v>
       </c>
       <c r="M420" s="7">
         <v>20</v>
@@ -30040,23 +30037,23 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I421">
         <v>10</v>
       </c>
       <c r="J421" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K421" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L421" s="2">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M421" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
@@ -30086,17 +30083,17 @@
         <v>45895</v>
       </c>
       <c r="I422">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J422" s="2">
-        <v>7</v>
+        <v>13.25</v>
       </c>
       <c r="K422" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L422" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>26.5</v>
       </c>
       <c r="M422" s="7">
         <v>21</v>
@@ -30129,17 +30126,17 @@
         <v>45895</v>
       </c>
       <c r="I423">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J423" s="2">
-        <v>13.25</v>
+        <v>10</v>
       </c>
       <c r="K423" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L423" s="2">
         <f t="shared" si="13"/>
-        <v>26.5</v>
+        <v>100</v>
       </c>
       <c r="M423" s="7">
         <v>21</v>
@@ -30172,17 +30169,17 @@
         <v>45895</v>
       </c>
       <c r="I424">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J424" s="2">
-        <v>10</v>
+        <v>13.25</v>
       </c>
       <c r="K424" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L424" s="2">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M424" s="7">
         <v>21</v>
@@ -30215,7 +30212,7 @@
         <v>45895</v>
       </c>
       <c r="I425">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J425" s="2">
         <v>13.25</v>
@@ -30225,7 +30222,7 @@
       </c>
       <c r="L425" s="2">
         <f t="shared" si="13"/>
-        <v>53</v>
+        <v>26.5</v>
       </c>
       <c r="M425" s="7">
         <v>21</v>
@@ -30258,17 +30255,17 @@
         <v>45895</v>
       </c>
       <c r="I426">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J426" s="2">
-        <v>13.25</v>
+        <v>9</v>
       </c>
       <c r="K426" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L426" s="2">
         <f t="shared" si="13"/>
-        <v>26.5</v>
+        <v>108</v>
       </c>
       <c r="M426" s="7">
         <v>21</v>
@@ -30301,17 +30298,17 @@
         <v>45895</v>
       </c>
       <c r="I427">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J427" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K427" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L427" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M427" s="7">
         <v>21</v>
@@ -30328,7 +30325,7 @@
         <v>10000</v>
       </c>
       <c r="D428" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E428" t="s">
         <v>8</v>
@@ -30344,17 +30341,17 @@
         <v>45895</v>
       </c>
       <c r="I428">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J428" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K428" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L428" s="2">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M428" s="7">
         <v>21</v>
@@ -30371,7 +30368,7 @@
         <v>10000</v>
       </c>
       <c r="D429" s="2">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E429" t="s">
         <v>8</v>
@@ -30387,17 +30384,17 @@
         <v>45895</v>
       </c>
       <c r="I429">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J429" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K429" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L429" s="2">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M429" s="7">
         <v>21</v>
@@ -30405,7 +30402,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="B430">
         <v>88020</v>
@@ -30430,17 +30427,17 @@
         <v>45895</v>
       </c>
       <c r="I430">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J430" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L430" s="2">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M430" s="7">
         <v>21</v>
@@ -30448,7 +30445,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="B431">
         <v>88020</v>
@@ -30473,17 +30470,17 @@
         <v>45895</v>
       </c>
       <c r="I431">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J431" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K431" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L431" s="2">
         <f t="shared" si="13"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M431" s="7">
         <v>21</v>
@@ -30516,17 +30513,17 @@
         <v>45895</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J432" s="2">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="K432" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L432" s="2">
         <f t="shared" si="13"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M432" s="7">
         <v>21</v>
@@ -30537,13 +30534,13 @@
         <v>518</v>
       </c>
       <c r="B433">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C433">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D433" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E433" t="s">
         <v>8</v>
@@ -30559,17 +30556,17 @@
         <v>45895</v>
       </c>
       <c r="I433">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J433" s="2">
-        <v>4.5</v>
+        <v>8.25</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L433" s="2">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="M433" s="7">
         <v>21</v>
@@ -30577,16 +30574,16 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>519</v>
+        <v>45</v>
       </c>
       <c r="B434">
-        <v>62018</v>
+        <v>551952</v>
       </c>
       <c r="C434">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D434" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E434" t="s">
         <v>8</v>
@@ -30605,14 +30602,14 @@
         <v>2</v>
       </c>
       <c r="J434" s="2">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L434" s="2">
         <f t="shared" si="13"/>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="M434" s="7">
         <v>21</v>
@@ -30620,7 +30617,7 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>45</v>
+        <v>519</v>
       </c>
       <c r="B435">
         <v>551952</v>
@@ -30645,17 +30642,17 @@
         <v>45895</v>
       </c>
       <c r="I435">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J435" s="2">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="K435" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L435" s="2">
         <f t="shared" si="13"/>
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="M435" s="7">
         <v>21</v>
@@ -30688,17 +30685,17 @@
         <v>45895</v>
       </c>
       <c r="I436">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J436" s="2">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L436" s="2">
         <f t="shared" si="13"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M436" s="7">
         <v>21</v>
@@ -30731,17 +30728,17 @@
         <v>45895</v>
       </c>
       <c r="I437">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J437" s="2">
-        <v>10</v>
+        <v>10.125</v>
       </c>
       <c r="K437" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L437" s="2">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="M437" s="7">
         <v>21</v>
@@ -30752,13 +30749,13 @@
         <v>522</v>
       </c>
       <c r="B438">
-        <v>551952</v>
+        <v>88020</v>
       </c>
       <c r="C438">
         <v>10000</v>
       </c>
       <c r="D438" s="2">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E438" t="s">
         <v>8</v>
@@ -30777,14 +30774,14 @@
         <v>8</v>
       </c>
       <c r="J438" s="2">
-        <v>10.125</v>
+        <v>5</v>
       </c>
       <c r="K438" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L438" s="2">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="M438" s="7">
         <v>21</v>
@@ -30801,7 +30798,7 @@
         <v>10000</v>
       </c>
       <c r="D439" s="2">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E439" t="s">
         <v>8</v>
@@ -30817,17 +30814,17 @@
         <v>45895</v>
       </c>
       <c r="I439">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J439" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K439" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L439" s="2">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M439" s="7">
         <v>21</v>
@@ -30863,14 +30860,14 @@
         <v>6</v>
       </c>
       <c r="J440" s="2">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="K440" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L440" s="2">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M440" s="7">
         <v>21</v>
@@ -30900,23 +30897,23 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I441">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J441" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L441" s="2">
         <f t="shared" si="13"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M441" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -30949,14 +30946,14 @@
         <v>2</v>
       </c>
       <c r="J442" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K442" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L442" s="2">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M442" s="7">
         <v>22</v>
@@ -30989,17 +30986,17 @@
         <v>45896</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J443" s="2">
-        <v>26.5</v>
+        <v>21</v>
       </c>
       <c r="K443" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L443" s="2">
         <f t="shared" si="13"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M443" s="7">
         <v>22</v>
@@ -31032,17 +31029,17 @@
         <v>45896</v>
       </c>
       <c r="I444">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J444" s="2">
-        <v>21</v>
+        <v>7.25</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L444" s="2">
         <f t="shared" si="13"/>
-        <v>84</v>
+        <v>72.5</v>
       </c>
       <c r="M444" s="7">
         <v>22</v>
@@ -31059,7 +31056,7 @@
         <v>10000</v>
       </c>
       <c r="D445" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E445" t="s">
         <v>8</v>
@@ -31075,17 +31072,17 @@
         <v>45896</v>
       </c>
       <c r="I445">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J445" s="2">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="K445" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L445" s="2">
         <f t="shared" si="13"/>
-        <v>72.5</v>
+        <v>12</v>
       </c>
       <c r="M445" s="7">
         <v>22</v>
@@ -31121,14 +31118,14 @@
         <v>2</v>
       </c>
       <c r="J446" s="2">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K446" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L446" s="2">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M446" s="7">
         <v>22</v>
@@ -31139,13 +31136,13 @@
         <v>531</v>
       </c>
       <c r="B447">
-        <v>88020</v>
+        <v>88959</v>
       </c>
       <c r="C447">
         <v>10000</v>
       </c>
       <c r="D447" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E447" t="s">
         <v>8</v>
@@ -31161,17 +31158,17 @@
         <v>45896</v>
       </c>
       <c r="I447">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J447" s="2">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K447" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L447" s="2">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M447" s="7">
         <v>22</v>
@@ -31204,17 +31201,17 @@
         <v>45896</v>
       </c>
       <c r="I448">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J448" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K448" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L448" s="2">
         <f t="shared" si="13"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M448" s="7">
         <v>22</v>
@@ -31225,10 +31222,10 @@
         <v>533</v>
       </c>
       <c r="B449">
-        <v>88959</v>
+        <v>62018</v>
       </c>
       <c r="C449">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D449" s="2">
         <v>79</v>
@@ -31250,14 +31247,14 @@
         <v>8</v>
       </c>
       <c r="J449" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K449" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L449" s="2">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M449" s="7">
         <v>22</v>
@@ -31286,7 +31283,7 @@
         <v>5</v>
       </c>
       <c r="H450" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
         <v>45896</v>
       </c>
       <c r="I450">
@@ -31299,7 +31296,7 @@
         <v>6</v>
       </c>
       <c r="L450" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L450:L513" si="15">J450*I450</f>
         <v>152</v>
       </c>
       <c r="M450" s="7">
@@ -31329,11 +31326,11 @@
         <v>5</v>
       </c>
       <c r="H451" s="1">
-        <f t="shared" ref="H451:H514" ca="1" si="14">TODAY()+M451</f>
+        <f t="shared" ca="1" si="14"/>
         <v>45896</v>
       </c>
       <c r="I451">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J451" s="2">
         <v>19</v>
@@ -31342,8 +31339,8 @@
         <v>6</v>
       </c>
       <c r="L451" s="2">
-        <f t="shared" ref="L451:L514" si="15">J451*I451</f>
-        <v>152</v>
+        <f t="shared" si="15"/>
+        <v>76</v>
       </c>
       <c r="M451" s="7">
         <v>22</v>
@@ -31376,17 +31373,17 @@
         <v>45896</v>
       </c>
       <c r="I452">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J452" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K452" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L452" s="2">
         <f t="shared" si="15"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M452" s="7">
         <v>22</v>
@@ -31422,14 +31419,14 @@
         <v>2</v>
       </c>
       <c r="J453" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L453" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M453" s="7">
         <v>22</v>
@@ -31440,10 +31437,10 @@
         <v>538</v>
       </c>
       <c r="B454">
-        <v>62018</v>
+        <v>88959</v>
       </c>
       <c r="C454">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D454" s="2">
         <v>79</v>
@@ -31462,17 +31459,17 @@
         <v>45896</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J454" s="2">
-        <v>26.5</v>
+        <v>8.75</v>
       </c>
       <c r="K454" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L454" s="2">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>157.5</v>
       </c>
       <c r="M454" s="7">
         <v>22</v>
@@ -31489,7 +31486,7 @@
         <v>10000</v>
       </c>
       <c r="D455" s="2">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E455" t="s">
         <v>8</v>
@@ -31505,7 +31502,7 @@
         <v>45896</v>
       </c>
       <c r="I455">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J455" s="2">
         <v>8.75</v>
@@ -31515,7 +31512,7 @@
       </c>
       <c r="L455" s="2">
         <f t="shared" si="15"/>
-        <v>157.5</v>
+        <v>35</v>
       </c>
       <c r="M455" s="7">
         <v>22</v>
@@ -31526,13 +31523,13 @@
         <v>540</v>
       </c>
       <c r="B456">
-        <v>88959</v>
+        <v>88020</v>
       </c>
       <c r="C456">
         <v>10000</v>
       </c>
       <c r="D456" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E456" t="s">
         <v>8</v>
@@ -31548,17 +31545,17 @@
         <v>45896</v>
       </c>
       <c r="I456">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J456" s="2">
-        <v>8.75</v>
+        <v>8.875</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L456" s="2">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>17.75</v>
       </c>
       <c r="M456" s="7">
         <v>22</v>
@@ -31566,7 +31563,7 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>541</v>
+        <v>72</v>
       </c>
       <c r="B457">
         <v>88020</v>
@@ -31594,14 +31591,14 @@
         <v>2</v>
       </c>
       <c r="J457" s="2">
-        <v>8.875</v>
+        <v>11.25</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L457" s="2">
         <f t="shared" si="15"/>
-        <v>17.75</v>
+        <v>22.5</v>
       </c>
       <c r="M457" s="7">
         <v>22</v>
@@ -31609,7 +31606,7 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B458">
         <v>88020</v>
@@ -31618,7 +31615,7 @@
         <v>10000</v>
       </c>
       <c r="D458" s="2">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E458" t="s">
         <v>8</v>
@@ -31634,17 +31631,17 @@
         <v>45896</v>
       </c>
       <c r="I458">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J458" s="2">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L458" s="2">
         <f t="shared" si="15"/>
-        <v>22.5</v>
+        <v>104</v>
       </c>
       <c r="M458" s="7">
         <v>22</v>
@@ -31652,7 +31649,7 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="B459">
         <v>88020</v>
@@ -31677,17 +31674,17 @@
         <v>45896</v>
       </c>
       <c r="I459">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J459" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K459" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L459" s="2">
         <f t="shared" si="15"/>
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="M459" s="7">
         <v>22</v>
@@ -31698,7 +31695,7 @@
         <v>542</v>
       </c>
       <c r="B460">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C460">
         <v>10000</v>
@@ -31723,14 +31720,14 @@
         <v>2</v>
       </c>
       <c r="J460" s="2">
-        <v>26.5</v>
+        <v>13</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L460" s="2">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M460" s="7">
         <v>22</v>
@@ -31760,23 +31757,23 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I461">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J461" s="2">
         <v>13</v>
       </c>
       <c r="K461" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L461" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M461" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
@@ -31784,7 +31781,7 @@
         <v>544</v>
       </c>
       <c r="B462">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C462">
         <v>10000</v>
@@ -31806,7 +31803,7 @@
         <v>45897</v>
       </c>
       <c r="I462">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J462" s="2">
         <v>13</v>
@@ -31816,7 +31813,7 @@
       </c>
       <c r="L462" s="2">
         <f t="shared" si="15"/>
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="M462" s="7">
         <v>23</v>
@@ -31849,17 +31846,17 @@
         <v>45897</v>
       </c>
       <c r="I463">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J463" s="2">
         <v>13</v>
       </c>
       <c r="K463" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L463" s="2">
         <f t="shared" si="15"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M463" s="7">
         <v>23</v>
@@ -31892,17 +31889,17 @@
         <v>45897</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J464" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K464" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L464" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M464" s="7">
         <v>23</v>
@@ -31910,7 +31907,7 @@
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>547</v>
+        <v>39</v>
       </c>
       <c r="B465">
         <v>88020</v>
@@ -31935,17 +31932,17 @@
         <v>45897</v>
       </c>
       <c r="I465">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J465" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K465" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L465" s="2">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M465" s="7">
         <v>23</v>
@@ -31953,7 +31950,7 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="B466">
         <v>88020</v>
@@ -31978,17 +31975,17 @@
         <v>45897</v>
       </c>
       <c r="I466">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J466" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L466" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M466" s="7">
         <v>23</v>
@@ -31999,7 +31996,7 @@
         <v>548</v>
       </c>
       <c r="B467">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C467">
         <v>10000</v>
@@ -32021,7 +32018,7 @@
         <v>45897</v>
       </c>
       <c r="I467">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J467" s="2">
         <v>13</v>
@@ -32031,7 +32028,7 @@
       </c>
       <c r="L467" s="2">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M467" s="7">
         <v>23</v>
@@ -32048,7 +32045,7 @@
         <v>10000</v>
       </c>
       <c r="D468" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E468" t="s">
         <v>8</v>
@@ -32064,7 +32061,7 @@
         <v>45897</v>
       </c>
       <c r="I468">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J468" s="2">
         <v>13</v>
@@ -32074,7 +32071,7 @@
       </c>
       <c r="L468" s="2">
         <f t="shared" si="15"/>
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="M468" s="7">
         <v>23</v>
@@ -32091,7 +32088,7 @@
         <v>10000</v>
       </c>
       <c r="D469" s="2">
-        <v>26.5</v>
+        <v>79</v>
       </c>
       <c r="E469" t="s">
         <v>8</v>
@@ -32107,17 +32104,17 @@
         <v>45897</v>
       </c>
       <c r="I469">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J469" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K469" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L469" s="2">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="M469" s="7">
         <v>23</v>
@@ -32150,17 +32147,17 @@
         <v>45897</v>
       </c>
       <c r="I470">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J470" s="2">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L470" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="M470" s="7">
         <v>23</v>
@@ -32171,7 +32168,7 @@
         <v>552</v>
       </c>
       <c r="B471">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C471">
         <v>10000</v>
@@ -32193,17 +32190,17 @@
         <v>45897</v>
       </c>
       <c r="I471">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J471" s="2">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L471" s="2">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M471" s="7">
         <v>23</v>
@@ -32236,17 +32233,17 @@
         <v>45897</v>
       </c>
       <c r="I472">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J472" s="2">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="K472" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L472" s="2">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="M472" s="7">
         <v>23</v>
@@ -32263,7 +32260,7 @@
         <v>10000</v>
       </c>
       <c r="D473" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E473" t="s">
         <v>8</v>
@@ -32282,14 +32279,14 @@
         <v>2</v>
       </c>
       <c r="J473" s="2">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L473" s="2">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>22.5</v>
       </c>
       <c r="M473" s="7">
         <v>23</v>
@@ -32306,7 +32303,7 @@
         <v>10000</v>
       </c>
       <c r="D474" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E474" t="s">
         <v>8</v>
@@ -32322,17 +32319,17 @@
         <v>45897</v>
       </c>
       <c r="I474">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J474" s="2">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="K474" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L474" s="2">
         <f t="shared" si="15"/>
-        <v>22.5</v>
+        <v>126</v>
       </c>
       <c r="M474" s="7">
         <v>23</v>
@@ -32340,7 +32337,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>556</v>
+        <v>73</v>
       </c>
       <c r="B475">
         <v>88020</v>
@@ -32365,17 +32362,17 @@
         <v>45897</v>
       </c>
       <c r="I475">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J475" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K475" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L475" s="2">
         <f t="shared" si="15"/>
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="M475" s="7">
         <v>23</v>
@@ -32383,7 +32380,7 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>73</v>
+        <v>556</v>
       </c>
       <c r="B476">
         <v>88020</v>
@@ -32392,7 +32389,7 @@
         <v>10000</v>
       </c>
       <c r="D476" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E476" t="s">
         <v>8</v>
@@ -32411,14 +32408,14 @@
         <v>2</v>
       </c>
       <c r="J476" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K476" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L476" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M476" s="7">
         <v>23</v>
@@ -32435,7 +32432,7 @@
         <v>10000</v>
       </c>
       <c r="D477" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E477" t="s">
         <v>8</v>
@@ -32451,17 +32448,17 @@
         <v>45897</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J477" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K477" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L477" s="2">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="M477" s="7">
         <v>23</v>
@@ -32469,7 +32466,7 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>558</v>
+        <v>85</v>
       </c>
       <c r="B478">
         <v>88020</v>
@@ -32494,17 +32491,17 @@
         <v>45897</v>
       </c>
       <c r="I478">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J478" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K478" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L478" s="2">
         <f t="shared" si="15"/>
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="M478" s="7">
         <v>23</v>
@@ -32512,7 +32509,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>85</v>
+        <v>558</v>
       </c>
       <c r="B479">
         <v>88020</v>
@@ -32537,17 +32534,17 @@
         <v>45897</v>
       </c>
       <c r="I479">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J479" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K479" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L479" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="M479" s="7">
         <v>23</v>
@@ -32580,17 +32577,17 @@
         <v>45897</v>
       </c>
       <c r="I480">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J480" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K480" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L480" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M480" s="7">
         <v>23</v>
@@ -32607,7 +32604,7 @@
         <v>10000</v>
       </c>
       <c r="D481" s="2">
-        <v>79</v>
+        <v>13.5</v>
       </c>
       <c r="E481" t="s">
         <v>8</v>
@@ -32620,23 +32617,23 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I481">
         <v>2</v>
       </c>
       <c r="J481" s="2">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="K481" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L481" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>26.5</v>
       </c>
       <c r="M481" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -32644,13 +32641,13 @@
         <v>561</v>
       </c>
       <c r="B482">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C482">
         <v>10000</v>
       </c>
       <c r="D482" s="2">
-        <v>13.5</v>
+        <v>26.5</v>
       </c>
       <c r="E482" t="s">
         <v>8</v>
@@ -32666,17 +32663,17 @@
         <v>45898</v>
       </c>
       <c r="I482">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J482" s="2">
-        <v>13.25</v>
+        <v>13</v>
       </c>
       <c r="K482" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L482" s="2">
         <f t="shared" si="15"/>
-        <v>26.5</v>
+        <v>52</v>
       </c>
       <c r="M482" s="7">
         <v>24</v>
@@ -32693,7 +32690,7 @@
         <v>10000</v>
       </c>
       <c r="D483" s="2">
-        <v>26.5</v>
+        <v>79</v>
       </c>
       <c r="E483" t="s">
         <v>8</v>
@@ -32709,7 +32706,7 @@
         <v>45898</v>
       </c>
       <c r="I483">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J483" s="2">
         <v>13</v>
@@ -32719,7 +32716,7 @@
       </c>
       <c r="L483" s="2">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M483" s="7">
         <v>24</v>
@@ -32730,7 +32727,7 @@
         <v>563</v>
       </c>
       <c r="B484">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C484">
         <v>10000</v>
@@ -32752,17 +32749,17 @@
         <v>45898</v>
       </c>
       <c r="I484">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J484" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K484" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L484" s="2">
         <f t="shared" si="15"/>
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M484" s="7">
         <v>24</v>
@@ -32770,7 +32767,7 @@
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>564</v>
+        <v>54</v>
       </c>
       <c r="B485">
         <v>88020</v>
@@ -32795,17 +32792,17 @@
         <v>45898</v>
       </c>
       <c r="I485">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J485" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K485" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L485" s="2">
         <f t="shared" si="15"/>
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="M485" s="7">
         <v>24</v>
@@ -32813,7 +32810,7 @@
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>54</v>
+        <v>564</v>
       </c>
       <c r="B486">
         <v>88020</v>
@@ -32838,17 +32835,17 @@
         <v>45898</v>
       </c>
       <c r="I486">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J486" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K486" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L486" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M486" s="7">
         <v>24</v>
@@ -32881,17 +32878,17 @@
         <v>45898</v>
       </c>
       <c r="I487">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J487" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K487" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L487" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="M487" s="7">
         <v>24</v>
@@ -32902,13 +32899,13 @@
         <v>566</v>
       </c>
       <c r="B488">
-        <v>88020</v>
+        <v>991843</v>
       </c>
       <c r="C488">
         <v>10000</v>
       </c>
       <c r="D488" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E488" t="s">
         <v>8</v>
@@ -32924,17 +32921,17 @@
         <v>45898</v>
       </c>
       <c r="I488">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J488" s="2">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="K488" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L488" s="2">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>108.5</v>
       </c>
       <c r="M488" s="7">
         <v>24</v>
@@ -32945,13 +32942,13 @@
         <v>567</v>
       </c>
       <c r="B489">
-        <v>991843</v>
+        <v>851952</v>
       </c>
       <c r="C489">
         <v>10000</v>
       </c>
       <c r="D489" s="2">
-        <v>60</v>
+        <v>13.5</v>
       </c>
       <c r="E489" t="s">
         <v>8</v>
@@ -32967,17 +32964,17 @@
         <v>45898</v>
       </c>
       <c r="I489">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J489" s="2">
-        <v>7.75</v>
+        <v>6.5</v>
       </c>
       <c r="K489" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L489" s="2">
         <f t="shared" si="15"/>
-        <v>108.5</v>
+        <v>13</v>
       </c>
       <c r="M489" s="7">
         <v>24</v>
@@ -32985,7 +32982,7 @@
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>568</v>
+        <v>76</v>
       </c>
       <c r="B490">
         <v>851952</v>
@@ -32994,7 +32991,7 @@
         <v>10000</v>
       </c>
       <c r="D490" s="2">
-        <v>13.5</v>
+        <v>79</v>
       </c>
       <c r="E490" t="s">
         <v>8</v>
@@ -33013,14 +33010,14 @@
         <v>2</v>
       </c>
       <c r="J490" s="2">
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="K490" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L490" s="2">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M490" s="7">
         <v>24</v>
@@ -33028,7 +33025,7 @@
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>76</v>
+        <v>568</v>
       </c>
       <c r="B491">
         <v>851952</v>
@@ -33053,17 +33050,17 @@
         <v>45898</v>
       </c>
       <c r="I491">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J491" s="2">
-        <v>16</v>
+        <v>6.75</v>
       </c>
       <c r="K491" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L491" s="2">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="M491" s="7">
         <v>24</v>
@@ -33096,17 +33093,17 @@
         <v>45898</v>
       </c>
       <c r="I492">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J492" s="2">
-        <v>6.75</v>
+        <v>21</v>
       </c>
       <c r="K492" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L492" s="2">
         <f t="shared" si="15"/>
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M492" s="7">
         <v>24</v>
@@ -33114,7 +33111,7 @@
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>570</v>
+        <v>46</v>
       </c>
       <c r="B493">
         <v>851952</v>
@@ -33123,7 +33120,7 @@
         <v>10000</v>
       </c>
       <c r="D493" s="2">
-        <v>79</v>
+        <v>13.5</v>
       </c>
       <c r="E493" t="s">
         <v>8</v>
@@ -33139,17 +33136,17 @@
         <v>45898</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J493" s="2">
-        <v>21</v>
+        <v>6.75</v>
       </c>
       <c r="K493" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L493" s="2">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M493" s="7">
         <v>24</v>
@@ -33157,7 +33154,7 @@
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>46</v>
+        <v>570</v>
       </c>
       <c r="B494">
         <v>851952</v>
@@ -33182,7 +33179,7 @@
         <v>45898</v>
       </c>
       <c r="I494">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J494" s="2">
         <v>6.75</v>
@@ -33192,7 +33189,7 @@
       </c>
       <c r="L494" s="2">
         <f t="shared" si="15"/>
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="M494" s="7">
         <v>24</v>
@@ -33203,13 +33200,13 @@
         <v>571</v>
       </c>
       <c r="B495">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C495">
         <v>10000</v>
       </c>
       <c r="D495" s="2">
-        <v>13.5</v>
+        <v>79</v>
       </c>
       <c r="E495" t="s">
         <v>8</v>
@@ -33225,17 +33222,17 @@
         <v>45898</v>
       </c>
       <c r="I495">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J495" s="2">
-        <v>6.75</v>
+        <v>13</v>
       </c>
       <c r="K495" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L495" s="2">
         <f t="shared" si="15"/>
-        <v>13.5</v>
+        <v>130</v>
       </c>
       <c r="M495" s="7">
         <v>24</v>
@@ -33268,17 +33265,17 @@
         <v>45898</v>
       </c>
       <c r="I496">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J496" s="2">
         <v>13</v>
       </c>
       <c r="K496" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L496" s="2">
         <f t="shared" si="15"/>
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M496" s="7">
         <v>24</v>
@@ -33314,14 +33311,14 @@
         <v>2</v>
       </c>
       <c r="J497" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K497" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L497" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M497" s="7">
         <v>24</v>
@@ -33354,17 +33351,17 @@
         <v>45898</v>
       </c>
       <c r="I498">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J498" s="2">
-        <v>26.5</v>
+        <v>10</v>
       </c>
       <c r="K498" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L498" s="2">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M498" s="7">
         <v>24</v>
@@ -33397,7 +33394,7 @@
         <v>45898</v>
       </c>
       <c r="I499">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J499" s="2">
         <v>10</v>
@@ -33407,7 +33404,7 @@
       </c>
       <c r="L499" s="2">
         <f t="shared" si="15"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M499" s="7">
         <v>24</v>
@@ -33440,17 +33437,17 @@
         <v>45898</v>
       </c>
       <c r="I500">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J500" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K500" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L500" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M500" s="7">
         <v>24</v>
@@ -33480,28 +33477,28 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I501">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J501" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K501" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L501" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M501" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>578</v>
+        <v>71</v>
       </c>
       <c r="B502">
         <v>88020</v>
@@ -33526,17 +33523,17 @@
         <v>45899</v>
       </c>
       <c r="I502">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J502" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K502" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L502" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M502" s="7">
         <v>25</v>
@@ -33544,7 +33541,7 @@
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="B503">
         <v>88020</v>
@@ -33553,7 +33550,7 @@
         <v>10000</v>
       </c>
       <c r="D503" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E503" t="s">
         <v>8</v>
@@ -33572,14 +33569,14 @@
         <v>2</v>
       </c>
       <c r="J503" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K503" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L503" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M503" s="7">
         <v>25</v>
@@ -33590,13 +33587,13 @@
         <v>579</v>
       </c>
       <c r="B504">
-        <v>88020</v>
+        <v>551952</v>
       </c>
       <c r="C504">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D504" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E504" t="s">
         <v>8</v>
@@ -33615,14 +33612,14 @@
         <v>2</v>
       </c>
       <c r="J504" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K504" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L504" s="2">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M504" s="7">
         <v>25</v>
@@ -33636,10 +33633,10 @@
         <v>551952</v>
       </c>
       <c r="C505">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D505" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E505" t="s">
         <v>8</v>
@@ -33655,17 +33652,17 @@
         <v>45899</v>
       </c>
       <c r="I505">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J505" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K505" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L505" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M505" s="7">
         <v>25</v>
@@ -33698,17 +33695,17 @@
         <v>45899</v>
       </c>
       <c r="I506">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J506" s="2">
+        <v>17</v>
+      </c>
+      <c r="K506" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K506" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="L506" s="2">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="M506" s="7">
         <v>25</v>
@@ -33716,7 +33713,7 @@
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>582</v>
+        <v>61</v>
       </c>
       <c r="B507">
         <v>551952</v>
@@ -33741,17 +33738,17 @@
         <v>45899</v>
       </c>
       <c r="I507">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J507" s="2">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="K507" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L507" s="2">
         <f t="shared" si="15"/>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="M507" s="7">
         <v>25</v>
@@ -33759,7 +33756,7 @@
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>61</v>
+        <v>582</v>
       </c>
       <c r="B508">
         <v>551952</v>
@@ -33784,17 +33781,17 @@
         <v>45899</v>
       </c>
       <c r="I508">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J508" s="2">
-        <v>4.5</v>
+        <v>8.75</v>
       </c>
       <c r="K508" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L508" s="2">
         <f t="shared" si="15"/>
-        <v>36</v>
+        <v>52.5</v>
       </c>
       <c r="M508" s="7">
         <v>25</v>
@@ -33827,7 +33824,7 @@
         <v>45899</v>
       </c>
       <c r="I509">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J509" s="2">
         <v>8.75</v>
@@ -33837,7 +33834,7 @@
       </c>
       <c r="L509" s="2">
         <f t="shared" si="15"/>
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="M509" s="7">
         <v>25</v>
@@ -33870,17 +33867,17 @@
         <v>45899</v>
       </c>
       <c r="I510">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J510" s="2">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="K510" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L510" s="2">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="M510" s="7">
         <v>25</v>
@@ -33913,17 +33910,17 @@
         <v>45899</v>
       </c>
       <c r="I511">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J511" s="2">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="K511" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L511" s="2">
         <f t="shared" si="15"/>
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="M511" s="7">
         <v>25</v>
@@ -33934,7 +33931,7 @@
         <v>586</v>
       </c>
       <c r="B512">
-        <v>551952</v>
+        <v>62018</v>
       </c>
       <c r="C512">
         <v>10000</v>
@@ -33956,17 +33953,17 @@
         <v>45899</v>
       </c>
       <c r="I512">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J512" s="2">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="K512" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L512" s="2">
         <f t="shared" si="15"/>
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="M512" s="7">
         <v>25</v>
@@ -33999,17 +33996,17 @@
         <v>45899</v>
       </c>
       <c r="I513">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J513" s="2">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="K513" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L513" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>129.5</v>
       </c>
       <c r="M513" s="7">
         <v>25</v>
@@ -34017,16 +34014,16 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>588</v>
+        <v>47</v>
       </c>
       <c r="B514">
-        <v>62018</v>
+        <v>851952</v>
       </c>
       <c r="C514">
         <v>10000</v>
       </c>
       <c r="D514" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E514" t="s">
         <v>8</v>
@@ -34038,21 +34035,21 @@
         <v>5</v>
       </c>
       <c r="H514" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
         <v>45899</v>
       </c>
       <c r="I514">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J514" s="2">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="K514" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L514" s="2">
-        <f t="shared" si="15"/>
-        <v>129.5</v>
+        <f t="shared" ref="L514:L577" si="17">J514*I514</f>
+        <v>26</v>
       </c>
       <c r="M514" s="7">
         <v>25</v>
@@ -34060,16 +34057,16 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>47</v>
+        <v>588</v>
       </c>
       <c r="B515">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C515">
         <v>10000</v>
       </c>
       <c r="D515" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E515" t="s">
         <v>8</v>
@@ -34081,21 +34078,21 @@
         <v>5</v>
       </c>
       <c r="H515" s="1">
-        <f t="shared" ref="H515:H578" ca="1" si="16">TODAY()+M515</f>
+        <f t="shared" ca="1" si="16"/>
         <v>45899</v>
       </c>
       <c r="I515">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J515" s="2">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="K515" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L515" s="2">
-        <f t="shared" ref="L515:L578" si="17">J515*I515</f>
-        <v>26</v>
+        <f t="shared" si="17"/>
+        <v>153</v>
       </c>
       <c r="M515" s="7">
         <v>25</v>
@@ -34112,7 +34109,7 @@
         <v>10000</v>
       </c>
       <c r="D516" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E516" t="s">
         <v>8</v>
@@ -34128,7 +34125,7 @@
         <v>45899</v>
       </c>
       <c r="I516">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J516" s="2">
         <v>12.75</v>
@@ -34138,7 +34135,7 @@
       </c>
       <c r="L516" s="2">
         <f t="shared" si="17"/>
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="M516" s="7">
         <v>25</v>
@@ -34155,7 +34152,7 @@
         <v>10000</v>
       </c>
       <c r="D517" s="2">
-        <v>26.5</v>
+        <v>10</v>
       </c>
       <c r="E517" t="s">
         <v>8</v>
@@ -34171,17 +34168,17 @@
         <v>45899</v>
       </c>
       <c r="I517">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J517" s="2">
-        <v>12.75</v>
+        <v>10</v>
       </c>
       <c r="K517" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L517" s="2">
         <f t="shared" si="17"/>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M517" s="7">
         <v>25</v>
@@ -34198,7 +34195,7 @@
         <v>10000</v>
       </c>
       <c r="D518" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E518" t="s">
         <v>8</v>
@@ -34214,17 +34211,17 @@
         <v>45899</v>
       </c>
       <c r="I518">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J518" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K518" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L518" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M518" s="7">
         <v>25</v>
@@ -34257,17 +34254,17 @@
         <v>45899</v>
       </c>
       <c r="I519">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J519" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K519" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L519" s="2">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="M519" s="7">
         <v>25</v>
@@ -34275,7 +34272,7 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>593</v>
+        <v>40</v>
       </c>
       <c r="B520">
         <v>88020</v>
@@ -34303,14 +34300,14 @@
         <v>2</v>
       </c>
       <c r="J520" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K520" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L520" s="2">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M520" s="7">
         <v>25</v>
@@ -34318,16 +34315,16 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>40</v>
+        <v>593</v>
       </c>
       <c r="B521">
-        <v>88020</v>
+        <v>88512</v>
       </c>
       <c r="C521">
         <v>10000</v>
       </c>
       <c r="D521" s="2">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E521" t="s">
         <v>8</v>
@@ -34340,37 +34337,37 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I521">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J521" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K521" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L521" s="2">
         <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="M521" s="7">
         <v>26</v>
-      </c>
-      <c r="M521" s="7">
-        <v>25</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>594</v>
+        <v>63</v>
       </c>
       <c r="B522">
-        <v>88512</v>
+        <v>88020</v>
       </c>
       <c r="C522">
         <v>10000</v>
       </c>
       <c r="D522" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E522" t="s">
         <v>8</v>
@@ -34386,17 +34383,17 @@
         <v>45900</v>
       </c>
       <c r="I522">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J522" s="2">
-        <v>6</v>
+        <v>8.875</v>
       </c>
       <c r="K522" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L522" s="2">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>35.5</v>
       </c>
       <c r="M522" s="7">
         <v>26</v>
@@ -34404,7 +34401,7 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>63</v>
+        <v>594</v>
       </c>
       <c r="B523">
         <v>88020</v>
@@ -34413,7 +34410,7 @@
         <v>10000</v>
       </c>
       <c r="D523" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E523" t="s">
         <v>8</v>
@@ -34429,7 +34426,7 @@
         <v>45900</v>
       </c>
       <c r="I523">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J523" s="2">
         <v>8.875</v>
@@ -34439,7 +34436,7 @@
       </c>
       <c r="L523" s="2">
         <f t="shared" si="17"/>
-        <v>35.5</v>
+        <v>17.75</v>
       </c>
       <c r="M523" s="7">
         <v>26</v>
@@ -34456,7 +34453,7 @@
         <v>10000</v>
       </c>
       <c r="D524" s="2">
-        <v>10</v>
+        <v>7.25</v>
       </c>
       <c r="E524" t="s">
         <v>8</v>
@@ -34475,14 +34472,14 @@
         <v>2</v>
       </c>
       <c r="J524" s="2">
-        <v>8.875</v>
+        <v>5.625</v>
       </c>
       <c r="K524" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L524" s="2">
         <f t="shared" si="17"/>
-        <v>17.75</v>
+        <v>11.25</v>
       </c>
       <c r="M524" s="7">
         <v>26</v>
@@ -34490,7 +34487,7 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>596</v>
+        <v>50</v>
       </c>
       <c r="B525">
         <v>88020</v>
@@ -34499,7 +34496,7 @@
         <v>10000</v>
       </c>
       <c r="D525" s="2">
-        <v>7.25</v>
+        <v>79</v>
       </c>
       <c r="E525" t="s">
         <v>8</v>
@@ -34515,17 +34512,17 @@
         <v>45900</v>
       </c>
       <c r="I525">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J525" s="2">
-        <v>5.625</v>
+        <v>6.875</v>
       </c>
       <c r="K525" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L525" s="2">
         <f t="shared" si="17"/>
-        <v>11.25</v>
+        <v>82.5</v>
       </c>
       <c r="M525" s="7">
         <v>26</v>
@@ -34533,7 +34530,7 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>50</v>
+        <v>596</v>
       </c>
       <c r="B526">
         <v>88020</v>
@@ -34558,17 +34555,17 @@
         <v>45900</v>
       </c>
       <c r="I526">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J526" s="2">
-        <v>6.875</v>
+        <v>5.625</v>
       </c>
       <c r="K526" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L526" s="2">
         <f t="shared" si="17"/>
-        <v>82.5</v>
+        <v>33.75</v>
       </c>
       <c r="M526" s="7">
         <v>26</v>
@@ -34576,7 +34573,7 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>597</v>
+        <v>78</v>
       </c>
       <c r="B527">
         <v>88020</v>
@@ -34601,17 +34598,17 @@
         <v>45900</v>
       </c>
       <c r="I527">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J527" s="2">
-        <v>5.625</v>
+        <v>17</v>
       </c>
       <c r="K527" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L527" s="2">
         <f t="shared" si="17"/>
-        <v>33.75</v>
+        <v>34</v>
       </c>
       <c r="M527" s="7">
         <v>26</v>
@@ -34619,13 +34616,13 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>78</v>
+        <v>597</v>
       </c>
       <c r="B528">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C528">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D528" s="2">
         <v>79</v>
@@ -34644,17 +34641,17 @@
         <v>45900</v>
       </c>
       <c r="I528">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J528" s="2">
         <v>17</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L528" s="2">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="M528" s="7">
         <v>26</v>
@@ -34687,17 +34684,17 @@
         <v>45900</v>
       </c>
       <c r="I529">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J529" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K529" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L529" s="2">
         <f t="shared" si="17"/>
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="M529" s="7">
         <v>26</v>
@@ -34705,16 +34702,16 @@
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>599</v>
+        <v>59</v>
       </c>
       <c r="B530">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C530">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D530" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E530" t="s">
         <v>8</v>
@@ -34730,17 +34727,17 @@
         <v>45900</v>
       </c>
       <c r="I530">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J530" s="2">
-        <v>10</v>
+        <v>12.75</v>
       </c>
       <c r="K530" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L530" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M530" s="7">
         <v>26</v>
@@ -34748,16 +34745,16 @@
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>59</v>
+        <v>599</v>
       </c>
       <c r="B531">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C531">
         <v>10000</v>
       </c>
       <c r="D531" s="2">
-        <v>26.5</v>
+        <v>15.75</v>
       </c>
       <c r="E531" t="s">
         <v>8</v>
@@ -34773,17 +34770,17 @@
         <v>45900</v>
       </c>
       <c r="I531">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J531" s="2">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="K531" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L531" s="2">
         <f t="shared" si="17"/>
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M531" s="7">
         <v>26</v>
@@ -34800,7 +34797,7 @@
         <v>10000</v>
       </c>
       <c r="D532" s="2">
-        <v>15.75</v>
+        <v>79</v>
       </c>
       <c r="E532" t="s">
         <v>8</v>
@@ -34816,7 +34813,7 @@
         <v>45900</v>
       </c>
       <c r="I532">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J532" s="2">
         <v>13</v>
@@ -34826,7 +34823,7 @@
       </c>
       <c r="L532" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M532" s="7">
         <v>26</v>
@@ -34834,7 +34831,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>601</v>
+        <v>66</v>
       </c>
       <c r="B533">
         <v>62018</v>
@@ -34843,7 +34840,7 @@
         <v>10000</v>
       </c>
       <c r="D533" s="2">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E533" t="s">
         <v>8</v>
@@ -34859,7 +34856,7 @@
         <v>45900</v>
       </c>
       <c r="I533">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J533" s="2">
         <v>13</v>
@@ -34869,7 +34866,7 @@
       </c>
       <c r="L533" s="2">
         <f t="shared" si="17"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M533" s="7">
         <v>26</v>
@@ -34877,16 +34874,16 @@
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B534">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C534">
         <v>10000</v>
       </c>
       <c r="D534" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E534" t="s">
         <v>8</v>
@@ -34902,17 +34899,17 @@
         <v>45900</v>
       </c>
       <c r="I534">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J534" s="2">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="K534" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L534" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="M534" s="7">
         <v>26</v>
@@ -34920,7 +34917,7 @@
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>62</v>
+        <v>601</v>
       </c>
       <c r="B535">
         <v>88020</v>
@@ -34929,7 +34926,7 @@
         <v>10000</v>
       </c>
       <c r="D535" s="2">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="E535" t="s">
         <v>8</v>
@@ -34945,17 +34942,17 @@
         <v>45900</v>
       </c>
       <c r="I535">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J535" s="2">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K535" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L535" s="2">
         <f t="shared" si="17"/>
-        <v>28.5</v>
+        <v>18</v>
       </c>
       <c r="M535" s="7">
         <v>26</v>
@@ -34972,7 +34969,7 @@
         <v>10000</v>
       </c>
       <c r="D536" s="2">
-        <v>11.25</v>
+        <v>6</v>
       </c>
       <c r="E536" t="s">
         <v>8</v>
@@ -34988,7 +34985,7 @@
         <v>45900</v>
       </c>
       <c r="I536">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J536" s="2">
         <v>4.5</v>
@@ -34998,7 +34995,7 @@
       </c>
       <c r="L536" s="2">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M536" s="7">
         <v>26</v>
@@ -35015,7 +35012,7 @@
         <v>10000</v>
       </c>
       <c r="D537" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E537" t="s">
         <v>8</v>
@@ -35031,17 +35028,17 @@
         <v>45900</v>
       </c>
       <c r="I537">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J537" s="2">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="K537" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L537" s="2">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M537" s="7">
         <v>26</v>
@@ -35058,7 +35055,7 @@
         <v>10000</v>
       </c>
       <c r="D538" s="2">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E538" t="s">
         <v>8</v>
@@ -35074,7 +35071,7 @@
         <v>45900</v>
       </c>
       <c r="I538">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J538" s="2">
         <v>6.75</v>
@@ -35084,7 +35081,7 @@
       </c>
       <c r="L538" s="2">
         <f t="shared" si="17"/>
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="M538" s="7">
         <v>26</v>
@@ -35117,17 +35114,17 @@
         <v>45900</v>
       </c>
       <c r="I539">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J539" s="2">
-        <v>6.75</v>
+        <v>10</v>
       </c>
       <c r="K539" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L539" s="2">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="M539" s="7">
         <v>26</v>
@@ -35144,7 +35141,7 @@
         <v>10000</v>
       </c>
       <c r="D540" s="2">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E540" t="s">
         <v>8</v>
@@ -35160,17 +35157,17 @@
         <v>45900</v>
       </c>
       <c r="I540">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J540" s="2">
-        <v>10</v>
+        <v>6.75</v>
       </c>
       <c r="K540" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L540" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>40.5</v>
       </c>
       <c r="M540" s="7">
         <v>26</v>
@@ -35187,7 +35184,7 @@
         <v>10000</v>
       </c>
       <c r="D541" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E541" t="s">
         <v>8</v>
@@ -35200,23 +35197,23 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I541">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J541" s="2">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="K541" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L541" s="2">
         <f t="shared" si="17"/>
-        <v>40.5</v>
+        <v>28</v>
       </c>
       <c r="M541" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
@@ -35249,14 +35246,14 @@
         <v>4</v>
       </c>
       <c r="J542" s="2">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="K542" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L542" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M542" s="7">
         <v>27</v>
@@ -35267,13 +35264,13 @@
         <v>609</v>
       </c>
       <c r="B543">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C543">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D543" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E543" t="s">
         <v>8</v>
@@ -35289,17 +35286,17 @@
         <v>45901</v>
       </c>
       <c r="I543">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J543" s="2">
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="K543" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L543" s="2">
         <f t="shared" si="17"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M543" s="7">
         <v>27</v>
@@ -35310,13 +35307,13 @@
         <v>610</v>
       </c>
       <c r="B544">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C544">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D544" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E544" t="s">
         <v>8</v>
@@ -35335,14 +35332,14 @@
         <v>2</v>
       </c>
       <c r="J544" s="2">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="K544" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L544" s="2">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M544" s="7">
         <v>27</v>
@@ -35353,13 +35350,13 @@
         <v>611</v>
       </c>
       <c r="B545">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C545">
         <v>10000</v>
       </c>
       <c r="D545" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E545" t="s">
         <v>8</v>
@@ -35378,14 +35375,14 @@
         <v>2</v>
       </c>
       <c r="J545" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K545" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L545" s="2">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M545" s="7">
         <v>27</v>
@@ -35418,17 +35415,17 @@
         <v>45901</v>
       </c>
       <c r="I546">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J546" s="2">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="K546" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L546" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="M546" s="7">
         <v>27</v>
@@ -35439,13 +35436,13 @@
         <v>613</v>
       </c>
       <c r="B547">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C547">
         <v>10000</v>
       </c>
       <c r="D547" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E547" t="s">
         <v>8</v>
@@ -35464,14 +35461,14 @@
         <v>8</v>
       </c>
       <c r="J547" s="2">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="K547" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L547" s="2">
         <f t="shared" si="17"/>
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="M547" s="7">
         <v>27</v>
@@ -35488,7 +35485,7 @@
         <v>10000</v>
       </c>
       <c r="D548" s="2">
-        <v>26.5</v>
+        <v>79</v>
       </c>
       <c r="E548" t="s">
         <v>8</v>
@@ -35504,17 +35501,17 @@
         <v>45901</v>
       </c>
       <c r="I548">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J548" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="K548" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L548" s="2">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="M548" s="7">
         <v>27</v>
@@ -35550,14 +35547,14 @@
         <v>2</v>
       </c>
       <c r="J549" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K549" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L549" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M549" s="7">
         <v>27</v>
@@ -35568,10 +35565,10 @@
         <v>616</v>
       </c>
       <c r="B550">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C550">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D550" s="2">
         <v>79</v>
@@ -35590,17 +35587,17 @@
         <v>45901</v>
       </c>
       <c r="I550">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J550" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K550" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L550" s="2">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="M550" s="7">
         <v>27</v>
@@ -35617,7 +35614,7 @@
         <v>15000</v>
       </c>
       <c r="D551" s="2">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E551" t="s">
         <v>8</v>
@@ -35633,7 +35630,7 @@
         <v>45901</v>
       </c>
       <c r="I551">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J551" s="2">
         <v>19</v>
@@ -35643,7 +35640,7 @@
       </c>
       <c r="L551" s="2">
         <f t="shared" si="17"/>
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="M551" s="7">
         <v>27</v>
@@ -35660,7 +35657,7 @@
         <v>15000</v>
       </c>
       <c r="D552" s="2">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E552" t="s">
         <v>8</v>
@@ -35676,17 +35673,17 @@
         <v>45901</v>
       </c>
       <c r="I552">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J552" s="2">
-        <v>19</v>
+        <v>12.75</v>
       </c>
       <c r="K552" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L552" s="2">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="M552" s="7">
         <v>27</v>
@@ -35697,13 +35694,13 @@
         <v>619</v>
       </c>
       <c r="B553">
-        <v>62018</v>
+        <v>88512</v>
       </c>
       <c r="C553">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D553" s="2">
-        <v>79</v>
+        <v>11.25</v>
       </c>
       <c r="E553" t="s">
         <v>8</v>
@@ -35719,17 +35716,17 @@
         <v>45901</v>
       </c>
       <c r="I553">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J553" s="2">
-        <v>12.75</v>
+        <v>5</v>
       </c>
       <c r="K553" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L553" s="2">
         <f t="shared" si="17"/>
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="M553" s="7">
         <v>27</v>
@@ -35737,7 +35734,7 @@
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>620</v>
+        <v>69</v>
       </c>
       <c r="B554">
         <v>88512</v>
@@ -35746,7 +35743,7 @@
         <v>10000</v>
       </c>
       <c r="D554" s="2">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="E554" t="s">
         <v>8</v>
@@ -35762,7 +35759,7 @@
         <v>45901</v>
       </c>
       <c r="I554">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J554" s="2">
         <v>5</v>
@@ -35772,7 +35769,7 @@
       </c>
       <c r="L554" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M554" s="7">
         <v>27</v>
@@ -35780,7 +35777,7 @@
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>69</v>
+        <v>620</v>
       </c>
       <c r="B555">
         <v>88512</v>
@@ -35789,7 +35786,7 @@
         <v>10000</v>
       </c>
       <c r="D555" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E555" t="s">
         <v>8</v>
@@ -35805,17 +35802,17 @@
         <v>45901</v>
       </c>
       <c r="I555">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J555" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K555" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L555" s="2">
         <f t="shared" si="17"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M555" s="7">
         <v>27</v>
@@ -35826,13 +35823,13 @@
         <v>621</v>
       </c>
       <c r="B556">
-        <v>88512</v>
+        <v>88020</v>
       </c>
       <c r="C556">
         <v>10000</v>
       </c>
       <c r="D556" s="2">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E556" t="s">
         <v>8</v>
@@ -35848,17 +35845,17 @@
         <v>45901</v>
       </c>
       <c r="I556">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J556" s="2">
-        <v>6</v>
+        <v>11.875</v>
       </c>
       <c r="K556" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L556" s="2">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>23.75</v>
       </c>
       <c r="M556" s="7">
         <v>27</v>
@@ -35894,14 +35891,14 @@
         <v>2</v>
       </c>
       <c r="J557" s="2">
-        <v>11.875</v>
+        <v>12.375</v>
       </c>
       <c r="K557" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L557" s="2">
         <f t="shared" si="17"/>
-        <v>23.75</v>
+        <v>24.75</v>
       </c>
       <c r="M557" s="7">
         <v>27</v>
@@ -35934,17 +35931,17 @@
         <v>45901</v>
       </c>
       <c r="I558">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J558" s="2">
-        <v>12.375</v>
+        <v>11.25</v>
       </c>
       <c r="K558" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L558" s="2">
         <f t="shared" si="17"/>
-        <v>24.75</v>
+        <v>45</v>
       </c>
       <c r="M558" s="7">
         <v>27</v>
@@ -35952,7 +35949,7 @@
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>624</v>
+        <v>49</v>
       </c>
       <c r="B559">
         <v>88020</v>
@@ -35977,17 +35974,17 @@
         <v>45901</v>
       </c>
       <c r="I559">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J559" s="2">
-        <v>11.25</v>
+        <v>30</v>
       </c>
       <c r="K559" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L559" s="2">
         <f t="shared" si="17"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M559" s="7">
         <v>27</v>
@@ -35995,7 +35992,7 @@
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>49</v>
+        <v>624</v>
       </c>
       <c r="B560">
         <v>88020</v>
@@ -36020,17 +36017,17 @@
         <v>45901</v>
       </c>
       <c r="I560">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J560" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K560" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L560" s="2">
         <f t="shared" si="17"/>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="M560" s="7">
         <v>27</v>
@@ -36060,23 +36057,23 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I561">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J561" s="2">
-        <v>13</v>
+        <v>7.875</v>
       </c>
       <c r="K561" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L561" s="2">
         <f t="shared" si="17"/>
-        <v>104</v>
+        <v>31.5</v>
       </c>
       <c r="M561" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.25">
@@ -36106,17 +36103,17 @@
         <v>45902</v>
       </c>
       <c r="I562">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J562" s="2">
-        <v>7.875</v>
+        <v>11.25</v>
       </c>
       <c r="K562" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L562" s="2">
         <f t="shared" si="17"/>
-        <v>31.5</v>
+        <v>22.5</v>
       </c>
       <c r="M562" s="7">
         <v>28</v>
@@ -36127,7 +36124,7 @@
         <v>627</v>
       </c>
       <c r="B563">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C563">
         <v>10000</v>
@@ -36152,14 +36149,14 @@
         <v>2</v>
       </c>
       <c r="J563" s="2">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="K563" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L563" s="2">
         <f t="shared" si="17"/>
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="M563" s="7">
         <v>28</v>
@@ -36170,13 +36167,13 @@
         <v>628</v>
       </c>
       <c r="B564">
-        <v>62018</v>
+        <v>551952</v>
       </c>
       <c r="C564">
         <v>10000</v>
       </c>
       <c r="D564" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E564" t="s">
         <v>8</v>
@@ -36195,14 +36192,14 @@
         <v>2</v>
       </c>
       <c r="J564" s="2">
-        <v>13</v>
+        <v>6.75</v>
       </c>
       <c r="K564" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L564" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="M564" s="7">
         <v>28</v>
@@ -36238,14 +36235,14 @@
         <v>2</v>
       </c>
       <c r="J565" s="2">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="K565" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L565" s="2">
         <f t="shared" si="17"/>
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="M565" s="7">
         <v>28</v>
@@ -36256,13 +36253,13 @@
         <v>630</v>
       </c>
       <c r="B566">
-        <v>551952</v>
+        <v>62018</v>
       </c>
       <c r="C566">
         <v>10000</v>
       </c>
       <c r="D566" s="2">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E566" t="s">
         <v>8</v>
@@ -36278,17 +36275,17 @@
         <v>45902</v>
       </c>
       <c r="I566">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J566" s="2">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="K566" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L566" s="2">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>87.5</v>
       </c>
       <c r="M566" s="7">
         <v>28</v>
@@ -36321,17 +36318,17 @@
         <v>45902</v>
       </c>
       <c r="I567">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J567" s="2">
-        <v>8.75</v>
+        <v>21</v>
       </c>
       <c r="K567" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L567" s="2">
         <f t="shared" si="17"/>
-        <v>87.5</v>
+        <v>42</v>
       </c>
       <c r="M567" s="7">
         <v>28</v>
@@ -36342,13 +36339,13 @@
         <v>632</v>
       </c>
       <c r="B568">
-        <v>62018</v>
+        <v>78139</v>
       </c>
       <c r="C568">
         <v>10000</v>
       </c>
       <c r="D568" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E568" t="s">
         <v>8</v>
@@ -36364,17 +36361,17 @@
         <v>45902</v>
       </c>
       <c r="I568">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J568" s="2">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="K568" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L568" s="2">
         <f t="shared" si="17"/>
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M568" s="7">
         <v>28</v>
@@ -36407,17 +36404,17 @@
         <v>45902</v>
       </c>
       <c r="I569">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J569" s="2">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="K569" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L569" s="2">
         <f t="shared" si="17"/>
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="M569" s="7">
         <v>28</v>
@@ -36493,17 +36490,17 @@
         <v>45902</v>
       </c>
       <c r="I571">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J571" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K571" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L571" s="2">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M571" s="7">
         <v>28</v>
@@ -36536,17 +36533,17 @@
         <v>45902</v>
       </c>
       <c r="I572">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J572" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K572" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L572" s="2">
         <f t="shared" si="17"/>
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M572" s="7">
         <v>28</v>
@@ -36557,13 +36554,13 @@
         <v>637</v>
       </c>
       <c r="B573">
-        <v>78139</v>
+        <v>62018</v>
       </c>
       <c r="C573">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D573" s="2">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E573" t="s">
         <v>8</v>
@@ -36579,17 +36576,17 @@
         <v>45902</v>
       </c>
       <c r="I573">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J573" s="2">
         <v>13</v>
       </c>
       <c r="K573" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L573" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M573" s="7">
         <v>28</v>
@@ -36597,7 +36594,7 @@
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>638</v>
+        <v>24</v>
       </c>
       <c r="B574">
         <v>62018</v>
@@ -36606,7 +36603,7 @@
         <v>15000</v>
       </c>
       <c r="D574" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E574" t="s">
         <v>8</v>
@@ -36622,7 +36619,7 @@
         <v>45902</v>
       </c>
       <c r="I574">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J574" s="2">
         <v>13</v>
@@ -36632,7 +36629,7 @@
       </c>
       <c r="L574" s="2">
         <f t="shared" si="17"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M574" s="7">
         <v>28</v>
@@ -36640,16 +36637,16 @@
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>24</v>
+        <v>638</v>
       </c>
       <c r="B575">
-        <v>62018</v>
+        <v>851952</v>
       </c>
       <c r="C575">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D575" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E575" t="s">
         <v>8</v>
@@ -36665,7 +36662,7 @@
         <v>45902</v>
       </c>
       <c r="I575">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J575" s="2">
         <v>13</v>
@@ -36675,7 +36672,7 @@
       </c>
       <c r="L575" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M575" s="7">
         <v>28</v>
@@ -36683,10 +36680,10 @@
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>639</v>
+        <v>64</v>
       </c>
       <c r="B576">
-        <v>851952</v>
+        <v>62018</v>
       </c>
       <c r="C576">
         <v>10000</v>
@@ -36708,10 +36705,10 @@
         <v>45902</v>
       </c>
       <c r="I576">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J576" s="2">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K576" s="2" t="s">
         <v>6</v>
@@ -36726,7 +36723,7 @@
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>64</v>
+        <v>639</v>
       </c>
       <c r="B577">
         <v>62018</v>
@@ -36735,7 +36732,7 @@
         <v>10000</v>
       </c>
       <c r="D577" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E577" t="s">
         <v>8</v>
@@ -36751,17 +36748,17 @@
         <v>45902</v>
       </c>
       <c r="I577">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J577" s="2">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="K577" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L577" s="2">
         <f t="shared" si="17"/>
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="M577" s="7">
         <v>28</v>
@@ -36778,7 +36775,7 @@
         <v>10000</v>
       </c>
       <c r="D578" s="2">
-        <v>10</v>
+        <v>6.75</v>
       </c>
       <c r="E578" t="s">
         <v>8</v>
@@ -36790,21 +36787,21 @@
         <v>5</v>
       </c>
       <c r="H578" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
         <v>45902</v>
       </c>
       <c r="I578">
         <v>2</v>
       </c>
       <c r="J578" s="2">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="K578" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L578" s="2">
-        <f t="shared" si="17"/>
-        <v>20</v>
+        <f t="shared" ref="L578:L585" si="19">J578*I578</f>
+        <v>13</v>
       </c>
       <c r="M578" s="7">
         <v>28</v>
@@ -36812,7 +36809,7 @@
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>641</v>
+        <v>11</v>
       </c>
       <c r="B579">
         <v>62018</v>
@@ -36821,7 +36818,7 @@
         <v>10000</v>
       </c>
       <c r="D579" s="2">
-        <v>6.75</v>
+        <v>13</v>
       </c>
       <c r="E579" t="s">
         <v>8</v>
@@ -36833,21 +36830,21 @@
         <v>5</v>
       </c>
       <c r="H579" s="1">
-        <f t="shared" ref="H579:H597" ca="1" si="18">TODAY()+M579</f>
+        <f t="shared" ca="1" si="18"/>
         <v>45902</v>
       </c>
       <c r="I579">
         <v>2</v>
       </c>
       <c r="J579" s="2">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K579" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L579" s="2">
-        <f t="shared" ref="L579:L586" si="19">J579*I579</f>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>26</v>
       </c>
       <c r="M579" s="7">
         <v>28</v>
@@ -36855,7 +36852,7 @@
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B580">
         <v>62018</v>
@@ -36864,7 +36861,7 @@
         <v>10000</v>
       </c>
       <c r="D580" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E580" t="s">
         <v>8</v>
@@ -36880,7 +36877,7 @@
         <v>45902</v>
       </c>
       <c r="I580">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J580" s="2">
         <v>13</v>
@@ -36890,7 +36887,7 @@
       </c>
       <c r="L580" s="2">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M580" s="7">
         <v>28</v>
@@ -36898,10 +36895,10 @@
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>70</v>
+        <v>641</v>
       </c>
       <c r="B581">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C581">
         <v>10000</v>
@@ -36920,7 +36917,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36936,7 +36933,7 @@
         <v>156</v>
       </c>
       <c r="M581" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.25">
@@ -36966,17 +36963,17 @@
         <v>45903</v>
       </c>
       <c r="I582">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J582" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K582" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L582" s="2">
         <f t="shared" si="19"/>
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="M582" s="7">
         <v>29</v>
@@ -37009,17 +37006,17 @@
         <v>45903</v>
       </c>
       <c r="I583">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J583" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K583" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L583" s="2">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M583" s="7">
         <v>29</v>
@@ -37052,17 +37049,17 @@
         <v>45903</v>
       </c>
       <c r="I584">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J584" s="2">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="K584" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L584" s="2">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>40.5</v>
       </c>
       <c r="M584" s="7">
         <v>29</v>
@@ -37070,7 +37067,7 @@
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>645</v>
+        <v>23</v>
       </c>
       <c r="B585">
         <v>88020</v>
@@ -37095,17 +37092,17 @@
         <v>45903</v>
       </c>
       <c r="I585">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J585" s="2">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="K585" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L585" s="2">
         <f t="shared" si="19"/>
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="M585" s="7">
         <v>29</v>
@@ -37113,7 +37110,7 @@
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>23</v>
+        <v>645</v>
       </c>
       <c r="B586">
         <v>88020</v>
@@ -37138,17 +37135,17 @@
         <v>45903</v>
       </c>
       <c r="I586">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J586" s="2">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="K586" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L586" s="2">
-        <f t="shared" si="19"/>
-        <v>34</v>
+        <f>J586*I586</f>
+        <v>26</v>
       </c>
       <c r="M586" s="7">
         <v>29</v>
@@ -37165,7 +37162,7 @@
         <v>10000</v>
       </c>
       <c r="D587" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E587" t="s">
         <v>8</v>
@@ -37190,7 +37187,7 @@
         <v>6</v>
       </c>
       <c r="L587" s="2">
-        <f>J587*I587</f>
+        <f t="shared" ref="L587:L596" si="20">J587*I587</f>
         <v>26</v>
       </c>
       <c r="M587" s="7">
@@ -37202,13 +37199,13 @@
         <v>647</v>
       </c>
       <c r="B588">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C588">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D588" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E588" t="s">
         <v>8</v>
@@ -37224,7 +37221,7 @@
         <v>45903</v>
       </c>
       <c r="I588">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J588" s="2">
         <v>13</v>
@@ -37233,8 +37230,8 @@
         <v>6</v>
       </c>
       <c r="L588" s="2">
-        <f t="shared" ref="L588:L597" si="20">J588*I588</f>
-        <v>26</v>
+        <f t="shared" si="20"/>
+        <v>156</v>
       </c>
       <c r="M588" s="7">
         <v>29</v>
@@ -37267,7 +37264,7 @@
         <v>45903</v>
       </c>
       <c r="I589">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J589" s="2">
         <v>13</v>
@@ -37277,7 +37274,7 @@
       </c>
       <c r="L589" s="2">
         <f t="shared" si="20"/>
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="M589" s="7">
         <v>29</v>
@@ -37310,17 +37307,17 @@
         <v>45903</v>
       </c>
       <c r="I590">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J590" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K590" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L590" s="2">
         <f t="shared" si="20"/>
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="M590" s="7">
         <v>29</v>
@@ -37331,13 +37328,13 @@
         <v>650</v>
       </c>
       <c r="B591">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C591">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D591" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E591" t="s">
         <v>8</v>
@@ -37356,14 +37353,14 @@
         <v>2</v>
       </c>
       <c r="J591" s="2">
-        <v>26.5</v>
+        <v>8.25</v>
       </c>
       <c r="K591" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L591" s="2">
         <f t="shared" si="20"/>
-        <v>53</v>
+        <v>16.5</v>
       </c>
       <c r="M591" s="7">
         <v>29</v>
@@ -37399,14 +37396,14 @@
         <v>2</v>
       </c>
       <c r="J592" s="2">
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="K592" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L592" s="2">
         <f t="shared" si="20"/>
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="M592" s="7">
         <v>29</v>
@@ -37423,7 +37420,7 @@
         <v>10000</v>
       </c>
       <c r="D593" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E593" t="s">
         <v>8</v>
@@ -37442,14 +37439,14 @@
         <v>2</v>
       </c>
       <c r="J593" s="2">
-        <v>7.25</v>
+        <v>13</v>
       </c>
       <c r="K593" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L593" s="2">
         <f t="shared" si="20"/>
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="M593" s="7">
         <v>29</v>
@@ -37457,7 +37454,7 @@
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>653</v>
+        <v>13</v>
       </c>
       <c r="B594">
         <v>88020</v>
@@ -37466,7 +37463,7 @@
         <v>10000</v>
       </c>
       <c r="D594" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E594" t="s">
         <v>8</v>
@@ -37482,7 +37479,7 @@
         <v>45903</v>
       </c>
       <c r="I594">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J594" s="2">
         <v>13</v>
@@ -37492,7 +37489,7 @@
       </c>
       <c r="L594" s="2">
         <f t="shared" si="20"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M594" s="7">
         <v>29</v>
@@ -37500,10 +37497,10 @@
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>13</v>
+        <v>653</v>
       </c>
       <c r="B595">
-        <v>88020</v>
+        <v>88959</v>
       </c>
       <c r="C595">
         <v>10000</v>
@@ -37525,17 +37522,17 @@
         <v>45903</v>
       </c>
       <c r="I595">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J595" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K595" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L595" s="2">
         <f t="shared" si="20"/>
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="M595" s="7">
         <v>29</v>
@@ -37568,69 +37565,26 @@
         <v>45903</v>
       </c>
       <c r="I596">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J596" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K596" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L596" s="2">
         <f t="shared" si="20"/>
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="M596" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>655</v>
-      </c>
-      <c r="B597">
-        <v>88959</v>
-      </c>
-      <c r="C597">
-        <v>10000</v>
-      </c>
-      <c r="D597" s="2">
-        <v>79</v>
-      </c>
-      <c r="E597" t="s">
-        <v>8</v>
-      </c>
-      <c r="F597" t="s">
-        <v>4</v>
-      </c>
-      <c r="G597" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H597" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
-      </c>
-      <c r="I597">
-        <v>4</v>
-      </c>
-      <c r="J597" s="2">
-        <v>13</v>
-      </c>
-      <c r="K597" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L597" s="2">
-        <f t="shared" si="20"/>
-        <v>52</v>
-      </c>
-      <c r="M597" s="7">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K597" xr:uid="{7608DFC0-548D-4A1C-85C0-9BAB3C631902}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K597">
-      <sortCondition ref="H1:H597"/>
+  <autoFilter ref="A1:K596" xr:uid="{7608DFC0-548D-4A1C-85C0-9BAB3C631902}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K596">
+      <sortCondition ref="H1:H596"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350F5DED-C714-4C6F-BEAD-927EEAB7D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCACA68-77A8-452A-904D-6295B3A82268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39405" yWindow="10740" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="23250" yWindow="5325" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2102,7 +2102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2121,7 +2121,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11013,7 +11012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11965,7 +11964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H549" sqref="H549"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12048,7 +12047,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -12091,7 +12090,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -12134,7 +12133,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -12177,7 +12176,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -12223,7 +12222,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -12266,7 +12265,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -12309,7 +12308,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -12352,7 +12351,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -12395,7 +12394,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -12438,7 +12437,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I11">
         <v>24</v>
@@ -12481,7 +12480,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I12">
         <v>24</v>
@@ -12524,7 +12523,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -12567,7 +12566,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -12610,7 +12609,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -12653,7 +12652,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I16">
         <v>12</v>
@@ -12696,7 +12695,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -12739,7 +12738,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -12782,7 +12781,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -12825,7 +12824,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -12868,7 +12867,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I21">
         <v>16</v>
@@ -12911,7 +12910,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -12954,7 +12953,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -12997,7 +12996,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I24">
         <v>24</v>
@@ -13040,7 +13039,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I25">
         <v>24</v>
@@ -13083,7 +13082,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -13126,7 +13125,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -13169,7 +13168,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -13212,7 +13211,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -13255,7 +13254,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -13298,7 +13297,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I31">
         <v>8</v>
@@ -13341,7 +13340,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -13384,7 +13383,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -13427,7 +13426,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I34">
         <v>16</v>
@@ -13470,7 +13469,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -13513,7 +13512,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -13556,7 +13555,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -13599,7 +13598,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I38">
         <v>12</v>
@@ -13642,7 +13641,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I39">
         <v>12</v>
@@ -13685,7 +13684,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I40">
         <v>8</v>
@@ -13728,7 +13727,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -13771,7 +13770,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I42">
         <v>28</v>
@@ -13814,7 +13813,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -13857,7 +13856,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -13900,7 +13899,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I45">
         <v>4</v>
@@ -13943,7 +13942,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I46">
         <v>20</v>
@@ -13986,7 +13985,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I47">
         <v>8</v>
@@ -14029,7 +14028,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -14072,7 +14071,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I49">
         <v>8</v>
@@ -14115,7 +14114,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -14158,7 +14157,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I51">
         <v>4</v>
@@ -14201,7 +14200,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I52">
         <v>8</v>
@@ -14244,7 +14243,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I53">
         <v>36</v>
@@ -14287,7 +14286,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -14330,7 +14329,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I55">
         <v>24</v>
@@ -14373,7 +14372,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -14416,7 +14415,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -14459,7 +14458,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I58">
         <v>28</v>
@@ -14502,7 +14501,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I59">
         <v>4</v>
@@ -14545,7 +14544,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I60">
         <v>24</v>
@@ -14588,7 +14587,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I61">
         <v>12</v>
@@ -14631,7 +14630,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -14674,7 +14673,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -14717,7 +14716,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -14760,7 +14759,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I65">
         <v>20</v>
@@ -14803,7 +14802,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -14846,7 +14845,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I67">
         <v>20</v>
@@ -14889,7 +14888,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I68">
         <v>32</v>
@@ -14932,7 +14931,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -14975,7 +14974,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I70">
         <v>8</v>
@@ -15018,7 +15017,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -15061,7 +15060,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -15104,7 +15103,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -15147,7 +15146,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -15190,7 +15189,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -15233,7 +15232,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I76">
         <v>32</v>
@@ -15276,7 +15275,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -15319,7 +15318,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -15362,7 +15361,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -15405,7 +15404,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -15448,7 +15447,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I81">
         <v>28</v>
@@ -15491,7 +15490,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -15534,7 +15533,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -15577,7 +15576,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I84">
         <v>32</v>
@@ -15620,7 +15619,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I85">
         <v>4</v>
@@ -15663,7 +15662,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I86">
         <v>32</v>
@@ -15706,7 +15705,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -15749,7 +15748,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I88">
         <v>16</v>
@@ -15792,7 +15791,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I89">
         <v>4</v>
@@ -15835,7 +15834,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -15878,7 +15877,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I91">
         <v>8</v>
@@ -15921,7 +15920,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I92">
         <v>24</v>
@@ -15964,7 +15963,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -16007,7 +16006,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I94">
         <v>4</v>
@@ -16050,7 +16049,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I95">
         <v>8</v>
@@ -16093,7 +16092,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I96">
         <v>16</v>
@@ -16136,7 +16135,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I97">
         <v>36</v>
@@ -16179,7 +16178,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -16222,7 +16221,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I99">
         <v>12</v>
@@ -16265,7 +16264,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I100">
         <v>4</v>
@@ -16308,7 +16307,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -16351,7 +16350,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I102">
         <v>8</v>
@@ -16394,7 +16393,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I103">
         <v>24</v>
@@ -16437,7 +16436,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I104">
         <v>20</v>
@@ -16480,7 +16479,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -16523,7 +16522,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -16566,7 +16565,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I107">
         <v>24</v>
@@ -16609,7 +16608,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I108">
         <v>4</v>
@@ -16652,7 +16651,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I109">
         <v>24</v>
@@ -16695,7 +16694,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I110">
         <v>4</v>
@@ -16738,7 +16737,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I111">
         <v>4</v>
@@ -16781,7 +16780,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I112">
         <v>16</v>
@@ -16824,7 +16823,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -16867,7 +16866,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I114">
         <v>24</v>
@@ -16910,7 +16909,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I115">
         <v>4</v>
@@ -16953,7 +16952,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I116">
         <v>16</v>
@@ -16996,7 +16995,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I117">
         <v>4</v>
@@ -17039,7 +17038,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I118">
         <v>4</v>
@@ -17082,7 +17081,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I119">
         <v>4</v>
@@ -17125,7 +17124,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I120">
         <v>24</v>
@@ -17168,7 +17167,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -17211,7 +17210,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I122">
         <v>8</v>
@@ -17254,7 +17253,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I123">
         <v>28</v>
@@ -17297,7 +17296,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I124">
         <v>4</v>
@@ -17340,7 +17339,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I125">
         <v>4</v>
@@ -17383,7 +17382,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I126">
         <v>4</v>
@@ -17426,7 +17425,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I127">
         <v>4</v>
@@ -17469,7 +17468,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I128">
         <v>20</v>
@@ -17512,7 +17511,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -17555,7 +17554,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I130">
         <v>8</v>
@@ -17598,7 +17597,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I131">
         <v>16</v>
@@ -17641,7 +17640,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I132">
         <v>8</v>
@@ -17684,7 +17683,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I133">
         <v>4</v>
@@ -17727,7 +17726,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I134">
         <v>8</v>
@@ -17770,7 +17769,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I135">
         <v>8</v>
@@ -17813,7 +17812,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I136">
         <v>28</v>
@@ -17856,7 +17855,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I137">
         <v>4</v>
@@ -17899,7 +17898,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I138">
         <v>12</v>
@@ -17942,7 +17941,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I139">
         <v>32</v>
@@ -17985,7 +17984,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I140">
         <v>8</v>
@@ -18028,7 +18027,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I141">
         <v>4</v>
@@ -18071,7 +18070,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -18114,7 +18113,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -18157,7 +18156,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -18200,7 +18199,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -18243,7 +18242,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -18286,7 +18285,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -18329,7 +18328,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -18372,7 +18371,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -18415,7 +18414,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -18458,7 +18457,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -18501,7 +18500,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -18544,7 +18543,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -18587,7 +18586,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -18630,7 +18629,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I155">
         <v>4</v>
@@ -18673,7 +18672,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -18716,7 +18715,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18759,7 +18758,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -18802,7 +18801,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18845,7 +18844,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18888,7 +18887,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18931,7 +18930,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18974,7 +18973,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -19017,7 +19016,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I164">
         <v>4</v>
@@ -19060,7 +19059,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -19103,7 +19102,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19146,7 +19145,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19189,7 +19188,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19232,7 +19231,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19275,7 +19274,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19318,7 +19317,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19361,7 +19360,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19404,7 +19403,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19447,7 +19446,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -19490,7 +19489,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -19533,7 +19532,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -19576,7 +19575,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -19619,7 +19618,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -19662,7 +19661,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -19705,7 +19704,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -19748,7 +19747,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -19791,7 +19790,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I182">
         <v>10</v>
@@ -19834,7 +19833,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -19877,7 +19876,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -19920,7 +19919,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -19963,7 +19962,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -20006,7 +20005,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I187">
         <v>14</v>
@@ -20049,7 +20048,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -20092,7 +20091,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I189">
         <v>12</v>
@@ -20135,7 +20134,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -20178,7 +20177,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -20221,7 +20220,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -20264,7 +20263,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -20307,7 +20306,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I194">
         <v>8</v>
@@ -20350,7 +20349,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I195">
         <v>12</v>
@@ -20393,7 +20392,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -20436,7 +20435,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -20479,7 +20478,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -20522,7 +20521,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -20565,7 +20564,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -20608,7 +20607,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -20651,7 +20650,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -20694,7 +20693,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I203">
         <v>4</v>
@@ -20737,7 +20736,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -20780,7 +20779,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I205">
         <v>8</v>
@@ -20823,7 +20822,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I206">
         <v>12</v>
@@ -20866,7 +20865,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -20909,7 +20908,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -20952,7 +20951,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I209">
         <v>4</v>
@@ -20995,7 +20994,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -21038,7 +21037,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I211">
         <v>12</v>
@@ -21081,7 +21080,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I212">
         <v>8</v>
@@ -21124,7 +21123,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -21167,7 +21166,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -21210,7 +21209,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -21253,7 +21252,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -21296,7 +21295,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -21339,7 +21338,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -21382,7 +21381,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I219">
         <v>4</v>
@@ -21425,7 +21424,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -21468,7 +21467,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I221">
         <v>8</v>
@@ -21511,7 +21510,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -21554,7 +21553,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I223">
         <v>12</v>
@@ -21597,7 +21596,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -21640,7 +21639,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I225">
         <v>8</v>
@@ -21683,7 +21682,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -21726,7 +21725,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I227">
         <v>12</v>
@@ -21769,7 +21768,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -21812,7 +21811,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I229">
         <v>8</v>
@@ -21855,7 +21854,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I230">
         <v>6</v>
@@ -21898,7 +21897,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I231">
         <v>12</v>
@@ -21941,7 +21940,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -21984,7 +21983,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I233">
         <v>6</v>
@@ -22027,7 +22026,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -22070,7 +22069,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -22113,7 +22112,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -22156,7 +22155,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -22199,7 +22198,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I238">
         <v>10</v>
@@ -22242,7 +22241,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -22285,7 +22284,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -22328,7 +22327,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -22371,7 +22370,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22414,7 +22413,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22457,7 +22456,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22500,7 +22499,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I245">
         <v>4</v>
@@ -22543,7 +22542,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I246">
         <v>4</v>
@@ -22586,7 +22585,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -22629,7 +22628,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22672,7 +22671,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I249">
         <v>12</v>
@@ -22715,7 +22714,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -22758,7 +22757,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I251">
         <v>4</v>
@@ -22801,7 +22800,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I252">
         <v>8</v>
@@ -22844,7 +22843,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -22887,7 +22886,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I254">
         <v>8</v>
@@ -22930,7 +22929,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I255">
         <v>6</v>
@@ -22973,7 +22972,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -23016,7 +23015,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I257">
         <v>10</v>
@@ -23059,7 +23058,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -23102,7 +23101,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I259">
         <v>6</v>
@@ -23145,7 +23144,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I260">
         <v>6</v>
@@ -23188,7 +23187,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I261">
         <v>12</v>
@@ -23231,7 +23230,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -23274,7 +23273,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I263">
         <v>12</v>
@@ -23317,7 +23316,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I264">
         <v>12</v>
@@ -23360,7 +23359,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -23403,7 +23402,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -23446,7 +23445,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I267">
         <v>10</v>
@@ -23489,7 +23488,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -23532,7 +23531,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -23575,7 +23574,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I270">
         <v>10</v>
@@ -23618,7 +23617,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I271">
         <v>8</v>
@@ -23661,7 +23660,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -23704,7 +23703,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -23747,7 +23746,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -23790,7 +23789,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -23833,7 +23832,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -23876,7 +23875,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -23919,7 +23918,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -23962,7 +23961,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I279">
         <v>14</v>
@@ -24005,7 +24004,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I280">
         <v>8</v>
@@ -24048,7 +24047,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I281">
         <v>2</v>
@@ -24091,7 +24090,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I282">
         <v>12</v>
@@ -24134,7 +24133,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -24177,7 +24176,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I284">
         <v>2</v>
@@ -24220,7 +24219,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -24263,7 +24262,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I286">
         <v>2</v>
@@ -24306,7 +24305,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -24349,7 +24348,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -24392,7 +24391,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I289">
         <v>16</v>
@@ -24435,7 +24434,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I290">
         <v>2</v>
@@ -24478,7 +24477,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I291">
         <v>2</v>
@@ -24521,7 +24520,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I292">
         <v>8</v>
@@ -24564,7 +24563,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -24607,7 +24606,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I294">
         <v>12</v>
@@ -24650,7 +24649,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I295">
         <v>4</v>
@@ -24693,7 +24692,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -24736,7 +24735,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -24779,7 +24778,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I298">
         <v>2</v>
@@ -24822,7 +24821,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I299">
         <v>2</v>
@@ -24865,7 +24864,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I300">
         <v>4</v>
@@ -24908,7 +24907,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I301">
         <v>2</v>
@@ -24951,7 +24950,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I302">
         <v>2</v>
@@ -24994,7 +24993,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I303">
         <v>16</v>
@@ -25037,7 +25036,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I304">
         <v>2</v>
@@ -25080,7 +25079,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I305">
         <v>2</v>
@@ -25123,7 +25122,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I306">
         <v>10</v>
@@ -25166,7 +25165,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I307">
         <v>2</v>
@@ -25209,7 +25208,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -25252,7 +25251,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I309">
         <v>14</v>
@@ -25295,7 +25294,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I310">
         <v>18</v>
@@ -25338,7 +25337,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -25381,7 +25380,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -25424,7 +25423,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -25467,7 +25466,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -25510,7 +25509,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -25553,7 +25552,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -25596,7 +25595,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I317">
         <v>12</v>
@@ -25639,7 +25638,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -25682,7 +25681,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -25725,7 +25724,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I320">
         <v>6</v>
@@ -25768,7 +25767,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I321">
         <v>6</v>
@@ -25811,7 +25810,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I322">
         <v>2</v>
@@ -25854,7 +25853,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I323">
         <v>4</v>
@@ -25897,7 +25896,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I324">
         <v>10</v>
@@ -25940,7 +25939,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -25983,7 +25982,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I326">
         <v>12</v>
@@ -26026,7 +26025,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I327">
         <v>8</v>
@@ -26069,7 +26068,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -26112,7 +26111,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I329">
         <v>8</v>
@@ -26155,7 +26154,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I330">
         <v>2</v>
@@ -26198,7 +26197,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I331">
         <v>2</v>
@@ -26241,7 +26240,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I332">
         <v>4</v>
@@ -26284,7 +26283,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I333">
         <v>10</v>
@@ -26327,7 +26326,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -26370,7 +26369,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I335">
         <v>12</v>
@@ -26413,7 +26412,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I336">
         <v>4</v>
@@ -26456,7 +26455,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I337">
         <v>4</v>
@@ -26499,7 +26498,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I338">
         <v>8</v>
@@ -26542,7 +26541,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I339">
         <v>4</v>
@@ -26585,7 +26584,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I340">
         <v>6</v>
@@ -26628,7 +26627,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I341">
         <v>8</v>
@@ -26671,7 +26670,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I342">
         <v>6</v>
@@ -26714,7 +26713,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I343">
         <v>10</v>
@@ -26757,7 +26756,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I344">
         <v>2</v>
@@ -26800,7 +26799,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I345">
         <v>8</v>
@@ -26843,7 +26842,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -26886,7 +26885,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I347">
         <v>10</v>
@@ -26929,7 +26928,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I348">
         <v>2</v>
@@ -26972,7 +26971,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I349">
         <v>2</v>
@@ -27015,7 +27014,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -27058,7 +27057,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -27101,7 +27100,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -27144,7 +27143,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -27187,7 +27186,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I354">
         <v>14</v>
@@ -27230,7 +27229,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -27273,7 +27272,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -27316,7 +27315,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -27359,7 +27358,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -27402,7 +27401,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -27445,7 +27444,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -27488,7 +27487,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -27531,7 +27530,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I362">
         <v>2</v>
@@ -27574,7 +27573,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -27617,7 +27616,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I364">
         <v>12</v>
@@ -27660,7 +27659,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I365">
         <v>6</v>
@@ -27703,7 +27702,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I366">
         <v>8</v>
@@ -27746,7 +27745,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I367">
         <v>12</v>
@@ -27789,7 +27788,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -27832,7 +27831,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -27875,7 +27874,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -27918,7 +27917,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -27961,7 +27960,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I372">
         <v>8</v>
@@ -28004,7 +28003,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -28047,7 +28046,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I374">
         <v>12</v>
@@ -28090,7 +28089,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I375">
         <v>12</v>
@@ -28133,7 +28132,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -28176,7 +28175,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I377">
         <v>16</v>
@@ -28219,7 +28218,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -28262,7 +28261,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -28305,7 +28304,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -28348,7 +28347,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I381">
         <v>2</v>
@@ -28391,7 +28390,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I382">
         <v>18</v>
@@ -28434,7 +28433,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I383">
         <v>2</v>
@@ -28477,7 +28476,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I384">
         <v>2</v>
@@ -28520,7 +28519,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -28563,7 +28562,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -28606,7 +28605,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I387">
         <v>8</v>
@@ -28649,7 +28648,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I388">
         <v>16</v>
@@ -28692,7 +28691,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I389">
         <v>16</v>
@@ -28735,7 +28734,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I390">
         <v>4</v>
@@ -28778,7 +28777,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -28821,7 +28820,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I392">
         <v>12</v>
@@ -28864,7 +28863,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I393">
         <v>8</v>
@@ -28907,7 +28906,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -28950,7 +28949,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -28993,7 +28992,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I396">
         <v>12</v>
@@ -29036,7 +29035,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I397">
         <v>2</v>
@@ -29079,7 +29078,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I398">
         <v>2</v>
@@ -29122,7 +29121,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I399">
         <v>12</v>
@@ -29165,7 +29164,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I400">
         <v>14</v>
@@ -29208,7 +29207,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I401">
         <v>2</v>
@@ -29251,7 +29250,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I402">
         <v>2</v>
@@ -29294,7 +29293,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I403">
         <v>4</v>
@@ -29337,7 +29336,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I404">
         <v>12</v>
@@ -29380,7 +29379,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I405">
         <v>10</v>
@@ -29423,7 +29422,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -29466,7 +29465,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I407">
         <v>2</v>
@@ -29509,7 +29508,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I408">
         <v>2</v>
@@ -29552,7 +29551,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I409">
         <v>12</v>
@@ -29595,7 +29594,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -29638,7 +29637,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I411">
         <v>4</v>
@@ -29681,7 +29680,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I412">
         <v>4</v>
@@ -29724,7 +29723,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -29767,7 +29766,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I414">
         <v>4</v>
@@ -29810,7 +29809,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I415">
         <v>12</v>
@@ -29853,7 +29852,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I416">
         <v>12</v>
@@ -29896,7 +29895,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -29939,7 +29938,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I418">
         <v>14</v>
@@ -29982,7 +29981,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I419">
         <v>2</v>
@@ -30025,7 +30024,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I420">
         <v>10</v>
@@ -30068,7 +30067,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I421">
         <v>10</v>
@@ -30111,7 +30110,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -30154,7 +30153,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I423">
         <v>10</v>
@@ -30197,7 +30196,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I424">
         <v>4</v>
@@ -30240,7 +30239,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I425">
         <v>2</v>
@@ -30283,7 +30282,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I426">
         <v>12</v>
@@ -30326,7 +30325,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I427">
         <v>2</v>
@@ -30369,7 +30368,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I428">
         <v>4</v>
@@ -30412,7 +30411,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I429">
         <v>8</v>
@@ -30455,7 +30454,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I430">
         <v>6</v>
@@ -30498,7 +30497,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I431">
         <v>2</v>
@@ -30541,7 +30540,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I432">
         <v>6</v>
@@ -30584,7 +30583,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I433">
         <v>2</v>
@@ -30627,7 +30626,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I434">
         <v>2</v>
@@ -30670,7 +30669,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I435">
         <v>4</v>
@@ -30713,7 +30712,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -30756,7 +30755,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I437">
         <v>8</v>
@@ -30799,7 +30798,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I438">
         <v>8</v>
@@ -30842,7 +30841,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I439">
         <v>6</v>
@@ -30885,7 +30884,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I440">
         <v>6</v>
@@ -30928,7 +30927,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I441">
         <v>2</v>
@@ -30971,7 +30970,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I442">
         <v>2</v>
@@ -31014,7 +31013,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I443">
         <v>4</v>
@@ -31057,7 +31056,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I444">
         <v>10</v>
@@ -31100,7 +31099,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I445">
         <v>2</v>
@@ -31143,7 +31142,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I446">
         <v>2</v>
@@ -31186,7 +31185,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I447">
         <v>6</v>
@@ -31229,7 +31228,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I448">
         <v>8</v>
@@ -31272,7 +31271,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I449">
         <v>8</v>
@@ -31315,7 +31314,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I450">
         <v>8</v>
@@ -31358,7 +31357,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -31401,7 +31400,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I452">
         <v>2</v>
@@ -31444,7 +31443,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -31487,7 +31486,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I454">
         <v>18</v>
@@ -31530,7 +31529,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I455">
         <v>4</v>
@@ -31573,7 +31572,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I456">
         <v>2</v>
@@ -31616,7 +31615,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I457">
         <v>2</v>
@@ -31659,7 +31658,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I458">
         <v>8</v>
@@ -31702,7 +31701,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I459">
         <v>2</v>
@@ -31745,7 +31744,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I460">
         <v>2</v>
@@ -31788,7 +31787,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I461">
         <v>10</v>
@@ -31831,7 +31830,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I462">
         <v>12</v>
@@ -31874,7 +31873,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -31917,7 +31916,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I464">
         <v>4</v>
@@ -31960,7 +31959,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -32003,7 +32002,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I466">
         <v>4</v>
@@ -32046,7 +32045,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I467">
         <v>12</v>
@@ -32089,7 +32088,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I468">
         <v>4</v>
@@ -32132,7 +32131,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I469">
         <v>12</v>
@@ -32175,7 +32174,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -32218,7 +32217,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I471">
         <v>10</v>
@@ -32261,7 +32260,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -32304,7 +32303,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -32347,7 +32346,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I474">
         <v>14</v>
@@ -32390,7 +32389,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -32433,7 +32432,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -32476,7 +32475,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I477">
         <v>12</v>
@@ -32519,7 +32518,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I478">
         <v>2</v>
@@ -32562,7 +32561,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I479">
         <v>12</v>
@@ -32605,7 +32604,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I480">
         <v>2</v>
@@ -32648,7 +32647,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I481">
         <v>2</v>
@@ -32691,7 +32690,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I482">
         <v>4</v>
@@ -32734,7 +32733,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I483">
         <v>12</v>
@@ -32777,7 +32776,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I484">
         <v>10</v>
@@ -32820,7 +32819,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -32863,7 +32862,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I486">
         <v>8</v>
@@ -32906,7 +32905,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -32949,7 +32948,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I488">
         <v>14</v>
@@ -32992,7 +32991,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -33035,7 +33034,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I490">
         <v>2</v>
@@ -33078,7 +33077,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I491">
         <v>12</v>
@@ -33121,7 +33120,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I492">
         <v>2</v>
@@ -33164,7 +33163,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I493">
         <v>4</v>
@@ -33207,7 +33206,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I494">
         <v>2</v>
@@ -33250,7 +33249,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I495">
         <v>10</v>
@@ -33293,7 +33292,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -33336,7 +33335,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I497">
         <v>2</v>
@@ -33379,7 +33378,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I498">
         <v>10</v>
@@ -33422,7 +33421,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I499">
         <v>12</v>
@@ -33465,7 +33464,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I500">
         <v>2</v>
@@ -33508,7 +33507,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I501">
         <v>12</v>
@@ -33551,7 +33550,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -33594,7 +33593,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -33637,7 +33636,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I504">
         <v>2</v>
@@ -33680,7 +33679,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I505">
         <v>6</v>
@@ -33723,7 +33722,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I506">
         <v>4</v>
@@ -33766,7 +33765,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I507">
         <v>8</v>
@@ -33809,7 +33808,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I508">
         <v>6</v>
@@ -33852,7 +33851,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I509">
         <v>4</v>
@@ -33895,7 +33894,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I510">
         <v>6</v>
@@ -33938,7 +33937,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I511">
         <v>12</v>
@@ -33981,7 +33980,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I512">
         <v>2</v>
@@ -34024,7 +34023,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I513">
         <v>14</v>
@@ -34067,7 +34066,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I514">
         <v>2</v>
@@ -34110,7 +34109,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I515">
         <v>12</v>
@@ -34153,7 +34152,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I516">
         <v>4</v>
@@ -34196,7 +34195,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I517">
         <v>2</v>
@@ -34239,7 +34238,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I518">
         <v>16</v>
@@ -34282,7 +34281,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I519">
         <v>2</v>
@@ -34325,7 +34324,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -34368,7 +34367,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I521">
         <v>8</v>
@@ -34411,7 +34410,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I522">
         <v>4</v>
@@ -34454,7 +34453,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -34497,7 +34496,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -34540,7 +34539,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I525">
         <v>12</v>
@@ -34583,7 +34582,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I526">
         <v>6</v>
@@ -34626,7 +34625,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -34669,7 +34668,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I528">
         <v>8</v>
@@ -34712,7 +34711,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -34755,7 +34754,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I530">
         <v>4</v>
@@ -34798,7 +34797,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I531">
         <v>2</v>
@@ -34841,7 +34840,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I532">
         <v>12</v>
@@ -34884,7 +34883,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I533">
         <v>2</v>
@@ -34927,7 +34926,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I534">
         <v>6</v>
@@ -34970,7 +34969,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I535">
         <v>4</v>
@@ -35013,7 +35012,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I536">
         <v>2</v>
@@ -35056,7 +35055,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I537">
         <v>4</v>
@@ -35099,7 +35098,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I538">
         <v>20</v>
@@ -35142,7 +35141,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I539">
         <v>2</v>
@@ -35185,7 +35184,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I540">
         <v>6</v>
@@ -35228,7 +35227,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -35271,7 +35270,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -35314,7 +35313,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I543">
         <v>2</v>
@@ -35357,7 +35356,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I544">
         <v>2</v>
@@ -35400,7 +35399,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I545">
         <v>2</v>
@@ -35443,7 +35442,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I546">
         <v>8</v>
@@ -35486,7 +35485,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I547">
         <v>8</v>
@@ -35529,7 +35528,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I548">
         <v>2</v>
@@ -35572,7 +35571,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -35615,7 +35614,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I550">
         <v>8</v>
@@ -35658,7 +35657,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -35701,7 +35700,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I552">
         <v>12</v>
@@ -35744,7 +35743,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I553">
         <v>4</v>
@@ -35787,7 +35786,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I554">
         <v>6</v>
@@ -35830,7 +35829,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -35873,7 +35872,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I556">
         <v>2</v>
@@ -35916,7 +35915,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I557">
         <v>2</v>
@@ -35959,7 +35958,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -36002,7 +36001,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I559">
         <v>2</v>
@@ -36045,7 +36044,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I560">
         <v>8</v>
@@ -36088,7 +36087,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I561">
         <v>4</v>
@@ -36131,7 +36130,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I562">
         <v>2</v>
@@ -36174,7 +36173,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I563">
         <v>2</v>
@@ -36217,7 +36216,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I564">
         <v>2</v>
@@ -36260,7 +36259,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -36303,7 +36302,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I566">
         <v>10</v>
@@ -36346,7 +36345,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I567">
         <v>2</v>
@@ -36389,7 +36388,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I568">
         <v>16</v>
@@ -36432,7 +36431,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I569">
         <v>4</v>
@@ -36475,7 +36474,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I570">
         <v>4</v>
@@ -36518,7 +36517,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I571">
         <v>8</v>
@@ -36561,7 +36560,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I572">
         <v>2</v>
@@ -36604,7 +36603,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I573">
         <v>12</v>
@@ -36647,7 +36646,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I574">
         <v>2</v>
@@ -36690,7 +36689,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I575">
         <v>12</v>
@@ -36733,7 +36732,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I576">
         <v>16</v>
@@ -36776,7 +36775,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I577">
         <v>2</v>
@@ -36819,7 +36818,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I578">
         <v>2</v>
@@ -36862,7 +36861,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I579">
         <v>2</v>
@@ -36905,7 +36904,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I580">
         <v>12</v>
@@ -36948,7 +36947,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36991,7 +36990,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -37034,7 +37033,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I583">
         <v>4</v>
@@ -37077,7 +37076,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I584">
         <v>6</v>
@@ -37120,7 +37119,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I585">
         <v>4</v>
@@ -37163,7 +37162,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -37206,7 +37205,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I587">
         <v>2</v>
@@ -37249,7 +37248,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I588">
         <v>12</v>
@@ -37292,7 +37291,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I589">
         <v>8</v>
@@ -37335,7 +37334,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I590">
         <v>2</v>
@@ -37378,7 +37377,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I591">
         <v>2</v>
@@ -37421,7 +37420,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I592">
         <v>2</v>
@@ -37464,7 +37463,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I593">
         <v>2</v>
@@ -37507,7 +37506,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I594">
         <v>12</v>
@@ -37550,7 +37549,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I595">
         <v>6</v>
@@ -37593,7 +37592,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I596">
         <v>4</v>
@@ -37742,13 +37741,13 @@
       <c r="A6" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>1978</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>510</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6">
         <v>2488</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -37780,13 +37779,13 @@
       <c r="A7" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>1044.8400000000001</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>1502</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>2546.84</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -37818,13 +37817,13 @@
       <c r="A8" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>1896</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>306</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8">
         <v>2202</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -37856,11 +37855,10 @@
       <c r="A9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>1936.5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="D9">
         <v>1936.5</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -37889,13 +37887,13 @@
       <c r="A10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>2064</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>581</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>2645</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -37927,13 +37925,13 @@
       <c r="A11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>2043</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>718</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11">
         <v>2761</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -37965,13 +37963,13 @@
       <c r="A12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>1704</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>441</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12">
         <v>2145</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -38003,13 +38001,13 @@
       <c r="A13" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>731.5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>524</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13">
         <v>1255.5</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -38041,13 +38039,13 @@
       <c r="A14" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>590</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>521.25</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14">
         <v>1111.25</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -38079,13 +38077,13 @@
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>621.875</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>642</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15">
         <v>1263.875</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -38117,13 +38115,13 @@
       <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>1038.5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>304</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16">
         <v>1342.5</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -38152,11 +38150,10 @@
       <c r="A17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>919.5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10">
+      <c r="D17">
         <v>919.5</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -38185,13 +38182,13 @@
       <c r="A18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>564.5</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>515</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18">
         <v>1079.5</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -38223,13 +38220,13 @@
       <c r="A19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>685.25</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>568.25</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19">
         <v>1253.5</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -38258,13 +38255,13 @@
       <c r="A20" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>683.25</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>178</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20">
         <v>861.25</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -38296,11 +38293,10 @@
       <c r="A21" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>1288.25</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10">
+      <c r="D21">
         <v>1288.25</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -38329,11 +38325,10 @@
       <c r="A22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>1255.25</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10">
+      <c r="D22">
         <v>1255.25</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -38362,13 +38357,13 @@
       <c r="A23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>565.25</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>138</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23">
         <v>703.25</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -38397,13 +38392,13 @@
       <c r="A24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>1058.5</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <v>339</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24">
         <v>1397.5</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -38435,11 +38430,10 @@
       <c r="A25" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>1549.75</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10">
+      <c r="D25">
         <v>1549.75</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -38471,13 +38465,13 @@
       <c r="A26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26">
         <v>998</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26">
         <v>310</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26">
         <v>1308</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -38506,13 +38500,13 @@
       <c r="A27" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27">
         <v>860.5</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27">
         <v>16.5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27">
         <v>877</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -38541,13 +38535,13 @@
       <c r="A28" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28">
         <v>834.25</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28">
         <v>459</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28">
         <v>1293.25</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -38579,11 +38573,10 @@
       <c r="A29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29">
         <v>1462.5</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10">
+      <c r="D29">
         <v>1462.5</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -38615,11 +38608,10 @@
       <c r="A30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30">
         <v>1326.5</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10">
+      <c r="D30">
         <v>1326.5</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -38648,13 +38640,13 @@
       <c r="A31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31">
         <v>1200</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31">
         <v>26</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31">
         <v>1226</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -38683,13 +38675,13 @@
       <c r="A32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32">
         <v>799.75</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32">
         <v>156</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32">
         <v>955.75</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -38721,13 +38713,13 @@
       <c r="A33" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33">
         <v>794.5</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33">
         <v>360</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33">
         <v>1154.5</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -38756,13 +38748,13 @@
       <c r="A34" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34">
         <v>1001</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34">
         <v>182</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34">
         <v>1183</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -38791,13 +38783,13 @@
       <c r="A35" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35">
         <v>701.5</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35">
         <v>313</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35">
         <v>1014.5</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -38829,13 +38821,13 @@
       <c r="A36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36">
         <v>34196.214999999997</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36">
         <v>9610</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36">
         <v>43806.214999999997</v>
       </c>
       <c r="G36" s="6" t="s">

--- a/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCACA68-77A8-452A-904D-6295B3A82268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B310ADB-072B-4F9B-BCC1-9C0ED3A4F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="5325" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="26595" yWindow="14910" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2064,6 +2064,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2102,7 +2110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2119,6 +2127,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11962,9 +11973,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:N596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12047,7 +12058,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -12090,7 +12101,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -12133,7 +12144,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -12176,7 +12187,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -12194,8 +12205,9 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
-        <v>2</v>
+      <c r="N5" s="10">
+        <f>3/4</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -12222,7 +12234,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -12265,7 +12277,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -12308,7 +12320,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -12351,7 +12363,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -12394,7 +12406,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -12437,7 +12449,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I11">
         <v>24</v>
@@ -12480,7 +12492,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I12">
         <v>24</v>
@@ -12523,7 +12535,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -12566,7 +12578,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -12609,7 +12621,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -12652,7 +12664,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I16">
         <v>12</v>
@@ -12695,7 +12707,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -12738,7 +12750,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -12781,7 +12793,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -12824,7 +12836,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -12867,10 +12879,10 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="I21">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J21" s="2">
         <v>16.125</v>
@@ -12880,7 +12892,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>193.5</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -12910,10 +12922,10 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2">
         <v>13</v>
@@ -12923,7 +12935,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -12953,10 +12965,10 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2">
         <v>12.75</v>
@@ -12966,7 +12978,7 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -12996,10 +13008,10 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I24">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2">
         <v>12.75</v>
@@ -13009,7 +13021,7 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>918</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -13039,10 +13051,10 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2">
         <v>12.75</v>
@@ -13052,7 +13064,7 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>918</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -13082,10 +13094,10 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I26">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J26" s="2">
         <v>12.75</v>
@@ -13095,7 +13107,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>918</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -13125,10 +13137,10 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J27" s="2">
         <v>12.75</v>
@@ -13138,7 +13150,7 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>459</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -13168,10 +13180,10 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I28">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J28" s="2">
         <v>17</v>
@@ -13181,7 +13193,7 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="1"/>
-        <v>272</v>
+        <v>816</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -13211,10 +13223,10 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J29" s="2">
         <v>17</v>
@@ -13224,7 +13236,7 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -13254,10 +13266,10 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J30" s="2">
         <v>10</v>
@@ -13267,7 +13279,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -13297,10 +13309,10 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J31" s="2">
         <v>16.25</v>
@@ -13310,7 +13322,7 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -13340,10 +13352,10 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2">
         <v>13</v>
@@ -13353,7 +13365,7 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -13383,10 +13395,10 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2">
         <v>16.25</v>
@@ -13396,7 +13408,7 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -13426,10 +13438,10 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I34">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J34" s="2">
         <v>16.25</v>
@@ -13439,7 +13451,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>780</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -13469,10 +13481,10 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J35" s="2">
         <v>17</v>
@@ -13482,7 +13494,7 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -13512,10 +13524,10 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J36" s="2">
         <v>11.21</v>
@@ -13525,7 +13537,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="1"/>
-        <v>44.84</v>
+        <v>134.52000000000001</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -13555,10 +13567,10 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J37" s="2">
         <v>8.625</v>
@@ -13568,7 +13580,7 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="1"/>
-        <v>34.5</v>
+        <v>103.5</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -13598,10 +13610,10 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J38" s="2">
         <v>11.25</v>
@@ -13611,7 +13623,7 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -13641,10 +13653,10 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J39" s="2">
         <v>8.625</v>
@@ -13654,7 +13666,7 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" si="1"/>
-        <v>103.5</v>
+        <v>310.5</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -13684,10 +13696,10 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J40" s="2">
         <v>4.5</v>
@@ -13697,7 +13709,7 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -13727,10 +13739,10 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J41" s="2">
         <v>16</v>
@@ -13740,7 +13752,7 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -13770,10 +13782,10 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I42">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J42" s="2">
         <v>9</v>
@@ -13783,7 +13795,7 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>756</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -13813,10 +13825,10 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J43" s="2">
         <v>9</v>
@@ -13826,7 +13838,7 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -13856,10 +13868,10 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J44" s="2">
         <v>9</v>
@@ -13869,7 +13881,7 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -13899,10 +13911,10 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2">
         <v>9</v>
@@ -13912,7 +13924,7 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -13942,10 +13954,10 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J46" s="2">
         <v>6.75</v>
@@ -13955,7 +13967,7 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -13985,10 +13997,10 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J47" s="2">
         <v>9</v>
@@ -13998,7 +14010,7 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -14028,10 +14040,10 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J48" s="2">
         <v>13</v>
@@ -14041,7 +14053,7 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -14071,10 +14083,10 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J49" s="2">
         <v>9.125</v>
@@ -14084,7 +14096,7 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -14114,10 +14126,10 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J50" s="2">
         <v>16</v>
@@ -14127,7 +14139,7 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -14157,10 +14169,10 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J51" s="2">
         <v>5</v>
@@ -14170,7 +14182,7 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -14200,10 +14212,10 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I52">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J52" s="2">
         <v>6.75</v>
@@ -14213,7 +14225,7 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -14243,10 +14255,10 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I53">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="J53" s="2">
         <v>6.75</v>
@@ -14256,7 +14268,7 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>729</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -14286,10 +14298,10 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J54" s="2">
         <v>17</v>
@@ -14299,7 +14311,7 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -14329,10 +14341,10 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I55">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J55" s="2">
         <v>12.75</v>
@@ -14342,7 +14354,7 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>918</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -14372,10 +14384,10 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J56" s="2">
         <v>13</v>
@@ -14385,7 +14397,7 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -14415,10 +14427,10 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J57" s="2">
         <v>6</v>
@@ -14428,7 +14440,7 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M57" s="7">
         <v>2</v>
@@ -14458,10 +14470,10 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I58">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J58" s="2">
         <v>6</v>
@@ -14471,7 +14483,7 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>504</v>
       </c>
       <c r="M58" s="7">
         <v>2</v>
@@ -14501,10 +14513,10 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J59" s="2">
         <v>10</v>
@@ -14514,7 +14526,7 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -14544,10 +14556,10 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I60">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J60" s="2">
         <v>13</v>
@@ -14557,7 +14569,7 @@
       </c>
       <c r="L60" s="2">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>936</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -14587,10 +14599,10 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="I61">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J61" s="2">
         <v>13.25</v>
@@ -14600,7 +14612,7 @@
       </c>
       <c r="L61" s="2">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>477</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -14630,7 +14642,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -14673,7 +14685,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -14716,7 +14728,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -14759,7 +14771,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I65">
         <v>20</v>
@@ -14802,7 +14814,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -14845,7 +14857,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I67">
         <v>20</v>
@@ -14888,7 +14900,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I68">
         <v>32</v>
@@ -14931,7 +14943,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -14974,7 +14986,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I70">
         <v>8</v>
@@ -15017,7 +15029,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -15060,7 +15072,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -15103,7 +15115,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -15146,7 +15158,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -15189,7 +15201,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -15232,7 +15244,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I76">
         <v>32</v>
@@ -15275,7 +15287,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -15318,7 +15330,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -15361,7 +15373,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -15404,7 +15416,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -15447,7 +15459,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="I81">
         <v>28</v>
@@ -15490,7 +15502,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -15533,7 +15545,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -15576,7 +15588,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I84">
         <v>32</v>
@@ -15619,7 +15631,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I85">
         <v>4</v>
@@ -15662,7 +15674,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I86">
         <v>32</v>
@@ -15705,7 +15717,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -15748,7 +15760,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I88">
         <v>16</v>
@@ -15791,7 +15803,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I89">
         <v>4</v>
@@ -15834,7 +15846,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -15877,7 +15889,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I91">
         <v>8</v>
@@ -15920,7 +15932,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I92">
         <v>24</v>
@@ -15963,7 +15975,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -16006,7 +16018,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I94">
         <v>4</v>
@@ -16049,7 +16061,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I95">
         <v>8</v>
@@ -16092,7 +16104,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I96">
         <v>16</v>
@@ -16135,7 +16147,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I97">
         <v>36</v>
@@ -16178,7 +16190,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -16221,7 +16233,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I99">
         <v>12</v>
@@ -16264,7 +16276,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I100">
         <v>4</v>
@@ -16307,7 +16319,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -16350,7 +16362,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I102">
         <v>8</v>
@@ -16393,7 +16405,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I103">
         <v>24</v>
@@ -16436,7 +16448,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I104">
         <v>20</v>
@@ -16479,7 +16491,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -16522,7 +16534,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -16565,7 +16577,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I107">
         <v>24</v>
@@ -16608,7 +16620,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I108">
         <v>4</v>
@@ -16651,7 +16663,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I109">
         <v>24</v>
@@ -16694,7 +16706,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I110">
         <v>4</v>
@@ -16737,7 +16749,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I111">
         <v>4</v>
@@ -16780,7 +16792,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I112">
         <v>16</v>
@@ -16823,7 +16835,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -16866,7 +16878,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I114">
         <v>24</v>
@@ -16909,7 +16921,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I115">
         <v>4</v>
@@ -16952,7 +16964,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I116">
         <v>16</v>
@@ -16995,7 +17007,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I117">
         <v>4</v>
@@ -17038,7 +17050,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I118">
         <v>4</v>
@@ -17081,7 +17093,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I119">
         <v>4</v>
@@ -17124,7 +17136,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I120">
         <v>24</v>
@@ -17167,7 +17179,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -17210,7 +17222,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I122">
         <v>8</v>
@@ -17253,7 +17265,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I123">
         <v>28</v>
@@ -17296,7 +17308,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I124">
         <v>4</v>
@@ -17339,7 +17351,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I125">
         <v>4</v>
@@ -17382,7 +17394,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I126">
         <v>4</v>
@@ -17425,7 +17437,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I127">
         <v>4</v>
@@ -17468,7 +17480,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I128">
         <v>20</v>
@@ -17511,7 +17523,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -17554,7 +17566,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I130">
         <v>8</v>
@@ -17597,7 +17609,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I131">
         <v>16</v>
@@ -17640,7 +17652,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I132">
         <v>8</v>
@@ -17683,7 +17695,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I133">
         <v>4</v>
@@ -17726,7 +17738,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I134">
         <v>8</v>
@@ -17769,7 +17781,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I135">
         <v>8</v>
@@ -17812,7 +17824,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I136">
         <v>28</v>
@@ -17855,7 +17867,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I137">
         <v>4</v>
@@ -17898,7 +17910,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I138">
         <v>12</v>
@@ -17941,7 +17953,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I139">
         <v>32</v>
@@ -17984,7 +17996,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I140">
         <v>8</v>
@@ -18027,7 +18039,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I141">
         <v>4</v>
@@ -18070,7 +18082,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -18113,7 +18125,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -18156,7 +18168,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -18199,7 +18211,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -18242,7 +18254,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -18285,7 +18297,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -18328,7 +18340,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -18371,7 +18383,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -18414,7 +18426,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -18457,7 +18469,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -18500,7 +18512,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -18543,7 +18555,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -18586,7 +18598,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -18629,7 +18641,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I155">
         <v>4</v>
@@ -18672,7 +18684,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -18715,7 +18727,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18758,7 +18770,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -18801,7 +18813,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18844,7 +18856,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18887,7 +18899,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18930,7 +18942,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18973,7 +18985,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -19016,7 +19028,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I164">
         <v>4</v>
@@ -19059,7 +19071,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -19102,7 +19114,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19145,7 +19157,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19188,7 +19200,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19231,7 +19243,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19274,7 +19286,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19317,7 +19329,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19360,7 +19372,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19403,7 +19415,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19446,7 +19458,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -19489,7 +19501,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -19532,7 +19544,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -19575,7 +19587,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -19618,7 +19630,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -19661,7 +19673,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -19704,7 +19716,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -19747,7 +19759,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -19790,7 +19802,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I182">
         <v>10</v>
@@ -19833,7 +19845,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -19876,7 +19888,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -19919,7 +19931,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -19962,7 +19974,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -20005,7 +20017,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I187">
         <v>14</v>
@@ -20048,7 +20060,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -20091,7 +20103,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I189">
         <v>12</v>
@@ -20134,7 +20146,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -20177,7 +20189,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -20220,7 +20232,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -20263,7 +20275,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -20306,7 +20318,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I194">
         <v>8</v>
@@ -20349,7 +20361,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I195">
         <v>12</v>
@@ -20392,7 +20404,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -20435,7 +20447,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -20478,7 +20490,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -20521,7 +20533,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -20564,7 +20576,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -20607,7 +20619,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -20650,7 +20662,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -20693,7 +20705,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I203">
         <v>4</v>
@@ -20736,7 +20748,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -20779,7 +20791,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I205">
         <v>8</v>
@@ -20822,7 +20834,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I206">
         <v>12</v>
@@ -20865,7 +20877,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -20908,7 +20920,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -20951,7 +20963,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I209">
         <v>4</v>
@@ -20994,7 +21006,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -21037,7 +21049,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I211">
         <v>12</v>
@@ -21080,7 +21092,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I212">
         <v>8</v>
@@ -21123,7 +21135,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -21166,7 +21178,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -21209,7 +21221,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -21252,7 +21264,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -21295,7 +21307,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -21338,7 +21350,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -21381,7 +21393,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I219">
         <v>4</v>
@@ -21424,7 +21436,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -21467,7 +21479,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I221">
         <v>8</v>
@@ -21510,7 +21522,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -21553,7 +21565,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I223">
         <v>12</v>
@@ -21596,7 +21608,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -21639,7 +21651,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I225">
         <v>8</v>
@@ -21682,7 +21694,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -21725,7 +21737,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I227">
         <v>12</v>
@@ -21768,7 +21780,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -21811,7 +21823,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I229">
         <v>8</v>
@@ -21854,7 +21866,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I230">
         <v>6</v>
@@ -21897,7 +21909,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I231">
         <v>12</v>
@@ -21940,7 +21952,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -21983,7 +21995,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I233">
         <v>6</v>
@@ -22026,7 +22038,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -22069,7 +22081,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -22112,7 +22124,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -22155,7 +22167,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -22198,7 +22210,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I238">
         <v>10</v>
@@ -22241,7 +22253,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -22284,7 +22296,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -22327,7 +22339,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -22370,7 +22382,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22413,7 +22425,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22456,7 +22468,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22499,7 +22511,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I245">
         <v>4</v>
@@ -22542,7 +22554,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I246">
         <v>4</v>
@@ -22585,7 +22597,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -22628,7 +22640,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22671,7 +22683,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I249">
         <v>12</v>
@@ -22714,7 +22726,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -22757,7 +22769,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I251">
         <v>4</v>
@@ -22800,7 +22812,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I252">
         <v>8</v>
@@ -22843,7 +22855,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -22886,7 +22898,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I254">
         <v>8</v>
@@ -22929,7 +22941,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I255">
         <v>6</v>
@@ -22972,7 +22984,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -23015,7 +23027,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I257">
         <v>10</v>
@@ -23058,7 +23070,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -23101,7 +23113,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I259">
         <v>6</v>
@@ -23144,7 +23156,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I260">
         <v>6</v>
@@ -23187,7 +23199,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I261">
         <v>12</v>
@@ -23230,7 +23242,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -23273,7 +23285,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I263">
         <v>12</v>
@@ -23316,7 +23328,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I264">
         <v>12</v>
@@ -23359,7 +23371,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -23402,7 +23414,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -23445,7 +23457,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I267">
         <v>10</v>
@@ -23488,7 +23500,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -23531,7 +23543,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -23574,7 +23586,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I270">
         <v>10</v>
@@ -23617,7 +23629,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I271">
         <v>8</v>
@@ -23660,7 +23672,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -23703,7 +23715,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -23746,7 +23758,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -23789,7 +23801,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -23832,7 +23844,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -23875,7 +23887,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -23918,7 +23930,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -23961,7 +23973,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I279">
         <v>14</v>
@@ -24004,7 +24016,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I280">
         <v>8</v>
@@ -24047,7 +24059,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I281">
         <v>2</v>
@@ -24090,7 +24102,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I282">
         <v>12</v>
@@ -24133,7 +24145,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -24176,7 +24188,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I284">
         <v>2</v>
@@ -24219,7 +24231,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -24262,7 +24274,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I286">
         <v>2</v>
@@ -24305,7 +24317,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -24348,7 +24360,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -24391,7 +24403,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I289">
         <v>16</v>
@@ -24434,7 +24446,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I290">
         <v>2</v>
@@ -24477,7 +24489,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I291">
         <v>2</v>
@@ -24520,7 +24532,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I292">
         <v>8</v>
@@ -24563,7 +24575,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -24606,7 +24618,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I294">
         <v>12</v>
@@ -24649,7 +24661,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I295">
         <v>4</v>
@@ -24692,7 +24704,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -24735,7 +24747,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -24778,7 +24790,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I298">
         <v>2</v>
@@ -24821,7 +24833,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I299">
         <v>2</v>
@@ -24864,7 +24876,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I300">
         <v>4</v>
@@ -24907,7 +24919,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I301">
         <v>2</v>
@@ -24950,7 +24962,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I302">
         <v>2</v>
@@ -24993,7 +25005,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I303">
         <v>16</v>
@@ -25036,7 +25048,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I304">
         <v>2</v>
@@ -25079,7 +25091,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I305">
         <v>2</v>
@@ -25122,7 +25134,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I306">
         <v>10</v>
@@ -25165,7 +25177,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I307">
         <v>2</v>
@@ -25208,7 +25220,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -25251,7 +25263,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I309">
         <v>14</v>
@@ -25294,7 +25306,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I310">
         <v>18</v>
@@ -25337,7 +25349,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -25380,7 +25392,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -25423,7 +25435,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -25466,7 +25478,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -25509,7 +25521,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -25552,7 +25564,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -25595,7 +25607,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I317">
         <v>12</v>
@@ -25638,7 +25650,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -25681,7 +25693,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -25724,7 +25736,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I320">
         <v>6</v>
@@ -25767,7 +25779,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I321">
         <v>6</v>
@@ -25810,7 +25822,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I322">
         <v>2</v>
@@ -25853,7 +25865,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I323">
         <v>4</v>
@@ -25896,7 +25908,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I324">
         <v>10</v>
@@ -25939,7 +25951,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -25982,7 +25994,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I326">
         <v>12</v>
@@ -26025,7 +26037,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I327">
         <v>8</v>
@@ -26068,7 +26080,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -26111,7 +26123,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I329">
         <v>8</v>
@@ -26154,7 +26166,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I330">
         <v>2</v>
@@ -26197,7 +26209,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I331">
         <v>2</v>
@@ -26240,7 +26252,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I332">
         <v>4</v>
@@ -26283,7 +26295,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I333">
         <v>10</v>
@@ -26326,7 +26338,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -26369,7 +26381,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I335">
         <v>12</v>
@@ -26412,7 +26424,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I336">
         <v>4</v>
@@ -26455,7 +26467,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I337">
         <v>4</v>
@@ -26498,7 +26510,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I338">
         <v>8</v>
@@ -26541,7 +26553,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I339">
         <v>4</v>
@@ -26584,7 +26596,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I340">
         <v>6</v>
@@ -26627,7 +26639,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I341">
         <v>8</v>
@@ -26670,7 +26682,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I342">
         <v>6</v>
@@ -26713,7 +26725,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I343">
         <v>10</v>
@@ -26756,7 +26768,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I344">
         <v>2</v>
@@ -26799,7 +26811,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I345">
         <v>8</v>
@@ -26842,7 +26854,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -26885,7 +26897,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I347">
         <v>10</v>
@@ -26928,7 +26940,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I348">
         <v>2</v>
@@ -26971,7 +26983,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I349">
         <v>2</v>
@@ -27014,7 +27026,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -27057,7 +27069,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -27100,7 +27112,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -27143,7 +27155,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -27186,7 +27198,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I354">
         <v>14</v>
@@ -27229,7 +27241,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -27272,7 +27284,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -27315,7 +27327,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -27358,7 +27370,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -27401,7 +27413,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -27444,7 +27456,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -27487,7 +27499,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -27530,7 +27542,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I362">
         <v>2</v>
@@ -27573,7 +27585,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -27616,7 +27628,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I364">
         <v>12</v>
@@ -27659,7 +27671,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I365">
         <v>6</v>
@@ -27702,7 +27714,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I366">
         <v>8</v>
@@ -27745,7 +27757,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I367">
         <v>12</v>
@@ -27788,7 +27800,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -27831,7 +27843,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -27874,7 +27886,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -27917,7 +27929,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -27960,7 +27972,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I372">
         <v>8</v>
@@ -28003,7 +28015,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -28046,7 +28058,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I374">
         <v>12</v>
@@ -28089,7 +28101,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I375">
         <v>12</v>
@@ -28132,7 +28144,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -28175,7 +28187,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I377">
         <v>16</v>
@@ -28218,7 +28230,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -28261,7 +28273,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -28304,7 +28316,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -28347,7 +28359,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I381">
         <v>2</v>
@@ -28390,7 +28402,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I382">
         <v>18</v>
@@ -28433,7 +28445,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I383">
         <v>2</v>
@@ -28476,7 +28488,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I384">
         <v>2</v>
@@ -28519,7 +28531,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -28562,7 +28574,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -28605,7 +28617,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I387">
         <v>8</v>
@@ -28648,7 +28660,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I388">
         <v>16</v>
@@ -28691,7 +28703,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I389">
         <v>16</v>
@@ -28734,7 +28746,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I390">
         <v>4</v>
@@ -28777,7 +28789,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -28820,7 +28832,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I392">
         <v>12</v>
@@ -28863,7 +28875,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I393">
         <v>8</v>
@@ -28906,7 +28918,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -28949,7 +28961,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -28992,7 +29004,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I396">
         <v>12</v>
@@ -29035,7 +29047,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I397">
         <v>2</v>
@@ -29078,7 +29090,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I398">
         <v>2</v>
@@ -29121,7 +29133,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I399">
         <v>12</v>
@@ -29164,7 +29176,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I400">
         <v>14</v>
@@ -29207,7 +29219,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I401">
         <v>2</v>
@@ -29250,7 +29262,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I402">
         <v>2</v>
@@ -29293,7 +29305,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I403">
         <v>4</v>
@@ -29336,7 +29348,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I404">
         <v>12</v>
@@ -29379,7 +29391,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I405">
         <v>10</v>
@@ -29422,7 +29434,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -29465,7 +29477,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I407">
         <v>2</v>
@@ -29508,7 +29520,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I408">
         <v>2</v>
@@ -29551,7 +29563,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I409">
         <v>12</v>
@@ -29594,7 +29606,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -29637,7 +29649,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I411">
         <v>4</v>
@@ -29680,7 +29692,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I412">
         <v>4</v>
@@ -29723,7 +29735,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -29766,7 +29778,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I414">
         <v>4</v>
@@ -29809,7 +29821,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I415">
         <v>12</v>
@@ -29852,7 +29864,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I416">
         <v>12</v>
@@ -29895,7 +29907,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -29938,7 +29950,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I418">
         <v>14</v>
@@ -29981,7 +29993,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I419">
         <v>2</v>
@@ -30024,7 +30036,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I420">
         <v>10</v>
@@ -30067,7 +30079,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I421">
         <v>10</v>
@@ -30110,7 +30122,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -30153,7 +30165,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I423">
         <v>10</v>
@@ -30196,7 +30208,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I424">
         <v>4</v>
@@ -30239,7 +30251,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I425">
         <v>2</v>
@@ -30282,7 +30294,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I426">
         <v>12</v>
@@ -30325,7 +30337,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I427">
         <v>2</v>
@@ -30368,7 +30380,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I428">
         <v>4</v>
@@ -30411,7 +30423,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I429">
         <v>8</v>
@@ -30454,7 +30466,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I430">
         <v>6</v>
@@ -30497,7 +30509,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I431">
         <v>2</v>
@@ -30540,7 +30552,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I432">
         <v>6</v>
@@ -30583,7 +30595,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I433">
         <v>2</v>
@@ -30626,7 +30638,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I434">
         <v>2</v>
@@ -30669,7 +30681,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I435">
         <v>4</v>
@@ -30712,7 +30724,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -30755,7 +30767,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I437">
         <v>8</v>
@@ -30798,7 +30810,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I438">
         <v>8</v>
@@ -30841,7 +30853,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I439">
         <v>6</v>
@@ -30884,7 +30896,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I440">
         <v>6</v>
@@ -30927,7 +30939,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I441">
         <v>2</v>
@@ -30970,7 +30982,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I442">
         <v>2</v>
@@ -31013,7 +31025,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I443">
         <v>4</v>
@@ -31056,7 +31068,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I444">
         <v>10</v>
@@ -31099,7 +31111,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I445">
         <v>2</v>
@@ -31142,7 +31154,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I446">
         <v>2</v>
@@ -31185,7 +31197,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I447">
         <v>6</v>
@@ -31228,7 +31240,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I448">
         <v>8</v>
@@ -31271,7 +31283,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I449">
         <v>8</v>
@@ -31314,7 +31326,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I450">
         <v>8</v>
@@ -31357,7 +31369,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -31400,7 +31412,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I452">
         <v>2</v>
@@ -31443,7 +31455,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -31486,7 +31498,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I454">
         <v>18</v>
@@ -31529,7 +31541,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I455">
         <v>4</v>
@@ -31572,7 +31584,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I456">
         <v>2</v>
@@ -31615,7 +31627,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I457">
         <v>2</v>
@@ -31658,7 +31670,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I458">
         <v>8</v>
@@ -31701,7 +31713,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I459">
         <v>2</v>
@@ -31744,7 +31756,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I460">
         <v>2</v>
@@ -31787,7 +31799,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I461">
         <v>10</v>
@@ -31830,7 +31842,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I462">
         <v>12</v>
@@ -31873,7 +31885,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -31916,7 +31928,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I464">
         <v>4</v>
@@ -31959,7 +31971,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -32002,7 +32014,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I466">
         <v>4</v>
@@ -32045,7 +32057,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I467">
         <v>12</v>
@@ -32088,7 +32100,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I468">
         <v>4</v>
@@ -32131,7 +32143,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I469">
         <v>12</v>
@@ -32174,7 +32186,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -32217,7 +32229,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I471">
         <v>10</v>
@@ -32260,7 +32272,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -32303,7 +32315,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -32346,7 +32358,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I474">
         <v>14</v>
@@ -32389,7 +32401,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -32432,7 +32444,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -32475,7 +32487,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I477">
         <v>12</v>
@@ -32518,7 +32530,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I478">
         <v>2</v>
@@ -32561,7 +32573,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I479">
         <v>12</v>
@@ -32604,7 +32616,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I480">
         <v>2</v>
@@ -32647,7 +32659,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I481">
         <v>2</v>
@@ -32690,7 +32702,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I482">
         <v>4</v>
@@ -32733,7 +32745,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I483">
         <v>12</v>
@@ -32776,7 +32788,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I484">
         <v>10</v>
@@ -32819,7 +32831,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -32862,7 +32874,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I486">
         <v>8</v>
@@ -32905,7 +32917,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -32948,7 +32960,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I488">
         <v>14</v>
@@ -32991,7 +33003,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -33034,7 +33046,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I490">
         <v>2</v>
@@ -33077,7 +33089,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I491">
         <v>12</v>
@@ -33120,7 +33132,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I492">
         <v>2</v>
@@ -33163,7 +33175,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I493">
         <v>4</v>
@@ -33206,7 +33218,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I494">
         <v>2</v>
@@ -33249,7 +33261,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I495">
         <v>10</v>
@@ -33292,7 +33304,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -33335,7 +33347,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I497">
         <v>2</v>
@@ -33378,7 +33390,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I498">
         <v>10</v>
@@ -33421,7 +33433,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I499">
         <v>12</v>
@@ -33464,7 +33476,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I500">
         <v>2</v>
@@ -33507,7 +33519,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I501">
         <v>12</v>
@@ -33550,7 +33562,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -33593,7 +33605,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -33636,7 +33648,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I504">
         <v>2</v>
@@ -33679,7 +33691,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I505">
         <v>6</v>
@@ -33722,7 +33734,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I506">
         <v>4</v>
@@ -33765,7 +33777,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I507">
         <v>8</v>
@@ -33808,7 +33820,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I508">
         <v>6</v>
@@ -33851,7 +33863,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I509">
         <v>4</v>
@@ -33894,7 +33906,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I510">
         <v>6</v>
@@ -33937,7 +33949,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I511">
         <v>12</v>
@@ -33980,7 +33992,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I512">
         <v>2</v>
@@ -34023,7 +34035,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I513">
         <v>14</v>
@@ -34066,7 +34078,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I514">
         <v>2</v>
@@ -34109,7 +34121,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I515">
         <v>12</v>
@@ -34152,7 +34164,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I516">
         <v>4</v>
@@ -34195,7 +34207,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I517">
         <v>2</v>
@@ -34238,7 +34250,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I518">
         <v>16</v>
@@ -34281,7 +34293,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I519">
         <v>2</v>
@@ -34324,7 +34336,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -34367,7 +34379,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I521">
         <v>8</v>
@@ -34410,7 +34422,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I522">
         <v>4</v>
@@ -34453,7 +34465,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -34496,7 +34508,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -34539,7 +34551,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I525">
         <v>12</v>
@@ -34582,7 +34594,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I526">
         <v>6</v>
@@ -34625,7 +34637,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -34668,7 +34680,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I528">
         <v>8</v>
@@ -34711,7 +34723,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -34754,7 +34766,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I530">
         <v>4</v>
@@ -34797,7 +34809,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I531">
         <v>2</v>
@@ -34840,7 +34852,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I532">
         <v>12</v>
@@ -34883,7 +34895,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I533">
         <v>2</v>
@@ -34926,7 +34938,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I534">
         <v>6</v>
@@ -34969,7 +34981,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I535">
         <v>4</v>
@@ -35012,7 +35024,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I536">
         <v>2</v>
@@ -35055,7 +35067,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I537">
         <v>4</v>
@@ -35098,7 +35110,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I538">
         <v>20</v>
@@ -35141,7 +35153,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I539">
         <v>2</v>
@@ -35184,7 +35196,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I540">
         <v>6</v>
@@ -35227,7 +35239,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -35270,7 +35282,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -35313,7 +35325,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I543">
         <v>2</v>
@@ -35356,7 +35368,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I544">
         <v>2</v>
@@ -35399,7 +35411,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I545">
         <v>2</v>
@@ -35442,7 +35454,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I546">
         <v>8</v>
@@ -35485,7 +35497,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I547">
         <v>8</v>
@@ -35528,7 +35540,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I548">
         <v>2</v>
@@ -35571,7 +35583,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -35614,7 +35626,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I550">
         <v>8</v>
@@ -35657,7 +35669,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -35700,7 +35712,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I552">
         <v>12</v>
@@ -35743,7 +35755,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I553">
         <v>4</v>
@@ -35786,7 +35798,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I554">
         <v>6</v>
@@ -35829,7 +35841,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -35872,7 +35884,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I556">
         <v>2</v>
@@ -35915,7 +35927,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I557">
         <v>2</v>
@@ -35958,7 +35970,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -36001,7 +36013,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I559">
         <v>2</v>
@@ -36044,7 +36056,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I560">
         <v>8</v>
@@ -36087,7 +36099,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I561">
         <v>4</v>
@@ -36130,7 +36142,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I562">
         <v>2</v>
@@ -36173,7 +36185,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I563">
         <v>2</v>
@@ -36216,7 +36228,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I564">
         <v>2</v>
@@ -36259,7 +36271,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -36302,7 +36314,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I566">
         <v>10</v>
@@ -36345,7 +36357,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I567">
         <v>2</v>
@@ -36388,7 +36400,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I568">
         <v>16</v>
@@ -36431,7 +36443,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I569">
         <v>4</v>
@@ -36474,7 +36486,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I570">
         <v>4</v>
@@ -36517,7 +36529,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I571">
         <v>8</v>
@@ -36560,7 +36572,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I572">
         <v>2</v>
@@ -36603,7 +36615,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I573">
         <v>12</v>
@@ -36646,7 +36658,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I574">
         <v>2</v>
@@ -36689,7 +36701,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I575">
         <v>12</v>
@@ -36732,7 +36744,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I576">
         <v>16</v>
@@ -36775,7 +36787,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I577">
         <v>2</v>
@@ -36818,7 +36830,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I578">
         <v>2</v>
@@ -36861,7 +36873,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I579">
         <v>2</v>
@@ -36904,7 +36916,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I580">
         <v>12</v>
@@ -36947,7 +36959,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36990,7 +37002,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -37033,7 +37045,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I583">
         <v>4</v>
@@ -37076,7 +37088,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I584">
         <v>6</v>
@@ -37119,7 +37131,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I585">
         <v>4</v>
@@ -37162,7 +37174,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -37205,7 +37217,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I587">
         <v>2</v>
@@ -37248,7 +37260,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I588">
         <v>12</v>
@@ -37291,7 +37303,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I589">
         <v>8</v>
@@ -37334,7 +37346,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I590">
         <v>2</v>
@@ -37377,7 +37389,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I591">
         <v>2</v>
@@ -37420,7 +37432,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I592">
         <v>2</v>
@@ -37463,7 +37475,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I593">
         <v>2</v>
@@ -37506,7 +37518,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I594">
         <v>12</v>
@@ -37549,7 +37561,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I595">
         <v>6</v>
@@ -37592,7 +37604,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I596">
         <v>4</v>

--- a/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE11BC9-DDA6-4A79-A3D1-DB6C87FA3728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CDEE48-F9A7-4295-BFF3-50E123FB221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34905" yWindow="5490" windowWidth="22320" windowHeight="15300" activeTab="1" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="32025" yWindow="12570" windowWidth="15990" windowHeight="15300" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2095,7 +2095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2117,7 +2117,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11011,7 +11010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11963,7 +11962,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:N596"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:I596"/>
     </sheetView>
@@ -12048,7 +12047,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -12091,7 +12090,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -12134,7 +12133,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -12177,7 +12176,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -12223,7 +12222,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -12266,7 +12265,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -12309,7 +12308,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -12352,7 +12351,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -12395,7 +12394,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -12438,7 +12437,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I11">
         <v>24</v>
@@ -12481,7 +12480,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I12">
         <v>24</v>
@@ -12524,7 +12523,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -12567,7 +12566,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -12610,7 +12609,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -12653,7 +12652,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I16">
         <v>12</v>
@@ -12696,7 +12695,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -12739,7 +12738,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -12782,7 +12781,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -12825,7 +12824,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -12868,7 +12867,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I21">
         <v>16</v>
@@ -12911,7 +12910,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -12954,7 +12953,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -12997,7 +12996,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I24">
         <v>24</v>
@@ -13040,7 +13039,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I25">
         <v>24</v>
@@ -13083,7 +13082,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -13126,7 +13125,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -13169,7 +13168,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -13212,7 +13211,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -13255,7 +13254,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -13298,7 +13297,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I31">
         <v>8</v>
@@ -13341,7 +13340,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -13384,7 +13383,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -13427,7 +13426,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I34">
         <v>16</v>
@@ -13470,7 +13469,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -13513,7 +13512,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -13556,7 +13555,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -13599,7 +13598,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I38">
         <v>12</v>
@@ -13642,7 +13641,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I39">
         <v>12</v>
@@ -13685,7 +13684,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I40">
         <v>8</v>
@@ -13728,7 +13727,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -13771,7 +13770,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I42">
         <v>28</v>
@@ -13814,7 +13813,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -13857,7 +13856,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -13900,7 +13899,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I45">
         <v>4</v>
@@ -13943,7 +13942,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I46">
         <v>20</v>
@@ -13986,7 +13985,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I47">
         <v>8</v>
@@ -14029,7 +14028,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -14072,7 +14071,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I49">
         <v>8</v>
@@ -14115,7 +14114,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -14158,7 +14157,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I51">
         <v>4</v>
@@ -14201,7 +14200,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I52">
         <v>8</v>
@@ -14244,7 +14243,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I53">
         <v>36</v>
@@ -14287,7 +14286,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -14330,7 +14329,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I55">
         <v>24</v>
@@ -14373,7 +14372,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -14416,7 +14415,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -14459,7 +14458,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I58">
         <v>28</v>
@@ -14502,7 +14501,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I59">
         <v>4</v>
@@ -14545,7 +14544,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I60">
         <v>24</v>
@@ -14588,7 +14587,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I61">
         <v>12</v>
@@ -14631,7 +14630,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -14674,7 +14673,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -14717,7 +14716,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -14760,7 +14759,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I65">
         <v>20</v>
@@ -14803,7 +14802,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -14846,7 +14845,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I67">
         <v>20</v>
@@ -14889,7 +14888,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I68">
         <v>32</v>
@@ -14932,7 +14931,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -14975,7 +14974,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I70">
         <v>8</v>
@@ -15018,7 +15017,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -15061,7 +15060,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -15104,7 +15103,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -15147,7 +15146,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -15190,7 +15189,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -15233,7 +15232,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I76">
         <v>32</v>
@@ -15276,7 +15275,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -15319,7 +15318,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -15362,7 +15361,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -15405,7 +15404,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -15448,7 +15447,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I81">
         <v>28</v>
@@ -15491,7 +15490,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -15534,7 +15533,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -15577,7 +15576,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I84">
         <v>32</v>
@@ -15620,7 +15619,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I85">
         <v>4</v>
@@ -15663,7 +15662,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I86">
         <v>32</v>
@@ -15706,7 +15705,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -15749,7 +15748,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I88">
         <v>16</v>
@@ -15792,7 +15791,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I89">
         <v>4</v>
@@ -15835,7 +15834,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -15878,7 +15877,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I91">
         <v>8</v>
@@ -15921,7 +15920,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I92">
         <v>24</v>
@@ -15964,7 +15963,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -16007,7 +16006,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I94">
         <v>4</v>
@@ -16050,7 +16049,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I95">
         <v>8</v>
@@ -16093,7 +16092,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I96">
         <v>16</v>
@@ -16136,7 +16135,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I97">
         <v>36</v>
@@ -16179,7 +16178,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -16222,7 +16221,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I99">
         <v>12</v>
@@ -16265,7 +16264,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I100">
         <v>4</v>
@@ -16308,7 +16307,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -16351,7 +16350,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I102">
         <v>8</v>
@@ -16394,7 +16393,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I103">
         <v>24</v>
@@ -16437,7 +16436,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I104">
         <v>20</v>
@@ -16480,7 +16479,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -16523,7 +16522,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -16566,7 +16565,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I107">
         <v>24</v>
@@ -16609,7 +16608,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I108">
         <v>4</v>
@@ -16652,7 +16651,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I109">
         <v>24</v>
@@ -16695,7 +16694,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I110">
         <v>4</v>
@@ -16738,7 +16737,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I111">
         <v>4</v>
@@ -16781,7 +16780,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I112">
         <v>16</v>
@@ -16824,7 +16823,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -16867,7 +16866,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I114">
         <v>24</v>
@@ -16910,7 +16909,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I115">
         <v>4</v>
@@ -16953,7 +16952,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I116">
         <v>16</v>
@@ -16996,7 +16995,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I117">
         <v>4</v>
@@ -17039,7 +17038,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I118">
         <v>4</v>
@@ -17082,7 +17081,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I119">
         <v>4</v>
@@ -17125,7 +17124,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I120">
         <v>24</v>
@@ -17168,7 +17167,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -17211,7 +17210,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I122">
         <v>8</v>
@@ -17254,7 +17253,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I123">
         <v>28</v>
@@ -17297,7 +17296,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I124">
         <v>4</v>
@@ -17340,7 +17339,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I125">
         <v>4</v>
@@ -17383,7 +17382,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I126">
         <v>4</v>
@@ -17426,7 +17425,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I127">
         <v>4</v>
@@ -17469,7 +17468,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I128">
         <v>20</v>
@@ -17512,7 +17511,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -17555,7 +17554,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I130">
         <v>8</v>
@@ -17598,7 +17597,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I131">
         <v>16</v>
@@ -17641,7 +17640,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I132">
         <v>8</v>
@@ -17684,7 +17683,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I133">
         <v>4</v>
@@ -17727,7 +17726,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I134">
         <v>8</v>
@@ -17770,7 +17769,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I135">
         <v>8</v>
@@ -17813,7 +17812,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I136">
         <v>28</v>
@@ -17856,7 +17855,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I137">
         <v>4</v>
@@ -17899,7 +17898,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I138">
         <v>12</v>
@@ -17942,7 +17941,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I139">
         <v>32</v>
@@ -17985,7 +17984,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I140">
         <v>8</v>
@@ -18028,7 +18027,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I141">
         <v>4</v>
@@ -18071,7 +18070,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I142">
         <v>4</v>
@@ -18114,7 +18113,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I143">
         <v>4</v>
@@ -18157,7 +18156,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I144">
         <v>36</v>
@@ -18200,7 +18199,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I145">
         <v>24</v>
@@ -18243,7 +18242,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I146">
         <v>4</v>
@@ -18286,7 +18285,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I147">
         <v>4</v>
@@ -18329,7 +18328,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I148">
         <v>36</v>
@@ -18372,7 +18371,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I149">
         <v>4</v>
@@ -18415,7 +18414,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I150">
         <v>8</v>
@@ -18458,7 +18457,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I151">
         <v>4</v>
@@ -18501,7 +18500,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I152">
         <v>8</v>
@@ -18544,7 +18543,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I153">
         <v>16</v>
@@ -18587,7 +18586,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I154">
         <v>16</v>
@@ -18630,7 +18629,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I155">
         <v>8</v>
@@ -18673,7 +18672,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I156">
         <v>12</v>
@@ -18716,7 +18715,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I157">
         <v>4</v>
@@ -18759,7 +18758,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I158">
         <v>16</v>
@@ -18802,7 +18801,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I159">
         <v>4</v>
@@ -18845,7 +18844,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I160">
         <v>4</v>
@@ -18888,7 +18887,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I161">
         <v>4</v>
@@ -18931,7 +18930,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I162">
         <v>4</v>
@@ -18974,7 +18973,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I163">
         <v>4</v>
@@ -19017,7 +19016,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I164">
         <v>8</v>
@@ -19060,7 +19059,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I165">
         <v>20</v>
@@ -19103,7 +19102,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I166">
         <v>4</v>
@@ -19146,7 +19145,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I167">
         <v>4</v>
@@ -19189,7 +19188,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I168">
         <v>4</v>
@@ -19232,7 +19231,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I169">
         <v>4</v>
@@ -19275,7 +19274,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I170">
         <v>4</v>
@@ -19318,7 +19317,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I171">
         <v>4</v>
@@ -19361,7 +19360,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I172">
         <v>4</v>
@@ -19404,7 +19403,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I173">
         <v>4</v>
@@ -19447,7 +19446,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I174">
         <v>12</v>
@@ -19490,7 +19489,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I175">
         <v>4</v>
@@ -19533,7 +19532,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I176">
         <v>4</v>
@@ -19576,7 +19575,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I177">
         <v>12</v>
@@ -19619,7 +19618,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I178">
         <v>4</v>
@@ -19662,7 +19661,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I179">
         <v>12</v>
@@ -19705,7 +19704,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I180">
         <v>12</v>
@@ -19748,7 +19747,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I181">
         <v>4</v>
@@ -19791,7 +19790,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I182">
         <v>20</v>
@@ -19834,7 +19833,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I183">
         <v>4</v>
@@ -19877,7 +19876,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I184">
         <v>4</v>
@@ -19920,7 +19919,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I185">
         <v>4</v>
@@ -19963,7 +19962,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I186">
         <v>4</v>
@@ -20006,7 +20005,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I187">
         <v>28</v>
@@ -20049,7 +20048,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I188">
         <v>4</v>
@@ -20092,7 +20091,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I189">
         <v>24</v>
@@ -20135,7 +20134,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I190">
         <v>8</v>
@@ -20178,7 +20177,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I191">
         <v>32</v>
@@ -20221,7 +20220,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I192">
         <v>4</v>
@@ -20264,7 +20263,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I193">
         <v>4</v>
@@ -20307,7 +20306,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I194">
         <v>16</v>
@@ -20350,7 +20349,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I195">
         <v>24</v>
@@ -20393,7 +20392,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I196">
         <v>8</v>
@@ -20436,7 +20435,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I197">
         <v>16</v>
@@ -20479,7 +20478,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I198">
         <v>4</v>
@@ -20522,7 +20521,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I199">
         <v>8</v>
@@ -20565,7 +20564,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I200">
         <v>4</v>
@@ -20608,7 +20607,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I201">
         <v>4</v>
@@ -20651,7 +20650,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I202">
         <v>4</v>
@@ -20694,7 +20693,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I203">
         <v>8</v>
@@ -20737,7 +20736,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I204">
         <v>4</v>
@@ -20780,7 +20779,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I205">
         <v>16</v>
@@ -20823,7 +20822,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I206">
         <v>24</v>
@@ -20866,7 +20865,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I207">
         <v>16</v>
@@ -20909,7 +20908,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I208">
         <v>8</v>
@@ -20952,7 +20951,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I209">
         <v>8</v>
@@ -20995,7 +20994,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I210">
         <v>4</v>
@@ -21038,7 +21037,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I211">
         <v>24</v>
@@ -21081,7 +21080,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I212">
         <v>16</v>
@@ -21124,7 +21123,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I213">
         <v>8</v>
@@ -21167,7 +21166,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I214">
         <v>4</v>
@@ -21210,7 +21209,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I215">
         <v>24</v>
@@ -21253,7 +21252,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I216">
         <v>4</v>
@@ -21296,7 +21295,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I217">
         <v>4</v>
@@ -21339,7 +21338,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -21382,7 +21381,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I219">
         <v>8</v>
@@ -21425,7 +21424,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I220">
         <v>4</v>
@@ -21468,7 +21467,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I221">
         <v>16</v>
@@ -21511,7 +21510,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I222">
         <v>20</v>
@@ -21554,7 +21553,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I223">
         <v>24</v>
@@ -21597,7 +21596,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I224">
         <v>4</v>
@@ -21640,7 +21639,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I225">
         <v>16</v>
@@ -21683,7 +21682,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I226">
         <v>8</v>
@@ -21726,7 +21725,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I227">
         <v>24</v>
@@ -21769,7 +21768,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I228">
         <v>8</v>
@@ -21812,7 +21811,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I229">
         <v>16</v>
@@ -21855,7 +21854,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I230">
         <v>12</v>
@@ -21898,7 +21897,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I231">
         <v>24</v>
@@ -21941,7 +21940,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I232">
         <v>4</v>
@@ -21984,7 +21983,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I233">
         <v>12</v>
@@ -22027,7 +22026,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I234">
         <v>4</v>
@@ -22070,7 +22069,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I235">
         <v>4</v>
@@ -22113,7 +22112,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I236">
         <v>4</v>
@@ -22156,7 +22155,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I237">
         <v>4</v>
@@ -22199,7 +22198,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I238">
         <v>20</v>
@@ -22242,7 +22241,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I239">
         <v>8</v>
@@ -22285,7 +22284,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I240">
         <v>4</v>
@@ -22328,7 +22327,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I241">
         <v>8</v>
@@ -22371,7 +22370,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I242">
         <v>4</v>
@@ -22414,7 +22413,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I243">
         <v>4</v>
@@ -22457,7 +22456,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I244">
         <v>4</v>
@@ -22500,7 +22499,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I245">
         <v>8</v>
@@ -22543,7 +22542,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I246">
         <v>8</v>
@@ -22586,7 +22585,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I247">
         <v>8</v>
@@ -22629,7 +22628,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I248">
         <v>4</v>
@@ -22672,7 +22671,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I249">
         <v>24</v>
@@ -22715,7 +22714,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I250">
         <v>20</v>
@@ -22758,7 +22757,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I251">
         <v>8</v>
@@ -22801,7 +22800,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I252">
         <v>16</v>
@@ -22844,7 +22843,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I253">
         <v>4</v>
@@ -22887,7 +22886,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I254">
         <v>16</v>
@@ -22930,7 +22929,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I255">
         <v>12</v>
@@ -22973,7 +22972,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I256">
         <v>4</v>
@@ -23016,7 +23015,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I257">
         <v>20</v>
@@ -23059,7 +23058,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I258">
         <v>4</v>
@@ -23102,7 +23101,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I259">
         <v>12</v>
@@ -23145,7 +23144,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I260">
         <v>12</v>
@@ -23188,7 +23187,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I261">
         <v>24</v>
@@ -23231,7 +23230,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I262">
         <v>8</v>
@@ -23274,7 +23273,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I263">
         <v>24</v>
@@ -23317,7 +23316,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I264">
         <v>24</v>
@@ -23360,7 +23359,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I265">
         <v>12</v>
@@ -23403,7 +23402,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I266">
         <v>12</v>
@@ -23446,7 +23445,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I267">
         <v>20</v>
@@ -23489,7 +23488,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I268">
         <v>4</v>
@@ -23532,7 +23531,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I269">
         <v>4</v>
@@ -23575,7 +23574,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I270">
         <v>20</v>
@@ -23618,7 +23617,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I271">
         <v>16</v>
@@ -23661,7 +23660,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I272">
         <v>4</v>
@@ -23704,7 +23703,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I273">
         <v>4</v>
@@ -23747,7 +23746,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I274">
         <v>4</v>
@@ -23790,7 +23789,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I275">
         <v>12</v>
@@ -23833,7 +23832,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I276">
         <v>4</v>
@@ -23876,7 +23875,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I277">
         <v>4</v>
@@ -23919,7 +23918,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I278">
         <v>4</v>
@@ -23962,7 +23961,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I279">
         <v>28</v>
@@ -24005,7 +24004,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I280">
         <v>16</v>
@@ -24048,7 +24047,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I281">
         <v>4</v>
@@ -24091,7 +24090,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I282">
         <v>24</v>
@@ -24134,7 +24133,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I283">
         <v>4</v>
@@ -24177,7 +24176,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I284">
         <v>4</v>
@@ -24220,7 +24219,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I285">
         <v>4</v>
@@ -24263,7 +24262,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I286">
         <v>4</v>
@@ -24306,7 +24305,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I287">
         <v>4</v>
@@ -24349,7 +24348,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I288">
         <v>4</v>
@@ -24392,7 +24391,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I289">
         <v>32</v>
@@ -24435,7 +24434,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I290">
         <v>4</v>
@@ -24478,7 +24477,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I291">
         <v>4</v>
@@ -24521,7 +24520,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I292">
         <v>16</v>
@@ -24564,7 +24563,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I293">
         <v>4</v>
@@ -24607,7 +24606,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I294">
         <v>24</v>
@@ -24650,7 +24649,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I295">
         <v>8</v>
@@ -24693,7 +24692,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I296">
         <v>12</v>
@@ -24736,7 +24735,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I297">
         <v>8</v>
@@ -24779,7 +24778,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I298">
         <v>4</v>
@@ -24822,7 +24821,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I299">
         <v>4</v>
@@ -24865,7 +24864,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I300">
         <v>8</v>
@@ -24908,7 +24907,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I301">
         <v>4</v>
@@ -24951,7 +24950,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I302">
         <v>4</v>
@@ -24994,7 +24993,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I303">
         <v>32</v>
@@ -25037,7 +25036,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I304">
         <v>4</v>
@@ -25080,7 +25079,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I305">
         <v>4</v>
@@ -25123,7 +25122,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I306">
         <v>20</v>
@@ -25166,7 +25165,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I307">
         <v>4</v>
@@ -25209,7 +25208,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I308">
         <v>4</v>
@@ -25252,7 +25251,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I309">
         <v>28</v>
@@ -25295,7 +25294,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I310">
         <v>36</v>
@@ -25338,7 +25337,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I311">
         <v>4</v>
@@ -25381,7 +25380,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I312">
         <v>16</v>
@@ -25424,7 +25423,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I313">
         <v>4</v>
@@ -25467,7 +25466,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I314">
         <v>16</v>
@@ -25510,7 +25509,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I315">
         <v>4</v>
@@ -25553,7 +25552,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I316">
         <v>4</v>
@@ -25596,7 +25595,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I317">
         <v>24</v>
@@ -25639,7 +25638,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I318">
         <v>4</v>
@@ -25682,7 +25681,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I319">
         <v>16</v>
@@ -25725,7 +25724,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I320">
         <v>12</v>
@@ -25768,7 +25767,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I321">
         <v>12</v>
@@ -25811,7 +25810,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I322">
         <v>4</v>
@@ -25854,7 +25853,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I323">
         <v>8</v>
@@ -25897,7 +25896,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I324">
         <v>20</v>
@@ -25940,7 +25939,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I325">
         <v>4</v>
@@ -25983,7 +25982,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I326">
         <v>24</v>
@@ -26026,7 +26025,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I327">
         <v>16</v>
@@ -26069,7 +26068,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I328">
         <v>4</v>
@@ -26112,7 +26111,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I329">
         <v>16</v>
@@ -26155,7 +26154,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I330">
         <v>4</v>
@@ -26198,7 +26197,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I331">
         <v>4</v>
@@ -26241,7 +26240,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I332">
         <v>8</v>
@@ -26284,7 +26283,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I333">
         <v>20</v>
@@ -26327,7 +26326,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I334">
         <v>4</v>
@@ -26370,7 +26369,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I335">
         <v>24</v>
@@ -26413,7 +26412,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I336">
         <v>8</v>
@@ -26456,7 +26455,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I337">
         <v>8</v>
@@ -26499,7 +26498,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I338">
         <v>16</v>
@@ -26542,7 +26541,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I339">
         <v>8</v>
@@ -26585,7 +26584,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I340">
         <v>12</v>
@@ -26628,7 +26627,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I341">
         <v>16</v>
@@ -26671,7 +26670,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I342">
         <v>12</v>
@@ -26714,7 +26713,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I343">
         <v>20</v>
@@ -26757,7 +26756,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I344">
         <v>4</v>
@@ -26800,7 +26799,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I345">
         <v>16</v>
@@ -26843,7 +26842,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I346">
         <v>8</v>
@@ -26886,7 +26885,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I347">
         <v>20</v>
@@ -26929,7 +26928,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I348">
         <v>4</v>
@@ -26972,7 +26971,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I349">
         <v>4</v>
@@ -27015,7 +27014,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I350">
         <v>4</v>
@@ -27058,7 +27057,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I351">
         <v>8</v>
@@ -27101,7 +27100,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I352">
         <v>4</v>
@@ -27144,7 +27143,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I353">
         <v>8</v>
@@ -27187,7 +27186,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I354">
         <v>28</v>
@@ -27230,7 +27229,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I355">
         <v>4</v>
@@ -27273,7 +27272,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I356">
         <v>4</v>
@@ -27316,7 +27315,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I357">
         <v>4</v>
@@ -27359,7 +27358,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I358">
         <v>4</v>
@@ -27402,7 +27401,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I359">
         <v>4</v>
@@ -27445,7 +27444,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I360">
         <v>4</v>
@@ -27488,7 +27487,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I361">
         <v>4</v>
@@ -27531,7 +27530,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I362">
         <v>4</v>
@@ -27574,7 +27573,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I363">
         <v>4</v>
@@ -27617,7 +27616,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I364">
         <v>24</v>
@@ -27660,7 +27659,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I365">
         <v>12</v>
@@ -27703,7 +27702,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I366">
         <v>16</v>
@@ -27746,7 +27745,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I367">
         <v>24</v>
@@ -27789,7 +27788,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I368">
         <v>4</v>
@@ -27832,7 +27831,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I369">
         <v>4</v>
@@ -27875,7 +27874,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I370">
         <v>4</v>
@@ -27918,7 +27917,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I371">
         <v>8</v>
@@ -27961,7 +27960,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I372">
         <v>16</v>
@@ -28004,7 +28003,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I373">
         <v>4</v>
@@ -28047,7 +28046,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I374">
         <v>24</v>
@@ -28090,7 +28089,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I375">
         <v>24</v>
@@ -28133,7 +28132,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I376">
         <v>4</v>
@@ -28176,7 +28175,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I377">
         <v>32</v>
@@ -28219,7 +28218,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I378">
         <v>4</v>
@@ -28262,7 +28261,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I379">
         <v>4</v>
@@ -28305,7 +28304,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I380">
         <v>4</v>
@@ -28348,7 +28347,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I381">
         <v>4</v>
@@ -28391,7 +28390,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I382">
         <v>36</v>
@@ -28434,7 +28433,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I383">
         <v>4</v>
@@ -28477,7 +28476,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I384">
         <v>4</v>
@@ -28520,7 +28519,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I385">
         <v>4</v>
@@ -28563,7 +28562,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I386">
         <v>4</v>
@@ -28606,7 +28605,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H450" ca="1" si="12">TODAY()+M387</f>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I387">
         <v>16</v>
@@ -28649,7 +28648,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I388">
         <v>32</v>
@@ -28692,7 +28691,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I389">
         <v>32</v>
@@ -28735,7 +28734,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I390">
         <v>8</v>
@@ -28778,7 +28777,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I391">
         <v>4</v>
@@ -28821,7 +28820,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I392">
         <v>24</v>
@@ -28864,7 +28863,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I393">
         <v>16</v>
@@ -28907,7 +28906,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I394">
         <v>4</v>
@@ -28950,7 +28949,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I395">
         <v>4</v>
@@ -28993,7 +28992,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I396">
         <v>24</v>
@@ -29036,7 +29035,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I397">
         <v>4</v>
@@ -29079,7 +29078,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I398">
         <v>4</v>
@@ -29122,7 +29121,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I399">
         <v>24</v>
@@ -29165,7 +29164,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I400">
         <v>28</v>
@@ -29208,7 +29207,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I401">
         <v>4</v>
@@ -29251,7 +29250,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I402">
         <v>4</v>
@@ -29294,7 +29293,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I403">
         <v>8</v>
@@ -29337,7 +29336,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I404">
         <v>24</v>
@@ -29380,7 +29379,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I405">
         <v>20</v>
@@ -29423,7 +29422,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I406">
         <v>4</v>
@@ -29466,7 +29465,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I407">
         <v>4</v>
@@ -29509,7 +29508,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I408">
         <v>4</v>
@@ -29552,7 +29551,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I409">
         <v>24</v>
@@ -29595,7 +29594,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I410">
         <v>4</v>
@@ -29638,7 +29637,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I411">
         <v>8</v>
@@ -29681,7 +29680,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I412">
         <v>8</v>
@@ -29724,7 +29723,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I413">
         <v>4</v>
@@ -29767,7 +29766,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I414">
         <v>8</v>
@@ -29810,7 +29809,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I415">
         <v>24</v>
@@ -29853,7 +29852,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I416">
         <v>24</v>
@@ -29896,7 +29895,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I417">
         <v>8</v>
@@ -29939,7 +29938,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I418">
         <v>28</v>
@@ -29982,7 +29981,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I419">
         <v>4</v>
@@ -30025,7 +30024,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I420">
         <v>20</v>
@@ -30068,7 +30067,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I421">
         <v>20</v>
@@ -30111,7 +30110,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I422">
         <v>4</v>
@@ -30154,7 +30153,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I423">
         <v>20</v>
@@ -30197,7 +30196,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I424">
         <v>8</v>
@@ -30240,7 +30239,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I425">
         <v>4</v>
@@ -30283,7 +30282,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I426">
         <v>24</v>
@@ -30326,7 +30325,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I427">
         <v>4</v>
@@ -30369,7 +30368,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I428">
         <v>8</v>
@@ -30412,7 +30411,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I429">
         <v>16</v>
@@ -30455,7 +30454,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I430">
         <v>12</v>
@@ -30498,7 +30497,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I431">
         <v>4</v>
@@ -30541,7 +30540,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I432">
         <v>12</v>
@@ -30584,7 +30583,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I433">
         <v>4</v>
@@ -30627,7 +30626,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I434">
         <v>4</v>
@@ -30670,7 +30669,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I435">
         <v>8</v>
@@ -30713,7 +30712,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I436">
         <v>4</v>
@@ -30756,7 +30755,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I437">
         <v>16</v>
@@ -30799,7 +30798,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I438">
         <v>16</v>
@@ -30842,7 +30841,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I439">
         <v>12</v>
@@ -30885,7 +30884,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I440">
         <v>12</v>
@@ -30928,7 +30927,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I441">
         <v>4</v>
@@ -30971,7 +30970,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I442">
         <v>4</v>
@@ -31014,7 +31013,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I443">
         <v>8</v>
@@ -31057,7 +31056,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I444">
         <v>20</v>
@@ -31100,7 +31099,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I445">
         <v>4</v>
@@ -31143,7 +31142,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I446">
         <v>4</v>
@@ -31186,7 +31185,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I447">
         <v>12</v>
@@ -31229,7 +31228,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I448">
         <v>16</v>
@@ -31272,7 +31271,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I449">
         <v>16</v>
@@ -31315,7 +31314,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I450">
         <v>16</v>
@@ -31358,7 +31357,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ref="H451:H514" ca="1" si="14">TODAY()+M451</f>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I451">
         <v>8</v>
@@ -31401,7 +31400,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I452">
         <v>4</v>
@@ -31444,7 +31443,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I453">
         <v>4</v>
@@ -31487,7 +31486,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I454">
         <v>36</v>
@@ -31530,7 +31529,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I455">
         <v>8</v>
@@ -31573,7 +31572,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I456">
         <v>4</v>
@@ -31616,7 +31615,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I457">
         <v>4</v>
@@ -31659,7 +31658,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I458">
         <v>16</v>
@@ -31702,7 +31701,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I459">
         <v>4</v>
@@ -31745,7 +31744,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I460">
         <v>4</v>
@@ -31788,7 +31787,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I461">
         <v>20</v>
@@ -31831,7 +31830,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I462">
         <v>24</v>
@@ -31874,7 +31873,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I463">
         <v>4</v>
@@ -31917,7 +31916,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I464">
         <v>8</v>
@@ -31960,7 +31959,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I465">
         <v>4</v>
@@ -32003,7 +32002,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I466">
         <v>8</v>
@@ -32046,7 +32045,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I467">
         <v>24</v>
@@ -32089,7 +32088,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I468">
         <v>8</v>
@@ -32132,7 +32131,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I469">
         <v>24</v>
@@ -32175,7 +32174,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I470">
         <v>4</v>
@@ -32218,7 +32217,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I471">
         <v>20</v>
@@ -32261,7 +32260,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I472">
         <v>4</v>
@@ -32304,7 +32303,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I473">
         <v>4</v>
@@ -32347,7 +32346,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I474">
         <v>28</v>
@@ -32390,7 +32389,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I475">
         <v>4</v>
@@ -32433,7 +32432,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I476">
         <v>4</v>
@@ -32476,7 +32475,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I477">
         <v>24</v>
@@ -32519,7 +32518,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I478">
         <v>4</v>
@@ -32562,7 +32561,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I479">
         <v>24</v>
@@ -32605,7 +32604,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I480">
         <v>4</v>
@@ -32648,7 +32647,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I481">
         <v>4</v>
@@ -32691,7 +32690,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I482">
         <v>8</v>
@@ -32734,7 +32733,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I483">
         <v>24</v>
@@ -32777,7 +32776,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I484">
         <v>20</v>
@@ -32820,7 +32819,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I485">
         <v>4</v>
@@ -32863,7 +32862,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I486">
         <v>16</v>
@@ -32906,7 +32905,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I487">
         <v>4</v>
@@ -32949,7 +32948,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I488">
         <v>28</v>
@@ -32992,7 +32991,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I489">
         <v>4</v>
@@ -33035,7 +33034,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I490">
         <v>4</v>
@@ -33078,7 +33077,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I491">
         <v>24</v>
@@ -33121,7 +33120,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I492">
         <v>4</v>
@@ -33164,7 +33163,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I493">
         <v>8</v>
@@ -33207,7 +33206,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I494">
         <v>4</v>
@@ -33250,7 +33249,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I495">
         <v>20</v>
@@ -33293,7 +33292,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I496">
         <v>4</v>
@@ -33336,7 +33335,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I497">
         <v>4</v>
@@ -33379,7 +33378,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I498">
         <v>20</v>
@@ -33422,7 +33421,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I499">
         <v>24</v>
@@ -33465,7 +33464,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I500">
         <v>4</v>
@@ -33508,7 +33507,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I501">
         <v>24</v>
@@ -33551,7 +33550,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I502">
         <v>4</v>
@@ -33594,7 +33593,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I503">
         <v>4</v>
@@ -33637,7 +33636,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I504">
         <v>4</v>
@@ -33680,7 +33679,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I505">
         <v>12</v>
@@ -33723,7 +33722,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I506">
         <v>8</v>
@@ -33766,7 +33765,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I507">
         <v>16</v>
@@ -33809,7 +33808,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I508">
         <v>12</v>
@@ -33852,7 +33851,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I509">
         <v>8</v>
@@ -33895,7 +33894,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I510">
         <v>12</v>
@@ -33938,7 +33937,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I511">
         <v>24</v>
@@ -33981,7 +33980,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I512">
         <v>4</v>
@@ -34024,7 +34023,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I513">
         <v>28</v>
@@ -34067,7 +34066,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I514">
         <v>4</v>
@@ -34110,7 +34109,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ref="H515:H578" ca="1" si="16">TODAY()+M515</f>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I515">
         <v>24</v>
@@ -34153,7 +34152,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I516">
         <v>8</v>
@@ -34196,7 +34195,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I517">
         <v>4</v>
@@ -34239,7 +34238,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I518">
         <v>32</v>
@@ -34282,7 +34281,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I519">
         <v>4</v>
@@ -34325,7 +34324,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I520">
         <v>4</v>
@@ -34368,7 +34367,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I521">
         <v>16</v>
@@ -34411,7 +34410,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I522">
         <v>8</v>
@@ -34454,7 +34453,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I523">
         <v>4</v>
@@ -34497,7 +34496,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I524">
         <v>4</v>
@@ -34540,7 +34539,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I525">
         <v>24</v>
@@ -34583,7 +34582,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I526">
         <v>12</v>
@@ -34626,7 +34625,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I527">
         <v>4</v>
@@ -34669,7 +34668,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I528">
         <v>16</v>
@@ -34712,7 +34711,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I529">
         <v>4</v>
@@ -34755,7 +34754,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I530">
         <v>8</v>
@@ -34798,7 +34797,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I531">
         <v>4</v>
@@ -34841,7 +34840,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I532">
         <v>24</v>
@@ -34884,7 +34883,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I533">
         <v>4</v>
@@ -34927,7 +34926,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I534">
         <v>12</v>
@@ -34970,7 +34969,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I535">
         <v>8</v>
@@ -35013,7 +35012,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I536">
         <v>4</v>
@@ -35056,7 +35055,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I537">
         <v>8</v>
@@ -35099,7 +35098,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I538">
         <v>40</v>
@@ -35142,7 +35141,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I539">
         <v>4</v>
@@ -35185,7 +35184,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I540">
         <v>12</v>
@@ -35228,7 +35227,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I541">
         <v>8</v>
@@ -35271,7 +35270,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I542">
         <v>8</v>
@@ -35314,7 +35313,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I543">
         <v>4</v>
@@ -35357,7 +35356,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I544">
         <v>4</v>
@@ -35400,7 +35399,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I545">
         <v>4</v>
@@ -35443,7 +35442,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I546">
         <v>16</v>
@@ -35486,7 +35485,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I547">
         <v>16</v>
@@ -35529,7 +35528,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I548">
         <v>4</v>
@@ -35572,7 +35571,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I549">
         <v>4</v>
@@ -35615,7 +35614,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I550">
         <v>16</v>
@@ -35658,7 +35657,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I551">
         <v>4</v>
@@ -35701,7 +35700,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I552">
         <v>24</v>
@@ -35744,7 +35743,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I553">
         <v>8</v>
@@ -35787,7 +35786,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I554">
         <v>12</v>
@@ -35830,7 +35829,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I555">
         <v>16</v>
@@ -35873,7 +35872,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I556">
         <v>4</v>
@@ -35916,7 +35915,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I557">
         <v>4</v>
@@ -35959,7 +35958,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I558">
         <v>8</v>
@@ -36002,7 +36001,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I559">
         <v>4</v>
@@ -36045,7 +36044,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I560">
         <v>16</v>
@@ -36088,7 +36087,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I561">
         <v>8</v>
@@ -36131,7 +36130,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I562">
         <v>4</v>
@@ -36174,7 +36173,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I563">
         <v>4</v>
@@ -36217,7 +36216,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I564">
         <v>4</v>
@@ -36260,7 +36259,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I565">
         <v>4</v>
@@ -36303,7 +36302,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I566">
         <v>20</v>
@@ -36346,7 +36345,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I567">
         <v>4</v>
@@ -36389,7 +36388,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I568">
         <v>32</v>
@@ -36432,7 +36431,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I569">
         <v>8</v>
@@ -36475,7 +36474,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I570">
         <v>8</v>
@@ -36518,7 +36517,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I571">
         <v>16</v>
@@ -36561,7 +36560,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I572">
         <v>4</v>
@@ -36604,7 +36603,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I573">
         <v>24</v>
@@ -36647,7 +36646,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I574">
         <v>4</v>
@@ -36690,7 +36689,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I575">
         <v>24</v>
@@ -36733,7 +36732,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I576">
         <v>32</v>
@@ -36776,7 +36775,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I577">
         <v>4</v>
@@ -36819,7 +36818,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I578">
         <v>4</v>
@@ -36862,7 +36861,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ref="H579:H596" ca="1" si="18">TODAY()+M579</f>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I579">
         <v>4</v>
@@ -36905,7 +36904,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I580">
         <v>24</v>
@@ -36948,7 +36947,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I581">
         <v>24</v>
@@ -36991,7 +36990,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I582">
         <v>4</v>
@@ -37034,7 +37033,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I583">
         <v>8</v>
@@ -37077,7 +37076,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I584">
         <v>12</v>
@@ -37120,7 +37119,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I585">
         <v>8</v>
@@ -37163,7 +37162,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I586">
         <v>4</v>
@@ -37206,7 +37205,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I587">
         <v>4</v>
@@ -37249,7 +37248,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I588">
         <v>24</v>
@@ -37292,7 +37291,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I589">
         <v>16</v>
@@ -37335,7 +37334,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I590">
         <v>4</v>
@@ -37378,7 +37377,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I591">
         <v>4</v>
@@ -37421,7 +37420,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I592">
         <v>4</v>
@@ -37464,7 +37463,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I593">
         <v>4</v>
@@ -37507,7 +37506,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I594">
         <v>24</v>
@@ -37550,7 +37549,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I595">
         <v>12</v>
@@ -37593,7 +37592,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I596">
         <v>8</v>
@@ -37628,7 +37627,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
@@ -37786,13 +37785,13 @@
       <c r="A7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>1978</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>510</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7">
         <v>2488</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -37836,13 +37835,13 @@
       <c r="A8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>1044.8400000000001</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8">
         <v>1502</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8">
         <v>2546.84</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -37886,13 +37885,13 @@
       <c r="A9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>1896</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9">
         <v>306</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9">
         <v>2202</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -37936,11 +37935,10 @@
       <c r="A10" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10">
         <v>1936.5</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="D10">
         <v>1936.5</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -37981,13 +37979,13 @@
       <c r="A11" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11">
         <v>2064</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11">
         <v>581</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11">
         <v>2645</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -38031,13 +38029,13 @@
       <c r="A12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12">
         <v>2043</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12">
         <v>718</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12">
         <v>2761</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -38081,13 +38079,13 @@
       <c r="A13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13">
         <v>1704</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13">
         <v>441</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13">
         <v>2145</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -38131,13 +38129,13 @@
       <c r="A14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14">
         <v>1463</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14">
         <v>1048</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14">
         <v>2511</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -38181,13 +38179,13 @@
       <c r="A15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15">
         <v>1180</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15">
         <v>1042.5</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15">
         <v>2222.5</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -38231,13 +38229,13 @@
       <c r="A16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16">
         <v>1243.75</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16">
         <v>1284</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16">
         <v>2527.75</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -38281,13 +38279,13 @@
       <c r="A17" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>2077</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17">
         <v>608</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17">
         <v>2685</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -38331,11 +38329,10 @@
       <c r="A18" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>1839</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
+      <c r="D18">
         <v>1839</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -38376,13 +38373,13 @@
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19">
         <v>1129</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19">
         <v>1030</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19">
         <v>2159</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -38426,13 +38423,13 @@
       <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20">
         <v>1370.5</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20">
         <v>1136.5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20">
         <v>2507</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -38476,13 +38473,13 @@
       <c r="A21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21">
         <v>1366.5</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21">
         <v>356</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21">
         <v>1722.5</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -38526,11 +38523,10 @@
       <c r="A22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22">
         <v>2576.5</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11">
+      <c r="D22">
         <v>2576.5</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -38571,11 +38567,10 @@
       <c r="A23" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23">
         <v>2510.5</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11">
+      <c r="D23">
         <v>2510.5</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -38616,13 +38611,13 @@
       <c r="A24" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24">
         <v>1130.5</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24">
         <v>276</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24">
         <v>1406.5</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -38666,13 +38661,13 @@
       <c r="A25" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25">
         <v>2117</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25">
         <v>678</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25">
         <v>2795</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -38716,11 +38711,10 @@
       <c r="A26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26">
         <v>3099.5</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11">
+      <c r="D26">
         <v>3099.5</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -38761,13 +38755,13 @@
       <c r="A27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27">
         <v>1996</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27">
         <v>620</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27">
         <v>2616</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -38811,13 +38805,13 @@
       <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28">
         <v>1721</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28">
         <v>33</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28">
         <v>1754</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -38861,13 +38855,13 @@
       <c r="A29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29">
         <v>1668.5</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29">
         <v>918</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29">
         <v>2586.5</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -38911,11 +38905,10 @@
       <c r="A30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30">
         <v>2925</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11">
+      <c r="D30">
         <v>2925</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -38956,11 +38949,10 @@
       <c r="A31" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31">
         <v>2653</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11">
+      <c r="D31">
         <v>2653</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -39001,13 +38993,13 @@
       <c r="A32" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32">
         <v>2400</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32">
         <v>52</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32">
         <v>2452</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -39051,13 +39043,13 @@
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33">
         <v>1599.5</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33">
         <v>312</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33">
         <v>1911.5</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -39101,13 +39093,13 @@
       <c r="A34" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34">
         <v>1589</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34">
         <v>720</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34">
         <v>2309</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -39151,13 +39143,13 @@
       <c r="A35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35">
         <v>2002</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35">
         <v>364</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35">
         <v>2366</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -39201,13 +39193,13 @@
       <c r="A36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36">
         <v>1403</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36">
         <v>626</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36">
         <v>2029</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -39251,13 +39243,13 @@
       <c r="A37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37">
         <v>55726.09</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37">
         <v>15162</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37">
         <v>70888.09</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -39319,7 +39311,7 @@
         <v>2</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" ref="N8:N44" si="6">L38*60+M38*90+(L38+M38)*15</f>
+        <f t="shared" ref="N38:N44" si="6">L38*60+M38*90+(L38+M38)*15</f>
         <v>810</v>
       </c>
     </row>

--- a/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/OrdensDeCliente.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CDEE48-F9A7-4295-BFF3-50E123FB221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F529A03-3840-4BB4-B85A-55AE8BF537D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32025" yWindow="12570" windowWidth="15990" windowHeight="15300" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="25905" yWindow="15105" windowWidth="27855" windowHeight="16095" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OrdensDeCliente" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$596</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OrdensDeCliente!$A$1:$K$596</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2029,7 +2029,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -2138,7 +2138,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="5515998066060" refreshedDate="45887.92780636574" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="595" xr:uid="{FBB48B95-F788-4F08-95E5-E74CBAB44080}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L596" sheet="Sheet1"/>
+    <worksheetSource ref="A1:L596" sheet="OrdensDeCliente" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="NumeroOrdem" numFmtId="0">
@@ -11010,7 +11010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11964,7 +11964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I596"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -12090,7 +12090,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I11">
         <v>24</v>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I12">
         <v>24</v>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I16">
         <v>12</v>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I21">
         <v>16</v>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I24">
         <v>24</v>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I25">
         <v>24</v>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -13211,7 +13211,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -13297,7 +13297,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I31">
         <v>8</v>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I34">
         <v>16</v>
@@ -13469,7 +13469,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I38">
         <v>12</v>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I39">
         <v>12</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I40">
         <v>8</v>
@@ -13727,7 +13727,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -13770,7 +13770,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I42">
         <v>28</v>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -13856,7 +13856,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -13899,7 +13899,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I45">
         <v>4</v>
@@ -13942,7 +13942,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I46">
         <v>20</v>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I47">
         <v>8</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I49">
         <v>8</v>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I51">
         <v>4</v>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I52">
         <v>8</v>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I53">
         <v>36</v>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I55">
         <v>24</v>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I58">
         <v>28</v>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I59">
         <v>4</v>
@@ -14544,7 +14544,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I60">
         <v>24</v>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I61">
         <v>12</v>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I62">
         <v>4</v>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -14759,7 +14759,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I65">
         <v>20</v>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I66">
         <v>4</v>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I67">
         <v>20</v>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I68">
         <v>32</v>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -14974,7 +14974,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I70">
         <v>8</v>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I71">
         <v>4</v>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -15232,7 +15232,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I76">
         <v>32</v>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I78">
         <v>4</v>
@@ -15361,7 +15361,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I79">
         <v>4</v>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I81">
         <v>28</v>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I82">
         <v>4</v>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I84">
         <v>32</v>
@@ -15619,7 +15619,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I85">
         <v>4</v>
@@ -15662,7 +15662,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I86">
         <v>32</v>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I87">
         <v>4</v>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I88">
         <v>16</v>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I89">
         <v>4</v>
@@ -15834,7 +15834,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I90">
         <v>4</v>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I91">
         <v>8</v>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I92">
         <v>24</v>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I93">
         <v>4</v>
@@ -16006,7 +16006,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I94">
         <v>4</v>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I95">
         <v>8</v>
@@ -16092,7 +16092,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I96">
         <v>16</v>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I97">
         <v>36</v>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I99">
         <v>12</v>
@@ -16264,7 +16264,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I100">
         <v>4</v>
@@ -16307,7 +16307,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I102">
         <v>8</v>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I103">
         <v>24</v>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I104">
         <v>20</v>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -16522,7 +16522,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I107">
         <v>24</v>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I108">
         <v>4</v>
@@ -16651,7 +16651,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I109">
         <v>24</v>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I110">
         <v>4</v>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I111">
         <v>4</v>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I112">
         <v>16</v>
@@ -16823,7 +16823,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I113">
         <v>4</v>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I114">
         <v>24</v>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I115">
         <v>4</v>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I116">
         <v>16</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I117">
         <v>4</v>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I118">
         <v>4</v>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I119">
         <v>4</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I120">
         <v>24</v>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -17210,7 +17210,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I122">
         <v>8</v>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I123">
         <v>28</v>
@@ -17296,7 +17296,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I124">
         <v>4</v>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I125">
         <v>4</v>
@@ -17382,7 +17382,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I126">
         <v>4</v>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I127">
         <v>4</v>
@@ -17468,7 +17468,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I128">
         <v>20</v>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -17554,7 +17554,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I130">
         <v>8</v>
@@ -17597,7 +17597,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I131">
         <v>16</v>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I132">
         <v>8</v>
@@ -17683,7 +17683,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I133">
         <v>4</v>
@@ -17726,7 +17726,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I134">
         <v>8</v>
@@ -17769,7 +17769,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I135">
         <v>8</v>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I136">
         <v>28</v>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I137">
         <v>4</v>
@@ -17898,7 +17898,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I138">
         <v>12</v>
@@ -17941,7 +17941,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I139">
         <v>32</v>
@@ -17984,7 +17984,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I140">
         <v>8</v>
@@ -18027,7 +18027,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I141">
         <v>4</v>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I142">
         <v>4</v>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I143">
         <v>4</v>
@@ -18156,7 +18156,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I144">
         <v>36</v>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I145">
         <v>24</v>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I146">
         <v>4</v>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I147">
         <v>4</v>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I148">
         <v>36</v>
@@ -18371,7 +18371,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I149">
         <v>4</v>
@@ -18414,7 +18414,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I150">
         <v>8</v>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I151">
         <v>4</v>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I152">
         <v>8</v>
@@ -18543,7 +18543,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I153">
         <v>16</v>
@@ -18586,7 +18586,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I154">
         <v>16</v>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I155">
         <v>8</v>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I156">
         <v>12</v>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I157">
         <v>4</v>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I158">
         <v>16</v>
@@ -18801,7 +18801,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I159">
         <v>4</v>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I160">
         <v>4</v>
@@ -18887,7 +18887,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I161">
         <v>4</v>
@@ -18930,7 +18930,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I162">
         <v>4</v>
@@ -18973,7 +18973,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I163">
         <v>4</v>
@@ -19016,7 +19016,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I164">
         <v>8</v>
@@ -19059,7 +19059,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I165">
         <v>20</v>
@@ -19102,7 +19102,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I166">
         <v>4</v>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I167">
         <v>4</v>
@@ -19188,7 +19188,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I168">
         <v>4</v>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I169">
         <v>4</v>
@@ -19274,7 +19274,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I170">
         <v>4</v>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I171">
         <v>4</v>
@@ -19360,7 +19360,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I172">
         <v>4</v>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I173">
         <v>4</v>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I174">
         <v>12</v>
@@ -19489,7 +19489,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I175">
         <v>4</v>
@@ -19532,7 +19532,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I176">
         <v>4</v>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I177">
         <v>12</v>
@@ -19618,7 +19618,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I178">
         <v>4</v>
@@ -19661,7 +19661,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I179">
         <v>12</v>
@@ -19704,7 +19704,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I180">
         <v>12</v>
@@ -19747,7 +19747,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I181">
         <v>4</v>
@@ -19790,7 +19790,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I182">
         <v>20</v>
@@ -19833,7 +19833,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I183">
         <v>4</v>
@@ -19876,7 +19876,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I184">
         <v>4</v>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I185">
         <v>4</v>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I186">
         <v>4</v>
@@ -20005,7 +20005,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I187">
         <v>28</v>
@@ -20048,7 +20048,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I188">
         <v>4</v>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I189">
         <v>24</v>
@@ -20134,7 +20134,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I190">
         <v>8</v>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I191">
         <v>32</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I192">
         <v>4</v>
@@ -20263,7 +20263,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I193">
         <v>4</v>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I194">
         <v>16</v>
@@ -20349,7 +20349,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I195">
         <v>24</v>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I196">
         <v>8</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I197">
         <v>16</v>
@@ -20478,7 +20478,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I198">
         <v>4</v>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I199">
         <v>8</v>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I200">
         <v>4</v>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I201">
         <v>4</v>
@@ -20650,7 +20650,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I202">
         <v>4</v>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I203">
         <v>8</v>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I204">
         <v>4</v>
@@ -20779,7 +20779,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I205">
         <v>16</v>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I206">
         <v>24</v>
@@ -20865,7 +20865,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I207">
         <v>16</v>
@@ -20908,7 +20908,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I208">
         <v>8</v>
@@ -20951,7 +20951,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I209">
         <v>8</v>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I210">
         <v>4</v>
@@ -21037,7 +21037,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I211">
         <v>24</v>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I212">
         <v>16</v>
@@ -21123,7 +21123,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I213">
         <v>8</v>
@@ -21166,7 +21166,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I214">
         <v>4</v>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I215">
         <v>24</v>
@@ -21252,7 +21252,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I216">
         <v>4</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I217">
         <v>4</v>
@@ -21338,7 +21338,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -21381,7 +21381,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I219">
         <v>8</v>
@@ -21424,7 +21424,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I220">
         <v>4</v>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I221">
         <v>16</v>
@@ -21510,7 +21510,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I222">
         <v>20</v>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I223">
         <v>24</v>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I224">
         <v>4</v>
@@ -21639,7 +21639,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I225">
         <v>16</v>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I226">
         <v>8</v>
@@ -21725,7 +21725,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I227">
         <v>24</v>
@@ -21768,7 +21768,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I228">
         <v>8</v>
@@ -21811,7 +21811,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I229">
         <v>16</v>
@@ -21854,7 +21854,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I230">
         <v>12</v>
@@ -21897,7 +21897,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I231">
         <v>24</v>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I232">
         <v>4</v>
@@ -21983,7 +21983,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I233">
         <v>12</v>
@@ -22026,7 +22026,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I234">
         <v>4</v>
@@ -22069,7 +22069,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I235">
         <v>4</v>
@@ -22112,7 +22112,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I236">
         <v>4</v>
@@ -22155,7 +22155,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I237">
         <v>4</v>
@@ -22198,7 +22198,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I238">
         <v>20</v>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I239">
         <v>8</v>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I240">
         <v>4</v>
@@ -22327,7 +22327,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I241">
         <v>8</v>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I242">
         <v>4</v>
@@ -22413,7 +22413,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I243">
         <v>4</v>
@@ -22456,7 +22456,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I244">
         <v>4</v>
@@ -22499,7 +22499,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I245">
         <v>8</v>
@@ -22542,7 +22542,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I246">
         <v>8</v>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I247">
         <v>8</v>
@@ -22628,7 +22628,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I248">
         <v>4</v>
@@ -22671,7 +22671,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I249">
         <v>24</v>
@@ -22714,7 +22714,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I250">
         <v>20</v>
@@ -22757,7 +22757,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I251">
         <v>8</v>
@@ -22800,7 +22800,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I252">
         <v>16</v>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I253">
         <v>4</v>
@@ -22886,7 +22886,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I254">
         <v>16</v>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I255">
         <v>12</v>
@@ -22972,7 +22972,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I256">
         <v>4</v>
@@ -23015,7 +23015,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I257">
         <v>20</v>
@@ -23058,7 +23058,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I258">
         <v>4</v>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I259">
         <v>12</v>
@@ -23144,7 +23144,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I260">
         <v>12</v>
@@ -23187,7 +23187,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I261">
         <v>24</v>
@@ -23230,7 +23230,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I262">
         <v>8</v>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I263">
         <v>24</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I264">
         <v>24</v>
@@ -23359,7 +23359,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I265">
         <v>12</v>
@@ -23402,7 +23402,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I266">
         <v>12</v>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I267">
         <v>20</v>
@@ -23488,7 +23488,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I268">
         <v>4</v>
@@ -23531,7 +23531,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I269">
         <v>4</v>
@@ -23574,7 +23574,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I270">
         <v>20</v>
@@ -23617,7 +23617,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I271">
         <v>16</v>
@@ -23660,7 +23660,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I272">
         <v>4</v>
@@ -23703,7 +23703,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I273">
         <v>4</v>
@@ -23746,7 +23746,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I274">
         <v>4</v>
@@ -23789,7 +23789,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I275">
         <v>12</v>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I276">
         <v>4</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I277">
         <v>4</v>
@@ -23918,7 +23918,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I278">
         <v>4</v>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I279">
         <v>28</v>
@@ -24004,7 +24004,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I280">
         <v>16</v>
@@ -24047,7 +24047,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I281">
         <v>4</v>
@@ -24090,7 +24090,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I282">
         <v>24</v>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I283">
         <v>4</v>
@@ -24176,7 +24176,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I284">
         <v>4</v>
@@ -24219,7 +24219,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I285">
         <v>4</v>
@@ -24262,7 +24262,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I286">
         <v>4</v>
@@ -24305,7 +24305,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I287">
         <v>4</v>
@@ -24348,7 +24348,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I288">
         <v>4</v>
@@ -24391,7 +24391,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I289">
         <v>32</v>
@@ -24434,7 +24434,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I290">
         <v>4</v>
@@ -24477,7 +24477,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I291">
         <v>4</v>
@@ -24520,7 +24520,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I292">
         <v>16</v>
@@ -24563,7 +24563,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I293">
         <v>4</v>
@@ -24606,7 +24606,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I294">
         <v>24</v>
@@ -24649,7 +24649,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I295">
         <v>8</v>
@@ -24692,7 +24692,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I296">
         <v>12</v>
@@ -24735,7 +24735,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I297">
         <v>8</v>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I298">
         <v>4</v>
@@ -24821,7 +24821,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I299">
         <v>4</v>
@@ -24864,7 +24864,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I300">
         <v>8</v>
@@ -24907,7 +24907,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I301">
         <v>4</v>
@@ -24950,7 +24950,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I302">
         <v>4</v>
@@ -24993,7 +24993,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I303">
         <v>32</v>
@@ -25036,7 +25036,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I304">
         <v>4</v>
@@ -25079,7 +25079,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I305">
         <v>4</v>
@@ -25122,7 +25122,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I306">
         <v>20</v>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I307">
         <v>4</v>
@@ -25208,7 +25208,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I308">
         <v>4</v>
@@ -25251,7 +25251,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I309">
         <v>28</v>
@@ -25294,7 +25294,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I310">
         <v>36</v>
@@ -25337,7 +25337,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I311">
         <v>4</v>
@@ -25380,7 +25380,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I312">
         <v>16</v>
@@ -25423,7 +25423,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I313">
         <v>4</v>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I314">
         <v>16</v>
@@ -25509,7 +25509,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I315">
         <v>4</v>
@@ -25552,7 +25552,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I316">
         <v>4</v>
@@ -25595,7 +25595,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I317">
         <v>24</v>
@@ -25638,7 +25638,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I318">
         <v>4</v>
@@ -25681,7 +25681,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I319">
         <v>16</v>
@@ -25724,7 +25724,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I320">
         <v>12</v>
@@ -25767,7 +25767,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I321">
         <v>12</v>
@@ -25810,7 +25810,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I322">
         <v>4</v>
@@ -25853,7 +25853,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I323">
         <v>8</v>
@@ -25896,7 +25896,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I324">
         <v>20</v>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I325">
         <v>4</v>
@@ -25982,7 +25982,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I326">
         <v>24</v>
@@ -26025,7 +26025,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I327">
         <v>16</v>
@@ -26068,7 +26068,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I328">
         <v>4</v>
@@ -26111,7 +26111,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I329">
         <v>16</v>
@@ -26154,7 +26154,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I330">
         <v>4</v>
@@ -26197,7 +26197,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I331">
         <v>4</v>
@@ -26240,7 +26240,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I332">
         <v>8</v>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I333">
         <v>20</v>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I334">
         <v>4</v>
@@ -26369,7 +26369,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I335">
         <v>24</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I336">
         <v>8</v>
@@ -26455,7 +26455,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I337">
         <v>8</v>
@@ -26498,7 +26498,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I338">
         <v>16</v>
@@ -26541,7 +26541,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I339">
         <v>8</v>
@@ -26584,7 +26584,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I340">
         <v>12</v>
@@ -26627,7 +26627,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I341">
         <v>16</v>
@@ -26670,7 +26670,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I342">
         <v>12</v>
@@ -26713,7 +26713,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I343">
         <v>20</v>
@@ -26756,7 +26756,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I344">
         <v>4</v>
@@ -26799,7 +26799,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I345">
         <v>16</v>
@@ -26842,7 +26842,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I346">
         <v>8</v>
@@ -26885,7 +26885,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I347">
         <v>20</v>
@@ -26928,7 +26928,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I348">
         <v>4</v>
@@ -26971,7 +26971,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I349">
         <v>4</v>
@@ -27014,7 +27014,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I350">
         <v>4</v>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I351">
         <v>8</v>
@@ -27100,7 +27100,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I352">
         <v>4</v>
@@ -27143,7 +27143,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I353">
         <v>8</v>
@@ -27186,7 +27186,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I354">
         <v>28</v>
@@ -27229,7 +27229,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I355">
         <v>4</v>
@@ -27272,7 +27272,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I356">
         <v>4</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I357">
         <v>4</v>
@@ -27358,7 +27358,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I358">
         <v>4</v>
@@ -27401,7 +27401,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I359">
         <v>4</v>
@@ -27444,7 +27444,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I360">
         <v>4</v>
@@ -27487,7 +27487,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I361">
         <v>4</v>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I362">
         <v>4</v>
@@ -27573,7 +27573,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I363">
         <v>4</v>
@@ -27616,7 +27616,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I364">
         <v>24</v>
@@ -27659,7 +27659,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I365">
         <v>12</v>
@@ -27702,7 +27702,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I366">
         <v>16</v>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I367">
         <v>24</v>
@@ -27788,7 +27788,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I368">
         <v>4</v>
@@ -27831,7 +27831,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I369">
         <v>4</v>
@@ -27874,7 +27874,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I370">
         <v>4</v>
@@ -27917,7 +27917,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I371">
         <v>8</v>
@@ -27960,7 +27960,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I372">
         <v>16</v>
@@ -28003,7 +28003,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I373">
         <v>4</v>
@@ -28046,7 +28046,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I374">
         <v>24</v>
@@ -28089,7 +28089,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I375">
         <v>24</v>
@@ -28132,7 +28132,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I376">
         <v>4</v>
@@ -28175,7 +28175,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I377">
         <v>32</v>
@@ -28218,7 +28218,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I378">
         <v>4</v>
@@ -28261,7 +28261,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I379">
         <v>4</v>
@@ -28304,7 +28304,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I380">
         <v>4</v>
@@ -28347,7 +28347,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I381">
         <v>4</v>
@@ -28390,7 +28390,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I382">
         <v>36</v>
@@ -28433,7 +28433,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I383">
         <v>4</v>
@@ -28476,7 +28476,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I384">
         <v>4</v>
@@ -28519,7 +28519,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I385">
         <v>4</v>
@@ -28562,7 +28562,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I386">
         <v>4</v>
@@ -28605,7 +28605,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H450" ca="1" si="12">TODAY()+M387</f>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I387">
         <v>16</v>
@@ -28648,7 +28648,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I388">
         <v>32</v>
@@ -28691,7 +28691,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I389">
         <v>32</v>
@@ -28734,7 +28734,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I390">
         <v>8</v>
@@ -28777,7 +28777,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I391">
         <v>4</v>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I392">
         <v>24</v>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I393">
         <v>16</v>
@@ -28906,7 +28906,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I394">
         <v>4</v>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I395">
         <v>4</v>
@@ -28992,7 +28992,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I396">
         <v>24</v>
@@ -29035,7 +29035,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I397">
         <v>4</v>
@@ -29078,7 +29078,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I398">
         <v>4</v>
@@ -29121,7 +29121,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I399">
         <v>24</v>
@@ -29164,7 +29164,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I400">
         <v>28</v>
@@ -29207,7 +29207,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I401">
         <v>4</v>
@@ -29250,7 +29250,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I402">
         <v>4</v>
@@ -29293,7 +29293,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I403">
         <v>8</v>
@@ -29336,7 +29336,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I404">
         <v>24</v>
@@ -29379,7 +29379,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I405">
         <v>20</v>
@@ -29422,7 +29422,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I406">
         <v>4</v>
@@ -29465,7 +29465,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I407">
         <v>4</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I408">
         <v>4</v>
@@ -29551,7 +29551,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I409">
         <v>24</v>
@@ -29594,7 +29594,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I410">
         <v>4</v>
@@ -29637,7 +29637,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I411">
         <v>8</v>
@@ -29680,7 +29680,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I412">
         <v>8</v>
@@ -29723,7 +29723,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I413">
         <v>4</v>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I414">
         <v>8</v>
@@ -29809,7 +29809,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I415">
         <v>24</v>
@@ -29852,7 +29852,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I416">
         <v>24</v>
@@ -29895,7 +29895,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I417">
         <v>8</v>
@@ -29938,7 +29938,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I418">
         <v>28</v>
@@ -29981,7 +29981,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I419">
         <v>4</v>
@@ -30024,7 +30024,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I420">
         <v>20</v>
@@ -30067,7 +30067,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I421">
         <v>20</v>
@@ -30110,7 +30110,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I422">
         <v>4</v>
@@ -30153,7 +30153,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I423">
         <v>20</v>
@@ -30196,7 +30196,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I424">
         <v>8</v>
@@ -30239,7 +30239,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I425">
         <v>4</v>
@@ -30282,7 +30282,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I426">
         <v>24</v>
@@ -30325,7 +30325,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I427">
         <v>4</v>
@@ -30368,7 +30368,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I428">
         <v>8</v>
@@ -30411,7 +30411,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I429">
         <v>16</v>
@@ -30454,7 +30454,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I430">
         <v>12</v>
@@ -30497,7 +30497,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I431">
         <v>4</v>
@@ -30540,7 +30540,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I432">
         <v>12</v>
@@ -30583,7 +30583,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I433">
         <v>4</v>
@@ -30626,7 +30626,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I434">
         <v>4</v>
@@ -30669,7 +30669,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I435">
         <v>8</v>
@@ -30712,7 +30712,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I436">
         <v>4</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I437">
         <v>16</v>
@@ -30798,7 +30798,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I438">
         <v>16</v>
@@ -30841,7 +30841,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I439">
         <v>12</v>
@@ -30884,7 +30884,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I440">
         <v>12</v>
@@ -30927,7 +30927,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I441">
         <v>4</v>
@@ -30970,7 +30970,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I442">
         <v>4</v>
@@ -31013,7 +31013,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I443">
         <v>8</v>
@@ -31056,7 +31056,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I444">
         <v>20</v>
@@ -31099,7 +31099,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I445">
         <v>4</v>
@@ -31142,7 +31142,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I446">
         <v>4</v>
@@ -31185,7 +31185,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I447">
         <v>12</v>
@@ -31228,7 +31228,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I448">
         <v>16</v>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I449">
         <v>16</v>
@@ -31314,7 +31314,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I450">
         <v>16</v>
@@ -31357,7 +31357,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ref="H451:H514" ca="1" si="14">TODAY()+M451</f>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I451">
         <v>8</v>
@@ -31400,7 +31400,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I452">
         <v>4</v>
@@ -31443,7 +31443,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I453">
         <v>4</v>
@@ -31486,7 +31486,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I454">
         <v>36</v>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I455">
         <v>8</v>
@@ -31572,7 +31572,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I456">
         <v>4</v>
@@ -31615,7 +31615,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I457">
         <v>4</v>
@@ -31658,7 +31658,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I458">
         <v>16</v>
@@ -31701,7 +31701,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I459">
         <v>4</v>
@@ -31744,7 +31744,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I460">
         <v>4</v>
@@ -31787,7 +31787,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I461">
         <v>20</v>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I462">
         <v>24</v>
@@ -31873,7 +31873,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I463">
         <v>4</v>
@@ -31916,7 +31916,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I464">
         <v>8</v>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I465">
         <v>4</v>
@@ -32002,7 +32002,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I466">
         <v>8</v>
@@ -32045,7 +32045,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I467">
         <v>24</v>
@@ -32088,7 +32088,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I468">
         <v>8</v>
@@ -32131,7 +32131,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I469">
         <v>24</v>
@@ -32174,7 +32174,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I470">
         <v>4</v>
@@ -32217,7 +32217,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I471">
         <v>20</v>
@@ -32260,7 +32260,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I472">
         <v>4</v>
@@ -32303,7 +32303,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I473">
         <v>4</v>
@@ -32346,7 +32346,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I474">
         <v>28</v>
@@ -32389,7 +32389,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I475">
         <v>4</v>
@@ -32432,7 +32432,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I476">
         <v>4</v>
@@ -32475,7 +32475,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I477">
         <v>24</v>
@@ -32518,7 +32518,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I478">
         <v>4</v>
@@ -32561,7 +32561,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I479">
         <v>24</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I480">
         <v>4</v>
@@ -32647,7 +32647,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I481">
         <v>4</v>
@@ -32690,7 +32690,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I482">
         <v>8</v>
@@ -32733,7 +32733,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I483">
         <v>24</v>
@@ -32776,7 +32776,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I484">
         <v>20</v>
@@ -32819,7 +32819,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I485">
         <v>4</v>
@@ -32862,7 +32862,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I486">
         <v>16</v>
@@ -32905,7 +32905,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I487">
         <v>4</v>
@@ -32948,7 +32948,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I488">
         <v>28</v>
@@ -32991,7 +32991,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I489">
         <v>4</v>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I490">
         <v>4</v>
@@ -33077,7 +33077,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I491">
         <v>24</v>
@@ -33120,7 +33120,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I492">
         <v>4</v>
@@ -33163,7 +33163,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I493">
         <v>8</v>
@@ -33206,7 +33206,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I494">
         <v>4</v>
@@ -33249,7 +33249,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I495">
         <v>20</v>
@@ -33292,7 +33292,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I496">
         <v>4</v>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I497">
         <v>4</v>
@@ -33378,7 +33378,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I498">
         <v>20</v>
@@ -33421,7 +33421,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I499">
         <v>24</v>
@@ -33464,7 +33464,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I500">
         <v>4</v>
@@ -33507,7 +33507,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I501">
         <v>24</v>
@@ -33550,7 +33550,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I502">
         <v>4</v>
@@ -33593,7 +33593,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I503">
         <v>4</v>
@@ -33636,7 +33636,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I504">
         <v>4</v>
@@ -33679,7 +33679,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I505">
         <v>12</v>
@@ -33722,7 +33722,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I506">
         <v>8</v>
@@ -33765,7 +33765,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I507">
         <v>16</v>
@@ -33808,7 +33808,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I508">
         <v>12</v>
@@ -33851,7 +33851,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I509">
         <v>8</v>
@@ -33894,7 +33894,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I510">
         <v>12</v>
@@ -33937,7 +33937,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I511">
         <v>24</v>
@@ -33980,7 +33980,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I512">
         <v>4</v>
@@ -34023,7 +34023,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I513">
         <v>28</v>
@@ -34066,7 +34066,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I514">
         <v>4</v>
@@ -34109,7 +34109,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ref="H515:H578" ca="1" si="16">TODAY()+M515</f>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I515">
         <v>24</v>
@@ -34152,7 +34152,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I516">
         <v>8</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I517">
         <v>4</v>
@@ -34238,7 +34238,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I518">
         <v>32</v>
@@ -34281,7 +34281,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I519">
         <v>4</v>
@@ -34324,7 +34324,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I520">
         <v>4</v>
@@ -34367,7 +34367,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I521">
         <v>16</v>
@@ -34410,7 +34410,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I522">
         <v>8</v>
@@ -34453,7 +34453,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I523">
         <v>4</v>
@@ -34496,7 +34496,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I524">
         <v>4</v>
@@ -34539,7 +34539,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I525">
         <v>24</v>
@@ -34582,7 +34582,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I526">
         <v>12</v>
@@ -34625,7 +34625,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I527">
         <v>4</v>
@@ -34668,7 +34668,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I528">
         <v>16</v>
@@ -34711,7 +34711,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I529">
         <v>4</v>
@@ -34754,7 +34754,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I530">
         <v>8</v>
@@ -34797,7 +34797,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I531">
         <v>4</v>
@@ -34840,7 +34840,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I532">
         <v>24</v>
@@ -34883,7 +34883,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I533">
         <v>4</v>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I534">
         <v>12</v>
@@ -34969,7 +34969,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I535">
         <v>8</v>
@@ -35012,7 +35012,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I536">
         <v>4</v>
@@ -35055,7 +35055,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I537">
         <v>8</v>
@@ -35098,7 +35098,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I538">
         <v>40</v>
@@ -35141,7 +35141,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I539">
         <v>4</v>
@@ -35184,7 +35184,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I540">
         <v>12</v>
@@ -35227,7 +35227,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I541">
         <v>8</v>
@@ -35270,7 +35270,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I542">
         <v>8</v>
@@ -35313,7 +35313,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I543">
         <v>4</v>
@@ -35356,7 +35356,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I544">
         <v>4</v>
@@ -35399,7 +35399,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I545">
         <v>4</v>
@@ -35442,7 +35442,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I546">
         <v>16</v>
@@ -35485,7 +35485,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I547">
         <v>16</v>
@@ -35528,7 +35528,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I548">
         <v>4</v>
@@ -35571,7 +35571,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I549">
         <v>4</v>
@@ -35614,7 +35614,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I550">
         <v>16</v>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I551">
         <v>4</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I552">
         <v>24</v>
@@ -35743,7 +35743,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I553">
         <v>8</v>
@@ -35786,7 +35786,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I554">
         <v>12</v>
@@ -35829,7 +35829,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I555">
         <v>16</v>
@@ -35872,7 +35872,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I556">
         <v>4</v>
@@ -35915,7 +35915,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I557">
         <v>4</v>
@@ -35958,7 +35958,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I558">
         <v>8</v>
@@ -36001,7 +36001,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I559">
         <v>4</v>
@@ -36044,7 +36044,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I560">
         <v>16</v>
@@ -36087,7 +36087,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I561">
         <v>8</v>
@@ -36130,7 +36130,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I562">
         <v>4</v>
@@ -36173,7 +36173,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I563">
         <v>4</v>
@@ -36216,7 +36216,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I564">
         <v>4</v>
@@ -36259,7 +36259,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I565">
         <v>4</v>
@@ -36302,7 +36302,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I566">
         <v>20</v>
@@ -36345,7 +36345,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I567">
         <v>4</v>
@@ -36388,7 +36388,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I568">
         <v>32</v>
@@ -36431,7 +36431,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I569">
         <v>8</v>
@@ -36474,7 +36474,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I570">
         <v>8</v>
@@ -36517,7 +36517,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I571">
         <v>16</v>
@@ -36560,7 +36560,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I572">
         <v>4</v>
@@ -36603,7 +36603,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I573">
         <v>24</v>
@@ -36646,7 +36646,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I574">
         <v>4</v>
@@ -36689,7 +36689,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I575">
         <v>24</v>
@@ -36732,7 +36732,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I576">
         <v>32</v>
@@ -36775,7 +36775,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I577">
         <v>4</v>
@@ -36818,7 +36818,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I578">
         <v>4</v>
@@ -36861,7 +36861,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ref="H579:H596" ca="1" si="18">TODAY()+M579</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I579">
         <v>4</v>
@@ -36904,7 +36904,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I580">
         <v>24</v>
@@ -36947,7 +36947,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I581">
         <v>24</v>
@@ -36990,7 +36990,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I582">
         <v>4</v>
@@ -37033,7 +37033,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I583">
         <v>8</v>
@@ -37076,7 +37076,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I584">
         <v>12</v>
@@ -37119,7 +37119,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I585">
         <v>8</v>
@@ -37162,7 +37162,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I586">
         <v>4</v>
@@ -37205,7 +37205,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I587">
         <v>4</v>
@@ -37248,7 +37248,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I588">
         <v>24</v>
@@ -37291,7 +37291,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I589">
         <v>16</v>
@@ -37334,7 +37334,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I590">
         <v>4</v>
@@ -37377,7 +37377,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I591">
         <v>4</v>
@@ -37420,7 +37420,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I592">
         <v>4</v>
@@ -37463,7 +37463,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I593">
         <v>4</v>
@@ -37506,7 +37506,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I594">
         <v>24</v>
@@ -37549,7 +37549,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I595">
         <v>12</v>
@@ -37592,7 +37592,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I596">
         <v>8</v>
